--- a/BackTest/2019-10-26 BackTest LBA.xlsx
+++ b/BackTest/2019-10-26 BackTest LBA.xlsx
@@ -2586,20 +2586,14 @@
         <v>15.14</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>15</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2627,20 +2621,14 @@
         <v>15.12</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>15</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2676,12 +2664,10 @@
       <c r="J65" t="n">
         <v>15.1</v>
       </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2717,10 +2703,12 @@
       <c r="J66" t="n">
         <v>15.1</v>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -2756,9 +2744,11 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="K67" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2797,9 +2787,11 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2840,7 +2832,9 @@
       <c r="J69" t="n">
         <v>15.3</v>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2873,15 +2867,15 @@
         <v>15.26000000000001</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2914,15 +2908,15 @@
         <v>15.30000000000001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2955,15 +2949,15 @@
         <v>15.38000000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2996,15 +2990,15 @@
         <v>15.40000000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3043,7 +3037,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3082,7 +3078,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3121,7 +3119,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3160,7 +3160,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3199,7 +3201,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,7 +3242,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3277,7 +3283,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,7 +3324,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3355,7 +3365,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3394,7 +3406,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3433,7 +3447,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3472,7 +3488,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3511,7 +3529,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,7 +3570,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3589,7 +3611,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,7 +3652,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,7 +3693,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3706,7 +3734,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3745,7 +3775,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,7 +3816,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,7 +3857,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3862,7 +3898,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,7 +3939,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3940,7 +3980,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3979,7 +4021,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4018,7 +4062,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4057,7 +4103,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4096,7 +4144,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4135,7 +4185,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4174,7 +4226,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4213,7 +4267,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4252,7 +4308,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4291,7 +4349,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4330,7 +4390,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4369,7 +4431,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4408,7 +4472,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4447,7 +4513,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4486,7 +4554,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4525,7 +4595,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4564,7 +4636,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4603,7 +4677,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,7 +4718,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4681,7 +4759,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4720,7 +4800,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4759,7 +4841,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4798,7 +4882,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4837,7 +4923,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4876,7 +4964,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4915,7 +5005,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4954,7 +5046,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4993,7 +5087,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5032,7 +5128,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5071,7 +5169,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5110,7 +5210,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5149,7 +5251,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5188,7 +5292,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5227,7 +5333,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5266,7 +5374,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5305,7 +5415,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5344,7 +5456,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5383,7 +5497,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5422,7 +5538,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5461,7 +5579,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5500,7 +5620,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5539,7 +5661,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5578,7 +5702,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,7 +5743,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5656,7 +5784,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5695,7 +5825,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5734,7 +5866,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5773,7 +5907,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,7 +5948,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5851,7 +5989,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5890,7 +6030,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5929,7 +6071,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,7 +6112,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6007,7 +6153,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6046,7 +6194,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6085,7 +6235,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6124,7 +6276,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6163,7 +6317,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6202,7 +6358,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6241,7 +6399,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6280,7 +6440,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6316,17 +6478,19 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>15.1</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>1</v>
+        <v>1.081092715231788</v>
       </c>
     </row>
     <row r="159">
@@ -6355,15 +6519,11 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6394,16 +6554,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6431,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6466,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>

--- a/BackTest/2019-10-26 BackTest LBA.xlsx
+++ b/BackTest/2019-10-26 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
         <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>9581.255499999999</v>
+        <v>368.6885</v>
       </c>
       <c r="G2" t="n">
-        <v>15.98000000000001</v>
+        <v>15.84666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>15.9</v>
       </c>
       <c r="D3" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
         <v>15.9</v>
       </c>
       <c r="F3" t="n">
-        <v>1339</v>
+        <v>9581.255499999999</v>
       </c>
       <c r="G3" t="n">
-        <v>15.96000000000001</v>
+        <v>15.84666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>15.9</v>
       </c>
       <c r="C4" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D4" t="n">
         <v>15.9</v>
       </c>
       <c r="E4" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F4" t="n">
-        <v>42848.481</v>
+        <v>1339</v>
       </c>
       <c r="G4" t="n">
-        <v>15.90000000000001</v>
+        <v>15.84333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C5" t="n">
         <v>15.7</v>
       </c>
       <c r="D5" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E5" t="n">
         <v>15.7</v>
       </c>
       <c r="F5" t="n">
-        <v>18189.9736</v>
+        <v>42848.481</v>
       </c>
       <c r="G5" t="n">
-        <v>15.84000000000001</v>
+        <v>15.83666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C6" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D6" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E6" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>18189.9736</v>
       </c>
       <c r="G6" t="n">
-        <v>15.82000000000001</v>
+        <v>15.82666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D7" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E7" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F7" t="n">
-        <v>4009.1138</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>15.78000000000001</v>
+        <v>15.82333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>15.8</v>
       </c>
       <c r="C8" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D8" t="n">
         <v>15.8</v>
       </c>
       <c r="E8" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1505.9335</v>
+        <v>4009.1138</v>
       </c>
       <c r="G8" t="n">
-        <v>15.76000000000001</v>
+        <v>15.81666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C9" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D9" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E9" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F9" t="n">
-        <v>100740.1584</v>
+        <v>1505.9335</v>
       </c>
       <c r="G9" t="n">
-        <v>15.76000000000001</v>
+        <v>15.80666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>15.7</v>
       </c>
       <c r="F10" t="n">
-        <v>3322.5696</v>
+        <v>100740.1584</v>
       </c>
       <c r="G10" t="n">
-        <v>15.76000000000001</v>
+        <v>15.795</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C11" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D11" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E11" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F11" t="n">
-        <v>11448.1632</v>
+        <v>3322.5696</v>
       </c>
       <c r="G11" t="n">
-        <v>15.70000000000001</v>
+        <v>15.785</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C12" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D12" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E12" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F12" t="n">
-        <v>1168.363</v>
+        <v>11448.1632</v>
       </c>
       <c r="G12" t="n">
-        <v>15.70000000000001</v>
+        <v>15.77666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C13" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D13" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E13" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F13" t="n">
-        <v>40000</v>
+        <v>1168.363</v>
       </c>
       <c r="G13" t="n">
-        <v>15.66000000000001</v>
+        <v>15.77166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>15.6</v>
       </c>
       <c r="F14" t="n">
-        <v>361.9551</v>
+        <v>40000</v>
       </c>
       <c r="G14" t="n">
-        <v>15.64</v>
+        <v>15.76833333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C15" t="n">
         <v>15.6</v>
@@ -897,13 +897,13 @@
         <v>15.6</v>
       </c>
       <c r="E15" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F15" t="n">
-        <v>70308.5833</v>
+        <v>361.9551</v>
       </c>
       <c r="G15" t="n">
-        <v>15.62</v>
+        <v>15.76666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>15.5</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D16" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E16" t="n">
         <v>15.5</v>
       </c>
       <c r="F16" t="n">
-        <v>2966.3114</v>
+        <v>70308.5833</v>
       </c>
       <c r="G16" t="n">
-        <v>15.6</v>
+        <v>15.76166666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>15.5</v>
       </c>
       <c r="F17" t="n">
-        <v>2701.049</v>
+        <v>2966.3114</v>
       </c>
       <c r="G17" t="n">
-        <v>15.56</v>
+        <v>15.75666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>15.5</v>
       </c>
       <c r="F18" t="n">
-        <v>40000</v>
+        <v>2701.049</v>
       </c>
       <c r="G18" t="n">
-        <v>15.54</v>
+        <v>15.75333333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C19" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D19" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E19" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F19" t="n">
-        <v>45271.1622</v>
+        <v>40000</v>
       </c>
       <c r="G19" t="n">
-        <v>15.54</v>
+        <v>15.75000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>15.6</v>
       </c>
       <c r="F20" t="n">
-        <v>2010.6947</v>
+        <v>45271.1622</v>
       </c>
       <c r="G20" t="n">
-        <v>15.54</v>
+        <v>15.75000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>15.6</v>
       </c>
       <c r="C21" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D21" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E21" t="n">
         <v>15.6</v>
       </c>
       <c r="F21" t="n">
-        <v>1324.1345</v>
+        <v>2010.6947</v>
       </c>
       <c r="G21" t="n">
-        <v>15.58</v>
+        <v>15.75000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>15.6</v>
       </c>
       <c r="C22" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D22" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E22" t="n">
         <v>15.6</v>
       </c>
       <c r="F22" t="n">
-        <v>1836.4038</v>
+        <v>1324.1345</v>
       </c>
       <c r="G22" t="n">
-        <v>15.6</v>
+        <v>15.75000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>15.6</v>
       </c>
       <c r="F23" t="n">
-        <v>371</v>
+        <v>1836.4038</v>
       </c>
       <c r="G23" t="n">
-        <v>15.62</v>
+        <v>15.74666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>15.6</v>
       </c>
       <c r="F24" t="n">
-        <v>27800</v>
+        <v>371</v>
       </c>
       <c r="G24" t="n">
-        <v>15.62</v>
+        <v>15.74333333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C25" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D25" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E25" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F25" t="n">
-        <v>3346.7341</v>
+        <v>27800</v>
       </c>
       <c r="G25" t="n">
-        <v>15.66</v>
+        <v>15.74000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="C26" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D26" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E26" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F26" t="n">
-        <v>7161.1611</v>
+        <v>3346.7341</v>
       </c>
       <c r="G26" t="n">
-        <v>15.7</v>
+        <v>15.74333333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C27" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D27" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E27" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F27" t="n">
-        <v>2500</v>
+        <v>7161.1611</v>
       </c>
       <c r="G27" t="n">
-        <v>15.72</v>
+        <v>15.75000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>15.7</v>
       </c>
       <c r="F28" t="n">
-        <v>7162.588</v>
+        <v>2500</v>
       </c>
       <c r="G28" t="n">
-        <v>15.74000000000001</v>
+        <v>15.75000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>15.7</v>
       </c>
       <c r="F29" t="n">
-        <v>13875.7727</v>
+        <v>7162.588</v>
       </c>
       <c r="G29" t="n">
-        <v>15.76000000000001</v>
+        <v>15.74833333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>15.7</v>
       </c>
       <c r="F30" t="n">
-        <v>1846.3811</v>
+        <v>13875.7727</v>
       </c>
       <c r="G30" t="n">
-        <v>15.74000000000001</v>
+        <v>15.74666666666668</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>15.7</v>
       </c>
       <c r="F31" t="n">
-        <v>554</v>
+        <v>1846.3811</v>
       </c>
       <c r="G31" t="n">
-        <v>15.70000000000001</v>
+        <v>15.74833333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>15.7</v>
       </c>
       <c r="F32" t="n">
-        <v>15228.6701</v>
+        <v>554</v>
       </c>
       <c r="G32" t="n">
-        <v>15.70000000000001</v>
+        <v>15.74666666666668</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>15.7</v>
       </c>
       <c r="F33" t="n">
-        <v>684.5732</v>
+        <v>15228.6701</v>
       </c>
       <c r="G33" t="n">
-        <v>15.70000000000001</v>
+        <v>15.74166666666668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C34" t="n">
         <v>15.7</v>
@@ -1562,13 +1562,13 @@
         <v>15.7</v>
       </c>
       <c r="E34" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F34" t="n">
-        <v>82394.7475</v>
+        <v>684.5732</v>
       </c>
       <c r="G34" t="n">
-        <v>15.70000000000001</v>
+        <v>15.73833333333335</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>15.6</v>
       </c>
       <c r="C35" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D35" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E35" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F35" t="n">
-        <v>1727.5186</v>
+        <v>82394.7475</v>
       </c>
       <c r="G35" t="n">
-        <v>15.68000000000001</v>
+        <v>15.73500000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>15.6</v>
       </c>
       <c r="F36" t="n">
-        <v>15450.539</v>
+        <v>1727.5186</v>
       </c>
       <c r="G36" t="n">
-        <v>15.66000000000001</v>
+        <v>15.72833333333335</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C37" t="n">
         <v>15.6</v>
@@ -1667,13 +1667,13 @@
         <v>15.6</v>
       </c>
       <c r="E37" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F37" t="n">
-        <v>450158.4721</v>
+        <v>15450.539</v>
       </c>
       <c r="G37" t="n">
-        <v>15.64</v>
+        <v>15.72166666666668</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C38" t="n">
         <v>15.6</v>
@@ -1702,13 +1702,13 @@
         <v>15.6</v>
       </c>
       <c r="E38" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F38" t="n">
-        <v>24096.2085</v>
+        <v>450158.4721</v>
       </c>
       <c r="G38" t="n">
-        <v>15.62</v>
+        <v>15.72000000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C39" t="n">
         <v>15.6</v>
@@ -1737,13 +1737,13 @@
         <v>15.6</v>
       </c>
       <c r="E39" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F39" t="n">
-        <v>75412.91190000001</v>
+        <v>24096.2085</v>
       </c>
       <c r="G39" t="n">
-        <v>15.6</v>
+        <v>15.71166666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C40" t="n">
         <v>15.6</v>
@@ -1772,13 +1772,13 @@
         <v>15.6</v>
       </c>
       <c r="E40" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F40" t="n">
-        <v>29335</v>
+        <v>75412.91190000001</v>
       </c>
       <c r="G40" t="n">
-        <v>15.6</v>
+        <v>15.71333333333335</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>15.6</v>
       </c>
       <c r="F41" t="n">
-        <v>4871</v>
+        <v>29335</v>
       </c>
       <c r="G41" t="n">
-        <v>15.6</v>
+        <v>15.71166666666668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>15.6</v>
       </c>
       <c r="F42" t="n">
-        <v>19400</v>
+        <v>4871</v>
       </c>
       <c r="G42" t="n">
-        <v>15.6</v>
+        <v>15.70666666666668</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>15.6</v>
       </c>
       <c r="F43" t="n">
-        <v>22033.8027</v>
+        <v>19400</v>
       </c>
       <c r="G43" t="n">
-        <v>15.6</v>
+        <v>15.70666666666668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C44" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D44" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E44" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F44" t="n">
-        <v>1885.7961</v>
+        <v>22033.8027</v>
       </c>
       <c r="G44" t="n">
-        <v>15.62</v>
+        <v>15.70500000000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C45" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D45" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E45" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F45" t="n">
-        <v>4393.8226</v>
+        <v>1885.7961</v>
       </c>
       <c r="G45" t="n">
-        <v>15.62</v>
+        <v>15.70500000000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>15.6</v>
       </c>
       <c r="C46" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D46" t="n">
         <v>15.6</v>
       </c>
       <c r="E46" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F46" t="n">
-        <v>32409.5475</v>
+        <v>4393.8226</v>
       </c>
       <c r="G46" t="n">
-        <v>15.6</v>
+        <v>15.70500000000002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C47" t="n">
         <v>15.5</v>
@@ -2020,10 +2020,10 @@
         <v>15.5</v>
       </c>
       <c r="F47" t="n">
-        <v>20902.4951</v>
+        <v>32409.5475</v>
       </c>
       <c r="G47" t="n">
-        <v>15.58</v>
+        <v>15.70333333333335</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,10 +2043,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C48" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D48" t="n">
         <v>15.6</v>
@@ -2055,10 +2055,10 @@
         <v>15.5</v>
       </c>
       <c r="F48" t="n">
-        <v>97696.1376</v>
+        <v>20902.4951</v>
       </c>
       <c r="G48" t="n">
-        <v>15.58</v>
+        <v>15.70333333333335</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>15.6</v>
       </c>
       <c r="C49" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D49" t="n">
         <v>15.6</v>
@@ -2090,10 +2090,10 @@
         <v>15.5</v>
       </c>
       <c r="F49" t="n">
-        <v>13600</v>
+        <v>97696.1376</v>
       </c>
       <c r="G49" t="n">
-        <v>15.54</v>
+        <v>15.70500000000002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>15.5</v>
       </c>
       <c r="F50" t="n">
-        <v>136338.9918</v>
+        <v>13600</v>
       </c>
       <c r="G50" t="n">
-        <v>15.52</v>
+        <v>15.70333333333335</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>15.6</v>
       </c>
       <c r="C51" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D51" t="n">
         <v>15.6</v>
       </c>
       <c r="E51" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F51" t="n">
-        <v>40000</v>
+        <v>136338.9918</v>
       </c>
       <c r="G51" t="n">
-        <v>15.54</v>
+        <v>15.69666666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>15.6</v>
       </c>
       <c r="C52" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D52" t="n">
         <v>15.6</v>
       </c>
       <c r="E52" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F52" t="n">
-        <v>228005</v>
+        <v>40000</v>
       </c>
       <c r="G52" t="n">
-        <v>15.54</v>
+        <v>15.69500000000002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C53" t="n">
         <v>15.5</v>
       </c>
       <c r="D53" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E53" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F53" t="n">
-        <v>98507.48235483871</v>
+        <v>228005</v>
       </c>
       <c r="G53" t="n">
-        <v>15.52</v>
+        <v>15.69166666666668</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>15.5</v>
       </c>
       <c r="C54" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D54" t="n">
         <v>15.5</v>
@@ -2265,10 +2265,10 @@
         <v>15.4</v>
       </c>
       <c r="F54" t="n">
-        <v>31811.8554</v>
+        <v>98507.48235483871</v>
       </c>
       <c r="G54" t="n">
-        <v>15.50000000000001</v>
+        <v>15.69000000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C55" t="n">
         <v>15.4</v>
       </c>
       <c r="D55" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E55" t="n">
         <v>15.4</v>
       </c>
       <c r="F55" t="n">
-        <v>2354.0332</v>
+        <v>31811.8554</v>
       </c>
       <c r="G55" t="n">
-        <v>15.48000000000001</v>
+        <v>15.68166666666668</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>15.4</v>
       </c>
       <c r="F56" t="n">
-        <v>188</v>
+        <v>2354.0332</v>
       </c>
       <c r="G56" t="n">
-        <v>15.44000000000001</v>
+        <v>15.67166666666668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>15.4</v>
       </c>
       <c r="C57" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D57" t="n">
         <v>15.4</v>
       </c>
       <c r="E57" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F57" t="n">
-        <v>6137.3096</v>
+        <v>188</v>
       </c>
       <c r="G57" t="n">
-        <v>15.38000000000001</v>
+        <v>15.66166666666668</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C58" t="n">
         <v>15.2</v>
       </c>
-      <c r="C58" t="n">
-        <v>15.1</v>
-      </c>
       <c r="D58" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E58" t="n">
         <v>15.2</v>
       </c>
-      <c r="E58" t="n">
-        <v>15.1</v>
-      </c>
       <c r="F58" t="n">
-        <v>2782.6878</v>
+        <v>6137.3096</v>
       </c>
       <c r="G58" t="n">
-        <v>15.30000000000001</v>
+        <v>15.64833333333335</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,10 +2428,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C59" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D59" t="n">
         <v>15.2</v>
@@ -2440,10 +2440,10 @@
         <v>15.1</v>
       </c>
       <c r="F59" t="n">
-        <v>15336.1399</v>
+        <v>2782.6878</v>
       </c>
       <c r="G59" t="n">
-        <v>15.26000000000001</v>
+        <v>15.63333333333335</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C60" t="n">
         <v>15.2</v>
@@ -2475,10 +2475,10 @@
         <v>15.1</v>
       </c>
       <c r="F60" t="n">
-        <v>60570.2368</v>
+        <v>15336.1399</v>
       </c>
       <c r="G60" t="n">
-        <v>15.22000000000001</v>
+        <v>15.62000000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C61" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D61" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E61" t="n">
         <v>15.1</v>
       </c>
       <c r="F61" t="n">
-        <v>13937.5227</v>
+        <v>60570.2368</v>
       </c>
       <c r="G61" t="n">
-        <v>15.16000000000001</v>
+        <v>15.60666666666668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>15.1</v>
       </c>
       <c r="F62" t="n">
-        <v>10970.5955</v>
+        <v>13937.5227</v>
       </c>
       <c r="G62" t="n">
-        <v>15.14</v>
+        <v>15.59166666666668</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C63" t="n">
         <v>15.1</v>
@@ -2577,13 +2577,13 @@
         <v>15.1</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F63" t="n">
-        <v>7297.66</v>
+        <v>10970.5955</v>
       </c>
       <c r="G63" t="n">
-        <v>15.14</v>
+        <v>15.57833333333335</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>15</v>
       </c>
       <c r="F64" t="n">
-        <v>13500</v>
+        <v>7297.66</v>
       </c>
       <c r="G64" t="n">
-        <v>15.12</v>
+        <v>15.56500000000002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C65" t="n">
         <v>15.1</v>
@@ -2647,26 +2647,22 @@
         <v>15.1</v>
       </c>
       <c r="E65" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F65" t="n">
-        <v>6019</v>
+        <v>13500</v>
       </c>
       <c r="G65" t="n">
-        <v>15.1</v>
+        <v>15.55500000000002</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K65" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
@@ -2680,19 +2676,19 @@
         <v>15.1</v>
       </c>
       <c r="C66" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D66" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E66" t="n">
         <v>15.1</v>
       </c>
       <c r="F66" t="n">
-        <v>9498.406199999999</v>
+        <v>6019</v>
       </c>
       <c r="G66" t="n">
-        <v>15.12</v>
+        <v>15.54500000000002</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -2706,11 +2702,7 @@
       <c r="K66" t="n">
         <v>15.1</v>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2723,19 +2715,19 @@
         <v>15.1</v>
       </c>
       <c r="C67" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D67" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E67" t="n">
         <v>15.1</v>
       </c>
       <c r="F67" t="n">
-        <v>110</v>
+        <v>9498.406199999999</v>
       </c>
       <c r="G67" t="n">
-        <v>15.12</v>
+        <v>15.53333333333335</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
@@ -2744,14 +2736,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="K67" t="n">
         <v>15.1</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -2763,31 +2755,31 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>110</v>
+      </c>
+      <c r="G68" t="n">
+        <v>15.52333333333335</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>15.2</v>
-      </c>
-      <c r="C68" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D68" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E68" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F68" t="n">
-        <v>395.2303</v>
-      </c>
-      <c r="G68" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>15.1</v>
       </c>
       <c r="K68" t="n">
         <v>15.1</v>
@@ -2806,7 +2798,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C69" t="n">
         <v>15.3</v>
@@ -2815,13 +2807,13 @@
         <v>15.3</v>
       </c>
       <c r="E69" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F69" t="n">
-        <v>136</v>
+        <v>395.2303</v>
       </c>
       <c r="G69" t="n">
-        <v>15.2</v>
+        <v>15.51500000000002</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
@@ -2830,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K69" t="n">
         <v>15.1</v>
@@ -2852,27 +2844,29 @@
         <v>15.3</v>
       </c>
       <c r="C70" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D70" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E70" t="n">
         <v>15.3</v>
       </c>
       <c r="F70" t="n">
-        <v>648.8707000000001</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
-        <v>15.26000000000001</v>
+        <v>15.50833333333335</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>15.3</v>
+      </c>
       <c r="K70" t="n">
         <v>15.1</v>
       </c>
@@ -2890,7 +2884,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C71" t="n">
         <v>15.4</v>
@@ -2899,13 +2893,13 @@
         <v>15.4</v>
       </c>
       <c r="E71" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F71" t="n">
-        <v>293.0261</v>
+        <v>648.8707000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>15.30000000000001</v>
+        <v>15.50333333333335</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2931,22 +2925,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C72" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D72" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E72" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F72" t="n">
-        <v>962.742</v>
+        <v>293.0261</v>
       </c>
       <c r="G72" t="n">
-        <v>15.38000000000001</v>
+        <v>15.50000000000002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2975,19 +2969,19 @@
         <v>15.5</v>
       </c>
       <c r="C73" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D73" t="n">
         <v>15.5</v>
       </c>
       <c r="E73" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F73" t="n">
-        <v>33297.465</v>
+        <v>962.742</v>
       </c>
       <c r="G73" t="n">
-        <v>15.40000000000001</v>
+        <v>15.49666666666668</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3013,22 +3007,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C74" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D74" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E74" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F74" t="n">
-        <v>39520</v>
+        <v>33297.465</v>
       </c>
       <c r="G74" t="n">
-        <v>15.44000000000001</v>
+        <v>15.49333333333335</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3054,22 +3048,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C75" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D75" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E75" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F75" t="n">
-        <v>962.742</v>
+        <v>39520</v>
       </c>
       <c r="G75" t="n">
-        <v>15.44000000000001</v>
+        <v>15.49166666666668</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3107,10 +3101,10 @@
         <v>15.4</v>
       </c>
       <c r="F76" t="n">
-        <v>17032</v>
+        <v>962.742</v>
       </c>
       <c r="G76" t="n">
-        <v>15.44000000000001</v>
+        <v>15.48833333333335</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3139,19 +3133,19 @@
         <v>15.4</v>
       </c>
       <c r="C77" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D77" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E77" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F77" t="n">
-        <v>34276.0261</v>
+        <v>17032</v>
       </c>
       <c r="G77" t="n">
-        <v>15.44000000000001</v>
+        <v>15.48666666666668</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3177,22 +3171,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C78" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="D78" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="E78" t="n">
         <v>15.2</v>
       </c>
       <c r="F78" t="n">
-        <v>3148.1214</v>
+        <v>34276.0261</v>
       </c>
       <c r="G78" t="n">
-        <v>15.40000000000001</v>
+        <v>15.48666666666668</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3218,22 +3212,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="C79" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="D79" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="E79" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="F79" t="n">
-        <v>17902.1984</v>
+        <v>3148.1214</v>
       </c>
       <c r="G79" t="n">
-        <v>15.40000000000001</v>
+        <v>15.48166666666668</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3271,10 +3265,10 @@
         <v>15.5</v>
       </c>
       <c r="F80" t="n">
-        <v>80000</v>
+        <v>17902.1984</v>
       </c>
       <c r="G80" t="n">
-        <v>15.42000000000001</v>
+        <v>15.48000000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3312,10 +3306,10 @@
         <v>15.5</v>
       </c>
       <c r="F81" t="n">
-        <v>371</v>
+        <v>80000</v>
       </c>
       <c r="G81" t="n">
-        <v>15.44000000000001</v>
+        <v>15.47833333333335</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3356,7 +3350,7 @@
         <v>371</v>
       </c>
       <c r="G82" t="n">
-        <v>15.44000000000001</v>
+        <v>15.47500000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3394,10 +3388,10 @@
         <v>15.5</v>
       </c>
       <c r="F83" t="n">
-        <v>2497.046</v>
+        <v>371</v>
       </c>
       <c r="G83" t="n">
-        <v>15.50000000000001</v>
+        <v>15.47333333333335</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3435,10 +3429,10 @@
         <v>15.5</v>
       </c>
       <c r="F84" t="n">
-        <v>22934</v>
+        <v>2497.046</v>
       </c>
       <c r="G84" t="n">
-        <v>15.50000000000001</v>
+        <v>15.47166666666668</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3464,22 +3458,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C85" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D85" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E85" t="n">
         <v>15.5</v>
       </c>
       <c r="F85" t="n">
-        <v>5803.7591</v>
+        <v>22934</v>
       </c>
       <c r="G85" t="n">
-        <v>15.52</v>
+        <v>15.47000000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3505,10 +3499,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C86" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D86" t="n">
         <v>15.6</v>
@@ -3517,10 +3511,10 @@
         <v>15.5</v>
       </c>
       <c r="F86" t="n">
-        <v>3906.4462</v>
+        <v>5803.7591</v>
       </c>
       <c r="G86" t="n">
-        <v>15.52</v>
+        <v>15.46666666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3546,7 +3540,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C87" t="n">
         <v>15.5</v>
@@ -3558,10 +3552,10 @@
         <v>15.5</v>
       </c>
       <c r="F87" t="n">
-        <v>391.4358</v>
+        <v>3906.4462</v>
       </c>
       <c r="G87" t="n">
-        <v>15.52</v>
+        <v>15.46000000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3599,10 +3593,10 @@
         <v>15.5</v>
       </c>
       <c r="F88" t="n">
-        <v>9072.391</v>
+        <v>391.4358</v>
       </c>
       <c r="G88" t="n">
-        <v>15.52</v>
+        <v>15.45666666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3628,22 +3622,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C89" t="n">
         <v>15.5</v>
       </c>
       <c r="D89" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E89" t="n">
         <v>15.5</v>
       </c>
       <c r="F89" t="n">
-        <v>2442.9499</v>
+        <v>9072.391</v>
       </c>
       <c r="G89" t="n">
-        <v>15.52</v>
+        <v>15.45333333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3681,10 +3675,10 @@
         <v>15.5</v>
       </c>
       <c r="F90" t="n">
-        <v>61792.2223</v>
+        <v>2442.9499</v>
       </c>
       <c r="G90" t="n">
-        <v>15.50000000000001</v>
+        <v>15.45000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3722,10 +3716,10 @@
         <v>15.5</v>
       </c>
       <c r="F91" t="n">
-        <v>371</v>
+        <v>61792.2223</v>
       </c>
       <c r="G91" t="n">
-        <v>15.50000000000001</v>
+        <v>15.44666666666668</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3763,10 +3757,10 @@
         <v>15.5</v>
       </c>
       <c r="F92" t="n">
-        <v>40000</v>
+        <v>371</v>
       </c>
       <c r="G92" t="n">
-        <v>15.50000000000001</v>
+        <v>15.44333333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3792,22 +3786,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C93" t="n">
         <v>15.5</v>
       </c>
       <c r="D93" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E93" t="n">
         <v>15.5</v>
       </c>
       <c r="F93" t="n">
-        <v>5769.4775</v>
+        <v>40000</v>
       </c>
       <c r="G93" t="n">
-        <v>15.50000000000001</v>
+        <v>15.44000000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3833,10 +3827,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C94" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D94" t="n">
         <v>15.6</v>
@@ -3845,10 +3839,10 @@
         <v>15.5</v>
       </c>
       <c r="F94" t="n">
-        <v>40317.2564</v>
+        <v>5769.4775</v>
       </c>
       <c r="G94" t="n">
-        <v>15.52</v>
+        <v>15.43666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3877,19 +3871,19 @@
         <v>15.5</v>
       </c>
       <c r="C95" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D95" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E95" t="n">
         <v>15.5</v>
       </c>
       <c r="F95" t="n">
-        <v>97500</v>
+        <v>40317.2564</v>
       </c>
       <c r="G95" t="n">
-        <v>15.52</v>
+        <v>15.43500000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3915,22 +3909,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C96" t="n">
         <v>15.5</v>
       </c>
       <c r="D96" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E96" t="n">
         <v>15.5</v>
       </c>
       <c r="F96" t="n">
-        <v>5999.7746</v>
+        <v>97500</v>
       </c>
       <c r="G96" t="n">
-        <v>15.52</v>
+        <v>15.43333333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3956,22 +3950,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C97" t="n">
         <v>15.5</v>
       </c>
       <c r="D97" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E97" t="n">
         <v>15.5</v>
       </c>
       <c r="F97" t="n">
-        <v>38250</v>
+        <v>5999.7746</v>
       </c>
       <c r="G97" t="n">
-        <v>15.52</v>
+        <v>15.43166666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4009,10 +4003,10 @@
         <v>15.5</v>
       </c>
       <c r="F98" t="n">
-        <v>3035.4508</v>
+        <v>38250</v>
       </c>
       <c r="G98" t="n">
-        <v>15.52</v>
+        <v>15.43000000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4050,10 +4044,10 @@
         <v>15.5</v>
       </c>
       <c r="F99" t="n">
-        <v>4855.3271</v>
+        <v>3035.4508</v>
       </c>
       <c r="G99" t="n">
-        <v>15.50000000000001</v>
+        <v>15.42833333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4079,22 +4073,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="C100" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="D100" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="E100" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="F100" t="n">
-        <v>1114</v>
+        <v>4855.3271</v>
       </c>
       <c r="G100" t="n">
-        <v>15.44000000000001</v>
+        <v>15.42666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4120,22 +4114,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C101" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D101" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E101" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F101" t="n">
-        <v>361.7828</v>
+        <v>1114</v>
       </c>
       <c r="G101" t="n">
-        <v>15.40000000000001</v>
+        <v>15.42000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4161,22 +4155,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C102" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D102" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E102" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F102" t="n">
-        <v>1703.6182</v>
+        <v>361.7828</v>
       </c>
       <c r="G102" t="n">
-        <v>15.38000000000001</v>
+        <v>15.415</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4214,10 +4208,10 @@
         <v>15.4</v>
       </c>
       <c r="F103" t="n">
-        <v>2636</v>
+        <v>1703.6182</v>
       </c>
       <c r="G103" t="n">
-        <v>15.36000000000001</v>
+        <v>15.41166666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4255,10 +4249,10 @@
         <v>15.4</v>
       </c>
       <c r="F104" t="n">
-        <v>23952.4724</v>
+        <v>2636</v>
       </c>
       <c r="G104" t="n">
-        <v>15.34000000000001</v>
+        <v>15.40833333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4284,22 +4278,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C105" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D105" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E105" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F105" t="n">
-        <v>60282.5015</v>
+        <v>23952.4724</v>
       </c>
       <c r="G105" t="n">
-        <v>15.40000000000001</v>
+        <v>15.40333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4337,10 +4331,10 @@
         <v>15.5</v>
       </c>
       <c r="F106" t="n">
-        <v>23892.5912</v>
+        <v>60282.5015</v>
       </c>
       <c r="G106" t="n">
-        <v>15.44000000000001</v>
+        <v>15.40166666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4369,19 +4363,19 @@
         <v>15.5</v>
       </c>
       <c r="C107" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D107" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E107" t="n">
         <v>15.5</v>
       </c>
       <c r="F107" t="n">
-        <v>14998</v>
+        <v>23892.5912</v>
       </c>
       <c r="G107" t="n">
-        <v>15.48000000000001</v>
+        <v>15.40166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4407,7 +4401,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C108" t="n">
         <v>15.6</v>
@@ -4416,13 +4410,13 @@
         <v>15.6</v>
       </c>
       <c r="E108" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F108" t="n">
-        <v>7500</v>
+        <v>14998</v>
       </c>
       <c r="G108" t="n">
-        <v>15.52</v>
+        <v>15.40333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4448,22 +4442,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="C109" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D109" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E109" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="F109" t="n">
-        <v>1685.7867</v>
+        <v>7500</v>
       </c>
       <c r="G109" t="n">
-        <v>15.5</v>
+        <v>15.40333333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4489,22 +4483,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="C110" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="D110" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="E110" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F110" t="n">
-        <v>31.5554</v>
+        <v>1685.7867</v>
       </c>
       <c r="G110" t="n">
-        <v>15.52</v>
+        <v>15.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4530,22 +4524,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C111" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D111" t="n">
         <v>15.6</v>
       </c>
       <c r="E111" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F111" t="n">
-        <v>536.1634</v>
+        <v>31.5554</v>
       </c>
       <c r="G111" t="n">
-        <v>15.5</v>
+        <v>15.40166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4574,7 +4568,7 @@
         <v>15.6</v>
       </c>
       <c r="C112" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D112" t="n">
         <v>15.6</v>
@@ -4583,10 +4577,10 @@
         <v>15.4</v>
       </c>
       <c r="F112" t="n">
-        <v>923.4294</v>
+        <v>536.1634</v>
       </c>
       <c r="G112" t="n">
-        <v>15.48</v>
+        <v>15.39833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4615,19 +4609,19 @@
         <v>15.6</v>
       </c>
       <c r="C113" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D113" t="n">
         <v>15.6</v>
       </c>
       <c r="E113" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F113" t="n">
-        <v>13.4102</v>
+        <v>923.4294</v>
       </c>
       <c r="G113" t="n">
-        <v>15.48</v>
+        <v>15.39833333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4653,22 +4647,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C114" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D114" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E114" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="F114" t="n">
-        <v>27560.59</v>
+        <v>13.4102</v>
       </c>
       <c r="G114" t="n">
-        <v>15.48</v>
+        <v>15.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4697,19 +4691,19 @@
         <v>15.5</v>
       </c>
       <c r="C115" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D115" t="n">
         <v>15.5</v>
       </c>
       <c r="E115" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F115" t="n">
-        <v>12.1483</v>
+        <v>27560.59</v>
       </c>
       <c r="G115" t="n">
-        <v>15.46</v>
+        <v>15.39833333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4735,22 +4729,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C116" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D116" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E116" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F116" t="n">
-        <v>168</v>
+        <v>12.1483</v>
       </c>
       <c r="G116" t="n">
-        <v>15.46</v>
+        <v>15.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4788,10 +4782,10 @@
         <v>15.4</v>
       </c>
       <c r="F117" t="n">
-        <v>153.2142</v>
+        <v>168</v>
       </c>
       <c r="G117" t="n">
-        <v>15.44000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4817,22 +4811,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C118" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D118" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E118" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F118" t="n">
-        <v>1727.8674</v>
+        <v>153.2142</v>
       </c>
       <c r="G118" t="n">
-        <v>15.38000000000001</v>
+        <v>15.40333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4858,22 +4852,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C119" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D119" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E119" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F119" t="n">
-        <v>113</v>
+        <v>1727.8674</v>
       </c>
       <c r="G119" t="n">
-        <v>15.40000000000001</v>
+        <v>15.40666666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4911,10 +4905,10 @@
         <v>15.4</v>
       </c>
       <c r="F120" t="n">
-        <v>23.935</v>
+        <v>113</v>
       </c>
       <c r="G120" t="n">
-        <v>15.38000000000001</v>
+        <v>15.41</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4952,10 +4946,10 @@
         <v>15.4</v>
       </c>
       <c r="F121" t="n">
-        <v>7481.25</v>
+        <v>23.935</v>
       </c>
       <c r="G121" t="n">
-        <v>15.38000000000001</v>
+        <v>15.41333333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4981,22 +4975,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C122" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D122" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E122" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F122" t="n">
-        <v>1000</v>
+        <v>7481.25</v>
       </c>
       <c r="G122" t="n">
-        <v>15.40000000000001</v>
+        <v>15.41833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5022,22 +5016,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C123" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D123" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E123" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F123" t="n">
         <v>1000</v>
       </c>
       <c r="G123" t="n">
-        <v>15.46000000000001</v>
+        <v>15.42499999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5066,19 +5060,19 @@
         <v>15.6</v>
       </c>
       <c r="C124" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D124" t="n">
         <v>15.6</v>
       </c>
       <c r="E124" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F124" t="n">
-        <v>9757.628199999999</v>
+        <v>1000</v>
       </c>
       <c r="G124" t="n">
-        <v>15.46000000000001</v>
+        <v>15.43333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5107,19 +5101,19 @@
         <v>15.6</v>
       </c>
       <c r="C125" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D125" t="n">
         <v>15.6</v>
       </c>
       <c r="E125" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F125" t="n">
-        <v>10.8589</v>
+        <v>9757.628199999999</v>
       </c>
       <c r="G125" t="n">
-        <v>15.50000000000001</v>
+        <v>15.43833333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5145,22 +5139,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C126" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D126" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E126" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F126" t="n">
-        <v>19600</v>
+        <v>10.8589</v>
       </c>
       <c r="G126" t="n">
-        <v>15.50000000000001</v>
+        <v>15.44666666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5198,10 +5192,10 @@
         <v>15.4</v>
       </c>
       <c r="F127" t="n">
-        <v>2551.8296</v>
+        <v>19600</v>
       </c>
       <c r="G127" t="n">
-        <v>15.48000000000001</v>
+        <v>15.44999999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5239,10 +5233,10 @@
         <v>15.4</v>
       </c>
       <c r="F128" t="n">
-        <v>10000</v>
+        <v>2551.8296</v>
       </c>
       <c r="G128" t="n">
-        <v>15.44000000000001</v>
+        <v>15.45499999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5280,10 +5274,10 @@
         <v>15.4</v>
       </c>
       <c r="F129" t="n">
-        <v>118877.5405</v>
+        <v>10000</v>
       </c>
       <c r="G129" t="n">
-        <v>15.44000000000001</v>
+        <v>15.45666666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5309,22 +5303,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C130" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D130" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E130" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F130" t="n">
-        <v>4660.8387</v>
+        <v>118877.5405</v>
       </c>
       <c r="G130" t="n">
-        <v>15.42000000000001</v>
+        <v>15.45833333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5350,22 +5344,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C131" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D131" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E131" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F131" t="n">
-        <v>2118.4398</v>
+        <v>4660.8387</v>
       </c>
       <c r="G131" t="n">
-        <v>15.42000000000001</v>
+        <v>15.45999999999999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5403,10 +5397,10 @@
         <v>15.4</v>
       </c>
       <c r="F132" t="n">
-        <v>65471.5341</v>
+        <v>2118.4398</v>
       </c>
       <c r="G132" t="n">
-        <v>15.42000000000001</v>
+        <v>15.45999999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5435,19 +5429,19 @@
         <v>15.4</v>
       </c>
       <c r="C133" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D133" t="n">
         <v>15.4</v>
       </c>
       <c r="E133" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F133" t="n">
-        <v>39370.4211</v>
+        <v>65471.5341</v>
       </c>
       <c r="G133" t="n">
-        <v>15.40000000000001</v>
+        <v>15.45833333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5473,22 +5467,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C134" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D134" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E134" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F134" t="n">
-        <v>186.6688</v>
+        <v>39370.4211</v>
       </c>
       <c r="G134" t="n">
-        <v>15.42000000000001</v>
+        <v>15.45666666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5526,10 +5520,10 @@
         <v>15.5</v>
       </c>
       <c r="F135" t="n">
-        <v>11757.7177</v>
+        <v>186.6688</v>
       </c>
       <c r="G135" t="n">
-        <v>15.42000000000001</v>
+        <v>15.45666666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5555,22 +5549,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C136" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D136" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E136" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F136" t="n">
-        <v>59206.2574</v>
+        <v>11757.7177</v>
       </c>
       <c r="G136" t="n">
-        <v>15.46</v>
+        <v>15.45833333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5596,22 +5590,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C137" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D137" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E137" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F137" t="n">
-        <v>2434.308</v>
+        <v>59206.2574</v>
       </c>
       <c r="G137" t="n">
-        <v>15.48</v>
+        <v>15.46166666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5637,22 +5631,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C138" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D138" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E138" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F138" t="n">
-        <v>7500</v>
+        <v>2434.308</v>
       </c>
       <c r="G138" t="n">
-        <v>15.6</v>
+        <v>15.46166666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5678,22 +5672,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C139" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D139" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E139" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F139" t="n">
-        <v>1941.2084</v>
+        <v>7500</v>
       </c>
       <c r="G139" t="n">
-        <v>15.62</v>
+        <v>15.47333333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5719,22 +5713,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C140" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D140" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E140" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F140" t="n">
-        <v>13.8281</v>
+        <v>1941.2084</v>
       </c>
       <c r="G140" t="n">
-        <v>15.70000000000001</v>
+        <v>15.47499999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5760,22 +5754,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C141" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="D141" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E141" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F141" t="n">
-        <v>65508.0179</v>
+        <v>13.8281</v>
       </c>
       <c r="G141" t="n">
-        <v>15.68000000000001</v>
+        <v>15.48166666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5804,19 +5798,19 @@
         <v>15.6</v>
       </c>
       <c r="C142" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D142" t="n">
         <v>15.6</v>
       </c>
       <c r="E142" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F142" t="n">
-        <v>3610</v>
+        <v>65508.0179</v>
       </c>
       <c r="G142" t="n">
-        <v>15.70000000000001</v>
+        <v>15.48166666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5842,22 +5836,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C143" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D143" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E143" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F143" t="n">
-        <v>13948.7182</v>
+        <v>3610</v>
       </c>
       <c r="G143" t="n">
-        <v>15.62</v>
+        <v>15.48333333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5883,22 +5877,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C144" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D144" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E144" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F144" t="n">
-        <v>7552.9568</v>
+        <v>13948.7182</v>
       </c>
       <c r="G144" t="n">
-        <v>15.62</v>
+        <v>15.48333333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5936,10 +5930,10 @@
         <v>15.6</v>
       </c>
       <c r="F145" t="n">
-        <v>950.8141000000001</v>
+        <v>7552.9568</v>
       </c>
       <c r="G145" t="n">
-        <v>15.56</v>
+        <v>15.48499999999999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5977,10 +5971,10 @@
         <v>15.6</v>
       </c>
       <c r="F146" t="n">
-        <v>855.7307</v>
+        <v>950.8141000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>15.58</v>
+        <v>15.48499999999999</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6018,10 +6012,10 @@
         <v>15.6</v>
       </c>
       <c r="F147" t="n">
-        <v>9544.2526</v>
+        <v>855.7307</v>
       </c>
       <c r="G147" t="n">
-        <v>15.58</v>
+        <v>15.48666666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6059,10 +6053,10 @@
         <v>15.6</v>
       </c>
       <c r="F148" t="n">
-        <v>24705.1077</v>
+        <v>9544.2526</v>
       </c>
       <c r="G148" t="n">
-        <v>15.6</v>
+        <v>15.48833333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6091,19 +6085,19 @@
         <v>15.6</v>
       </c>
       <c r="C149" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D149" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E149" t="n">
         <v>15.6</v>
       </c>
       <c r="F149" t="n">
-        <v>20400</v>
+        <v>24705.1077</v>
       </c>
       <c r="G149" t="n">
-        <v>15.62</v>
+        <v>15.48999999999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6129,22 +6123,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C150" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D150" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E150" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F150" t="n">
-        <v>49800</v>
+        <v>20400</v>
       </c>
       <c r="G150" t="n">
-        <v>15.66</v>
+        <v>15.49333333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6170,22 +6164,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C151" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="D151" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="E151" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F151" t="n">
-        <v>20000</v>
+        <v>49800</v>
       </c>
       <c r="G151" t="n">
-        <v>15.74</v>
+        <v>15.49833333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6211,22 +6205,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C152" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="D152" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E152" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F152" t="n">
-        <v>1750.5795</v>
+        <v>20000</v>
       </c>
       <c r="G152" t="n">
-        <v>15.78</v>
+        <v>15.50666666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6252,22 +6246,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="C153" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="D153" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="E153" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="F153" t="n">
-        <v>6831.5481</v>
+        <v>1750.5795</v>
       </c>
       <c r="G153" t="n">
-        <v>15.86</v>
+        <v>15.51166666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6293,22 +6287,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C154" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="D154" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="E154" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F154" t="n">
-        <v>28200</v>
+        <v>6831.5481</v>
       </c>
       <c r="G154" t="n">
-        <v>15.96</v>
+        <v>15.51999999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6334,22 +6328,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C155" t="n">
         <v>16.2</v>
       </c>
-      <c r="C155" t="n">
-        <v>16.4</v>
-      </c>
       <c r="D155" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="E155" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="F155" t="n">
-        <v>93284.349</v>
+        <v>28200</v>
       </c>
       <c r="G155" t="n">
-        <v>16.08000000000001</v>
+        <v>15.52999999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6375,7 +6369,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="C156" t="n">
         <v>16.4</v>
@@ -6384,13 +6378,13 @@
         <v>16.4</v>
       </c>
       <c r="E156" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="F156" t="n">
-        <v>22855.9756</v>
+        <v>93284.349</v>
       </c>
       <c r="G156" t="n">
-        <v>16.16</v>
+        <v>15.54499999999999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6428,10 +6422,10 @@
         <v>16.4</v>
       </c>
       <c r="F157" t="n">
-        <v>180260.7595</v>
+        <v>22855.9756</v>
       </c>
       <c r="G157" t="n">
-        <v>16.28</v>
+        <v>15.55999999999999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6469,10 +6463,10 @@
         <v>16.4</v>
       </c>
       <c r="F158" t="n">
-        <v>10</v>
+        <v>180260.7595</v>
       </c>
       <c r="G158" t="n">
-        <v>16.36</v>
+        <v>15.57499999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6498,22 +6492,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="C159" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="D159" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E159" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="F159" t="n">
-        <v>261691.6446</v>
+        <v>10</v>
       </c>
       <c r="G159" t="n">
-        <v>16.42</v>
+        <v>15.58999999999999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6536,19 +6530,19 @@
         <v>16.5</v>
       </c>
       <c r="C160" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="D160" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="E160" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="F160" t="n">
-        <v>160622.8486</v>
+        <v>261691.6446</v>
       </c>
       <c r="G160" t="n">
-        <v>16.4</v>
+        <v>15.60666666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6568,22 +6562,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="C161" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="D161" t="n">
         <v>16.6</v>
       </c>
       <c r="E161" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="F161" t="n">
-        <v>10</v>
+        <v>160622.8486</v>
       </c>
       <c r="G161" t="n">
-        <v>16.44</v>
+        <v>15.62499999999999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6603,22 +6597,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="C162" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="D162" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="E162" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="F162" t="n">
-        <v>13771</v>
+        <v>10</v>
       </c>
       <c r="G162" t="n">
-        <v>16.44</v>
+        <v>15.64666666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6638,22 +6632,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="C163" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="D163" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="E163" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="F163" t="n">
-        <v>65211.0116</v>
+        <v>13771</v>
       </c>
       <c r="G163" t="n">
-        <v>16.4</v>
+        <v>15.66333333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6676,19 +6670,19 @@
         <v>16.3</v>
       </c>
       <c r="C164" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="D164" t="n">
         <v>16.3</v>
       </c>
       <c r="E164" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="F164" t="n">
-        <v>37600</v>
+        <v>65211.0116</v>
       </c>
       <c r="G164" t="n">
-        <v>16.32</v>
+        <v>15.67666666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6708,22 +6702,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="C165" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D165" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="E165" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F165" t="n">
-        <v>23000</v>
+        <v>37600</v>
       </c>
       <c r="G165" t="n">
-        <v>16.26</v>
+        <v>15.68833333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6755,10 +6749,10 @@
         <v>16</v>
       </c>
       <c r="F166" t="n">
-        <v>13771</v>
+        <v>23000</v>
       </c>
       <c r="G166" t="n">
-        <v>16.14</v>
+        <v>15.69666666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6790,10 +6784,10 @@
         <v>16</v>
       </c>
       <c r="F167" t="n">
-        <v>4360.9552</v>
+        <v>13771</v>
       </c>
       <c r="G167" t="n">
-        <v>16.06</v>
+        <v>15.70499999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6819,16 +6813,16 @@
         <v>16</v>
       </c>
       <c r="D168" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="E168" t="n">
         <v>16</v>
       </c>
       <c r="F168" t="n">
-        <v>15000</v>
+        <v>4360.9552</v>
       </c>
       <c r="G168" t="n">
-        <v>16.02</v>
+        <v>15.71166666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6848,22 +6842,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="C169" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D169" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="E169" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F169" t="n">
-        <v>18570.0319</v>
+        <v>15000</v>
       </c>
       <c r="G169" t="n">
-        <v>15.98</v>
+        <v>15.71833333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6883,22 +6877,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="C170" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D170" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="E170" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F170" t="n">
-        <v>25000</v>
+        <v>18570.0319</v>
       </c>
       <c r="G170" t="n">
-        <v>15.98</v>
+        <v>15.72833333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6918,22 +6912,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C171" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="D171" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="E171" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F171" t="n">
-        <v>48504.9459</v>
+        <v>25000</v>
       </c>
       <c r="G171" t="n">
-        <v>16.02</v>
+        <v>15.73499999999999</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6956,19 +6950,19 @@
         <v>16.1</v>
       </c>
       <c r="C172" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="D172" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="E172" t="n">
         <v>16.1</v>
       </c>
       <c r="F172" t="n">
-        <v>6972.0683</v>
+        <v>48504.9459</v>
       </c>
       <c r="G172" t="n">
-        <v>16.04</v>
+        <v>15.74833333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6991,19 +6985,19 @@
         <v>16.1</v>
       </c>
       <c r="C173" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="D173" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="E173" t="n">
         <v>16.1</v>
       </c>
       <c r="F173" t="n">
-        <v>6288.675</v>
+        <v>6972.0683</v>
       </c>
       <c r="G173" t="n">
-        <v>16.08</v>
+        <v>15.75833333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7026,19 +7020,19 @@
         <v>16.1</v>
       </c>
       <c r="C174" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="D174" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E174" t="n">
         <v>16.1</v>
       </c>
-      <c r="E174" t="n">
-        <v>15.9</v>
-      </c>
       <c r="F174" t="n">
-        <v>19492.246</v>
+        <v>6288.675</v>
       </c>
       <c r="G174" t="n">
-        <v>16.1</v>
+        <v>15.76833333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7058,22 +7052,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="C175" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D175" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="E175" t="n">
         <v>15.9</v>
       </c>
       <c r="F175" t="n">
-        <v>4811.6979</v>
+        <v>19492.246</v>
       </c>
       <c r="G175" t="n">
-        <v>16.08</v>
+        <v>15.78</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7105,10 +7099,10 @@
         <v>15.9</v>
       </c>
       <c r="F176" t="n">
-        <v>2274.8049</v>
+        <v>4811.6979</v>
       </c>
       <c r="G176" t="n">
-        <v>16.02</v>
+        <v>15.78666666666666</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7140,10 +7134,10 @@
         <v>15.9</v>
       </c>
       <c r="F177" t="n">
-        <v>706.9748</v>
+        <v>2274.8049</v>
       </c>
       <c r="G177" t="n">
-        <v>15.98</v>
+        <v>15.79499999999999</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7166,19 +7160,19 @@
         <v>15.9</v>
       </c>
       <c r="C178" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D178" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E178" t="n">
         <v>15.9</v>
       </c>
       <c r="F178" t="n">
-        <v>94030.9307</v>
+        <v>706.9748</v>
       </c>
       <c r="G178" t="n">
-        <v>15.94</v>
+        <v>15.80333333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7198,7 +7192,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C179" t="n">
         <v>16</v>
@@ -7207,13 +7201,13 @@
         <v>16</v>
       </c>
       <c r="E179" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F179" t="n">
-        <v>756</v>
+        <v>94030.9307</v>
       </c>
       <c r="G179" t="n">
-        <v>15.94</v>
+        <v>15.815</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7245,10 +7239,10 @@
         <v>16</v>
       </c>
       <c r="F180" t="n">
-        <v>826.5204</v>
+        <v>756</v>
       </c>
       <c r="G180" t="n">
-        <v>15.96</v>
+        <v>15.825</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7268,22 +7262,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C181" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="D181" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="E181" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F181" t="n">
-        <v>29260.7844</v>
+        <v>826.5204</v>
       </c>
       <c r="G181" t="n">
-        <v>16</v>
+        <v>15.835</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7315,10 +7309,10 @@
         <v>16.1</v>
       </c>
       <c r="F182" t="n">
-        <v>5000</v>
+        <v>29260.7844</v>
       </c>
       <c r="G182" t="n">
-        <v>16.04</v>
+        <v>15.84666666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7338,22 +7332,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="C183" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D183" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E183" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F183" t="n">
-        <v>1822.6104</v>
+        <v>5000</v>
       </c>
       <c r="G183" t="n">
-        <v>16.04</v>
+        <v>15.85666666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7373,22 +7367,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C184" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="D184" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="E184" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F184" t="n">
-        <v>23239.6929</v>
+        <v>1822.6104</v>
       </c>
       <c r="G184" t="n">
-        <v>16.06</v>
+        <v>15.86333333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7411,19 +7405,19 @@
         <v>16.1</v>
       </c>
       <c r="C185" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D185" t="n">
         <v>16.1</v>
       </c>
       <c r="E185" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F185" t="n">
-        <v>45171.4796</v>
+        <v>23239.6929</v>
       </c>
       <c r="G185" t="n">
-        <v>16.06</v>
+        <v>15.875</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7446,19 +7440,19 @@
         <v>16.1</v>
       </c>
       <c r="C186" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="D186" t="n">
         <v>16.1</v>
       </c>
       <c r="E186" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F186" t="n">
-        <v>371</v>
+        <v>45171.4796</v>
       </c>
       <c r="G186" t="n">
-        <v>16.06</v>
+        <v>15.88166666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7490,10 +7484,10 @@
         <v>16.1</v>
       </c>
       <c r="F187" t="n">
-        <v>1862.0434</v>
+        <v>371</v>
       </c>
       <c r="G187" t="n">
-        <v>16.06</v>
+        <v>15.89333333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7513,22 +7507,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="C188" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="D188" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="E188" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="F188" t="n">
-        <v>46818.48981226994</v>
+        <v>1862.0434</v>
       </c>
       <c r="G188" t="n">
-        <v>16.12</v>
+        <v>15.905</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7548,7 +7542,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="C189" t="n">
         <v>16.3</v>
@@ -7557,13 +7551,13 @@
         <v>16.3</v>
       </c>
       <c r="E189" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="F189" t="n">
-        <v>184.049</v>
+        <v>46818.48981226994</v>
       </c>
       <c r="G189" t="n">
-        <v>16.16</v>
+        <v>15.92</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7583,22 +7577,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="C190" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="D190" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="E190" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="F190" t="n">
-        <v>2338.2057</v>
+        <v>184.049</v>
       </c>
       <c r="G190" t="n">
-        <v>16.18</v>
+        <v>15.935</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7618,22 +7612,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="C191" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D191" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E191" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F191" t="n">
-        <v>951.9813</v>
+        <v>2338.2057</v>
       </c>
       <c r="G191" t="n">
-        <v>16.16</v>
+        <v>15.945</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7653,22 +7647,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C192" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="D192" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="E192" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F192" t="n">
-        <v>8051.5776</v>
+        <v>951.9813</v>
       </c>
       <c r="G192" t="n">
-        <v>16.16</v>
+        <v>15.955</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7688,22 +7682,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="C193" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D193" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E193" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F193" t="n">
-        <v>38649.866</v>
+        <v>8051.5776</v>
       </c>
       <c r="G193" t="n">
-        <v>16.1</v>
+        <v>15.96666666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7723,22 +7717,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C194" t="n">
         <v>16</v>
       </c>
       <c r="D194" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="E194" t="n">
         <v>16</v>
       </c>
       <c r="F194" t="n">
-        <v>107631.0431753086</v>
+        <v>38649.866</v>
       </c>
       <c r="G194" t="n">
-        <v>16.04</v>
+        <v>15.97833333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7761,19 +7755,19 @@
         <v>16.1</v>
       </c>
       <c r="C195" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="D195" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="E195" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F195" t="n">
-        <v>2196.0426</v>
+        <v>107631.0431753086</v>
       </c>
       <c r="G195" t="n">
-        <v>16.04</v>
+        <v>15.98666666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7805,10 +7799,10 @@
         <v>16.1</v>
       </c>
       <c r="F196" t="n">
-        <v>1295</v>
+        <v>2196.0426</v>
       </c>
       <c r="G196" t="n">
-        <v>16.06</v>
+        <v>15.99666666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7831,19 +7825,19 @@
         <v>16.1</v>
       </c>
       <c r="C197" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D197" t="n">
         <v>16.1</v>
       </c>
       <c r="E197" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F197" t="n">
-        <v>27500</v>
+        <v>1295</v>
       </c>
       <c r="G197" t="n">
-        <v>16.04</v>
+        <v>16.005</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7858,6 +7852,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>16</v>
+      </c>
+      <c r="D198" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E198" t="n">
+        <v>16</v>
+      </c>
+      <c r="F198" t="n">
+        <v>27500</v>
+      </c>
+      <c r="G198" t="n">
+        <v>16.01333333333334</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-26 BackTest LBA.xlsx
+++ b/BackTest/2019-10-26 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:N208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>368.6885</v>
       </c>
       <c r="G2" t="n">
+        <v>15.82666666666668</v>
+      </c>
+      <c r="H2" t="n">
         <v>15.84666666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>9581.255499999999</v>
       </c>
       <c r="G3" t="n">
+        <v>15.85333333333335</v>
+      </c>
+      <c r="H3" t="n">
         <v>15.84666666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1339</v>
       </c>
       <c r="G4" t="n">
+        <v>15.88000000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>15.84333333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>42848.481</v>
       </c>
       <c r="G5" t="n">
+        <v>15.88666666666668</v>
+      </c>
+      <c r="H5" t="n">
         <v>15.83666666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>18189.9736</v>
       </c>
       <c r="G6" t="n">
+        <v>15.87333333333335</v>
+      </c>
+      <c r="H6" t="n">
         <v>15.82666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
+        <v>15.88666666666668</v>
+      </c>
+      <c r="H7" t="n">
         <v>15.82333333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>4009.1138</v>
       </c>
       <c r="G8" t="n">
+        <v>15.88666666666668</v>
+      </c>
+      <c r="H8" t="n">
         <v>15.81666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1505.9335</v>
       </c>
       <c r="G9" t="n">
+        <v>15.90000000000001</v>
+      </c>
+      <c r="H9" t="n">
         <v>15.80666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>100740.1584</v>
       </c>
       <c r="G10" t="n">
+        <v>15.88666666666668</v>
+      </c>
+      <c r="H10" t="n">
         <v>15.795</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>3322.5696</v>
       </c>
       <c r="G11" t="n">
+        <v>15.86666666666668</v>
+      </c>
+      <c r="H11" t="n">
         <v>15.785</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>11448.1632</v>
       </c>
       <c r="G12" t="n">
+        <v>15.84000000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>15.77666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1168.363</v>
       </c>
       <c r="G13" t="n">
+        <v>15.82000000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>15.77166666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>40000</v>
       </c>
       <c r="G14" t="n">
+        <v>15.79333333333335</v>
+      </c>
+      <c r="H14" t="n">
         <v>15.76833333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>361.9551</v>
       </c>
       <c r="G15" t="n">
+        <v>15.76666666666668</v>
+      </c>
+      <c r="H15" t="n">
         <v>15.76666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>70308.5833</v>
       </c>
       <c r="G16" t="n">
+        <v>15.74000000000001</v>
+      </c>
+      <c r="H16" t="n">
         <v>15.76166666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2966.3114</v>
       </c>
       <c r="G17" t="n">
+        <v>15.70666666666668</v>
+      </c>
+      <c r="H17" t="n">
         <v>15.75666666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>2701.049</v>
       </c>
       <c r="G18" t="n">
+        <v>15.68000000000001</v>
+      </c>
+      <c r="H18" t="n">
         <v>15.75333333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>40000</v>
       </c>
       <c r="G19" t="n">
+        <v>15.65333333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>15.75000000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>45271.1622</v>
       </c>
       <c r="G20" t="n">
+        <v>15.64666666666668</v>
+      </c>
+      <c r="H20" t="n">
         <v>15.75000000000001</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>2010.6947</v>
       </c>
       <c r="G21" t="n">
+        <v>15.64000000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>15.75000000000001</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>1324.1345</v>
       </c>
       <c r="G22" t="n">
+        <v>15.62666666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>15.75000000000001</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1836.4038</v>
       </c>
       <c r="G23" t="n">
+        <v>15.62000000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>15.74666666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>371</v>
       </c>
       <c r="G24" t="n">
+        <v>15.60666666666668</v>
+      </c>
+      <c r="H24" t="n">
         <v>15.74333333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>27800</v>
       </c>
       <c r="G25" t="n">
+        <v>15.60000000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>15.74000000000001</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>3346.7341</v>
       </c>
       <c r="G26" t="n">
+        <v>15.60666666666668</v>
+      </c>
+      <c r="H26" t="n">
         <v>15.74333333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>7161.1611</v>
       </c>
       <c r="G27" t="n">
+        <v>15.62666666666668</v>
+      </c>
+      <c r="H27" t="n">
         <v>15.75000000000001</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>2500</v>
       </c>
       <c r="G28" t="n">
+        <v>15.62666666666668</v>
+      </c>
+      <c r="H28" t="n">
         <v>15.75000000000001</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>7162.588</v>
       </c>
       <c r="G29" t="n">
+        <v>15.63333333333335</v>
+      </c>
+      <c r="H29" t="n">
         <v>15.74833333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>13875.7727</v>
       </c>
       <c r="G30" t="n">
+        <v>15.64000000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>15.74666666666668</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1846.3811</v>
       </c>
       <c r="G31" t="n">
+        <v>15.64666666666668</v>
+      </c>
+      <c r="H31" t="n">
         <v>15.74833333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>554</v>
       </c>
       <c r="G32" t="n">
+        <v>15.66000000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>15.74666666666668</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>15228.6701</v>
       </c>
       <c r="G33" t="n">
+        <v>15.67333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>15.74166666666668</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>684.5732</v>
       </c>
       <c r="G34" t="n">
+        <v>15.68666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>15.73833333333335</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>82394.7475</v>
       </c>
       <c r="G35" t="n">
+        <v>15.69333333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>15.73500000000002</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1727.5186</v>
       </c>
       <c r="G36" t="n">
+        <v>15.69333333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>15.72833333333335</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>15450.539</v>
       </c>
       <c r="G37" t="n">
+        <v>15.68666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>15.72166666666668</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>450158.4721</v>
       </c>
       <c r="G38" t="n">
+        <v>15.68666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>15.72000000000002</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>24096.2085</v>
       </c>
       <c r="G39" t="n">
+        <v>15.68666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>15.71166666666668</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>75412.91190000001</v>
       </c>
       <c r="G40" t="n">
+        <v>15.68666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>15.71333333333335</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>29335</v>
       </c>
       <c r="G41" t="n">
+        <v>15.67333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>15.71166666666668</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>4871</v>
       </c>
       <c r="G42" t="n">
+        <v>15.65333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>15.70666666666668</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>19400</v>
       </c>
       <c r="G43" t="n">
+        <v>15.64666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>15.70666666666668</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>22033.8027</v>
       </c>
       <c r="G44" t="n">
+        <v>15.64000000000001</v>
+      </c>
+      <c r="H44" t="n">
         <v>15.70500000000002</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>1885.7961</v>
       </c>
       <c r="G45" t="n">
+        <v>15.64000000000001</v>
+      </c>
+      <c r="H45" t="n">
         <v>15.70500000000002</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>4393.8226</v>
       </c>
       <c r="G46" t="n">
+        <v>15.63333333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>15.70500000000002</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>32409.5475</v>
       </c>
       <c r="G47" t="n">
+        <v>15.62000000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>15.70333333333335</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>20902.4951</v>
       </c>
       <c r="G48" t="n">
+        <v>15.60666666666668</v>
+      </c>
+      <c r="H48" t="n">
         <v>15.70333333333335</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>97696.1376</v>
       </c>
       <c r="G49" t="n">
+        <v>15.60000000000001</v>
+      </c>
+      <c r="H49" t="n">
         <v>15.70500000000002</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>13600</v>
       </c>
       <c r="G50" t="n">
+        <v>15.58666666666668</v>
+      </c>
+      <c r="H50" t="n">
         <v>15.70333333333335</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>136338.9918</v>
       </c>
       <c r="G51" t="n">
+        <v>15.58000000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>15.69666666666668</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>40000</v>
       </c>
       <c r="G52" t="n">
+        <v>15.58000000000001</v>
+      </c>
+      <c r="H52" t="n">
         <v>15.69500000000002</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>228005</v>
       </c>
       <c r="G53" t="n">
+        <v>15.57333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>15.69166666666668</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>98507.48235483871</v>
       </c>
       <c r="G54" t="n">
+        <v>15.56666666666668</v>
+      </c>
+      <c r="H54" t="n">
         <v>15.69000000000002</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>31811.8554</v>
       </c>
       <c r="G55" t="n">
+        <v>15.55333333333335</v>
+      </c>
+      <c r="H55" t="n">
         <v>15.68166666666668</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>2354.0332</v>
       </c>
       <c r="G56" t="n">
+        <v>15.54000000000001</v>
+      </c>
+      <c r="H56" t="n">
         <v>15.67166666666668</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>188</v>
       </c>
       <c r="G57" t="n">
+        <v>15.52666666666668</v>
+      </c>
+      <c r="H57" t="n">
         <v>15.66166666666668</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>6137.3096</v>
       </c>
       <c r="G58" t="n">
+        <v>15.50000000000001</v>
+      </c>
+      <c r="H58" t="n">
         <v>15.64833333333335</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>2782.6878</v>
       </c>
       <c r="G59" t="n">
+        <v>15.46666666666668</v>
+      </c>
+      <c r="H59" t="n">
         <v>15.63333333333335</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>15336.1399</v>
       </c>
       <c r="G60" t="n">
+        <v>15.43333333333335</v>
+      </c>
+      <c r="H60" t="n">
         <v>15.62000000000002</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>60570.2368</v>
       </c>
       <c r="G61" t="n">
+        <v>15.40666666666668</v>
+      </c>
+      <c r="H61" t="n">
         <v>15.60666666666668</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>13937.5227</v>
       </c>
       <c r="G62" t="n">
+        <v>15.38000000000001</v>
+      </c>
+      <c r="H62" t="n">
         <v>15.59166666666668</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,25 @@
         <v>10970.5955</v>
       </c>
       <c r="G63" t="n">
+        <v>15.35333333333335</v>
+      </c>
+      <c r="H63" t="n">
         <v>15.57833333333335</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2813,29 @@
         <v>7297.66</v>
       </c>
       <c r="G64" t="n">
+        <v>15.32000000000001</v>
+      </c>
+      <c r="H64" t="n">
         <v>15.56500000000002</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2859,29 @@
         <v>13500</v>
       </c>
       <c r="G65" t="n">
+        <v>15.29333333333335</v>
+      </c>
+      <c r="H65" t="n">
         <v>15.55500000000002</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,22 +2905,29 @@
         <v>6019</v>
       </c>
       <c r="G66" t="n">
+        <v>15.26666666666668</v>
+      </c>
+      <c r="H66" t="n">
         <v>15.54500000000002</v>
       </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>15.1</v>
       </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2727,26 +2951,29 @@
         <v>9498.406199999999</v>
       </c>
       <c r="G67" t="n">
+        <v>15.24000000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>15.53333333333335</v>
       </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>15.1</v>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2770,26 +2997,29 @@
         <v>110</v>
       </c>
       <c r="G68" t="n">
+        <v>15.21333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>15.52333333333335</v>
       </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
         <v>15.2</v>
       </c>
-      <c r="K68" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2813,26 +3043,29 @@
         <v>395.2303</v>
       </c>
       <c r="G69" t="n">
+        <v>15.20000000000001</v>
+      </c>
+      <c r="H69" t="n">
         <v>15.51500000000002</v>
       </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>15.1</v>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2856,26 +3089,29 @@
         <v>136</v>
       </c>
       <c r="G70" t="n">
+        <v>15.19333333333335</v>
+      </c>
+      <c r="H70" t="n">
         <v>15.50833333333335</v>
       </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
         <v>15.3</v>
       </c>
-      <c r="K70" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2899,24 +3135,29 @@
         <v>648.8707000000001</v>
       </c>
       <c r="G71" t="n">
+        <v>15.19333333333335</v>
+      </c>
+      <c r="H71" t="n">
         <v>15.50333333333335</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L71" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2940,24 +3181,27 @@
         <v>293.0261</v>
       </c>
       <c r="G72" t="n">
+        <v>15.19333333333335</v>
+      </c>
+      <c r="H72" t="n">
         <v>15.50000000000002</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2981,24 +3225,27 @@
         <v>962.742</v>
       </c>
       <c r="G73" t="n">
+        <v>15.21333333333335</v>
+      </c>
+      <c r="H73" t="n">
         <v>15.49666666666668</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,24 +3269,27 @@
         <v>33297.465</v>
       </c>
       <c r="G74" t="n">
+        <v>15.23333333333335</v>
+      </c>
+      <c r="H74" t="n">
         <v>15.49333333333335</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3063,24 +3313,27 @@
         <v>39520</v>
       </c>
       <c r="G75" t="n">
+        <v>15.25333333333335</v>
+      </c>
+      <c r="H75" t="n">
         <v>15.49166666666668</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3104,24 +3357,27 @@
         <v>962.742</v>
       </c>
       <c r="G76" t="n">
+        <v>15.26666666666668</v>
+      </c>
+      <c r="H76" t="n">
         <v>15.48833333333335</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3145,24 +3401,27 @@
         <v>17032</v>
       </c>
       <c r="G77" t="n">
+        <v>15.28666666666668</v>
+      </c>
+      <c r="H77" t="n">
         <v>15.48666666666668</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3186,24 +3445,27 @@
         <v>34276.0261</v>
       </c>
       <c r="G78" t="n">
+        <v>15.31333333333335</v>
+      </c>
+      <c r="H78" t="n">
         <v>15.48666666666668</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3227,24 +3489,27 @@
         <v>3148.1214</v>
       </c>
       <c r="G79" t="n">
+        <v>15.32000000000002</v>
+      </c>
+      <c r="H79" t="n">
         <v>15.48166666666668</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,24 +3533,27 @@
         <v>17902.1984</v>
       </c>
       <c r="G80" t="n">
+        <v>15.34666666666668</v>
+      </c>
+      <c r="H80" t="n">
         <v>15.48000000000001</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3309,24 +3577,27 @@
         <v>80000</v>
       </c>
       <c r="G81" t="n">
+        <v>15.37333333333335</v>
+      </c>
+      <c r="H81" t="n">
         <v>15.47833333333335</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3350,24 +3621,27 @@
         <v>371</v>
       </c>
       <c r="G82" t="n">
+        <v>15.39333333333335</v>
+      </c>
+      <c r="H82" t="n">
         <v>15.47500000000001</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3391,24 +3665,27 @@
         <v>371</v>
       </c>
       <c r="G83" t="n">
+        <v>15.42000000000002</v>
+      </c>
+      <c r="H83" t="n">
         <v>15.47333333333335</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3432,24 +3709,27 @@
         <v>2497.046</v>
       </c>
       <c r="G84" t="n">
+        <v>15.43333333333335</v>
+      </c>
+      <c r="H84" t="n">
         <v>15.47166666666668</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3473,24 +3753,27 @@
         <v>22934</v>
       </c>
       <c r="G85" t="n">
+        <v>15.44666666666668</v>
+      </c>
+      <c r="H85" t="n">
         <v>15.47000000000001</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,24 +3797,27 @@
         <v>5803.7591</v>
       </c>
       <c r="G86" t="n">
+        <v>15.46000000000002</v>
+      </c>
+      <c r="H86" t="n">
         <v>15.46666666666668</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3555,24 +3841,27 @@
         <v>3906.4462</v>
       </c>
       <c r="G87" t="n">
+        <v>15.46666666666668</v>
+      </c>
+      <c r="H87" t="n">
         <v>15.46000000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3596,24 +3885,27 @@
         <v>391.4358</v>
       </c>
       <c r="G88" t="n">
+        <v>15.46666666666668</v>
+      </c>
+      <c r="H88" t="n">
         <v>15.45666666666668</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3637,24 +3929,27 @@
         <v>9072.391</v>
       </c>
       <c r="G89" t="n">
+        <v>15.47333333333335</v>
+      </c>
+      <c r="H89" t="n">
         <v>15.45333333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,24 +3973,27 @@
         <v>2442.9499</v>
       </c>
       <c r="G90" t="n">
+        <v>15.47333333333335</v>
+      </c>
+      <c r="H90" t="n">
         <v>15.45000000000001</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,24 +4017,27 @@
         <v>61792.2223</v>
       </c>
       <c r="G91" t="n">
+        <v>15.48000000000001</v>
+      </c>
+      <c r="H91" t="n">
         <v>15.44666666666668</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,24 +4061,27 @@
         <v>371</v>
       </c>
       <c r="G92" t="n">
+        <v>15.48666666666668</v>
+      </c>
+      <c r="H92" t="n">
         <v>15.44333333333334</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3801,24 +4105,27 @@
         <v>40000</v>
       </c>
       <c r="G93" t="n">
+        <v>15.48666666666668</v>
+      </c>
+      <c r="H93" t="n">
         <v>15.44000000000001</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,24 +4149,27 @@
         <v>5769.4775</v>
       </c>
       <c r="G94" t="n">
+        <v>15.50666666666668</v>
+      </c>
+      <c r="H94" t="n">
         <v>15.43666666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3883,24 +4193,27 @@
         <v>40317.2564</v>
       </c>
       <c r="G95" t="n">
+        <v>15.51333333333335</v>
+      </c>
+      <c r="H95" t="n">
         <v>15.43500000000001</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3924,24 +4237,27 @@
         <v>97500</v>
       </c>
       <c r="G96" t="n">
+        <v>15.51333333333335</v>
+      </c>
+      <c r="H96" t="n">
         <v>15.43333333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,24 +4281,27 @@
         <v>5999.7746</v>
       </c>
       <c r="G97" t="n">
+        <v>15.51333333333335</v>
+      </c>
+      <c r="H97" t="n">
         <v>15.43166666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4006,24 +4325,27 @@
         <v>38250</v>
       </c>
       <c r="G98" t="n">
+        <v>15.51333333333335</v>
+      </c>
+      <c r="H98" t="n">
         <v>15.43000000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4047,24 +4369,27 @@
         <v>3035.4508</v>
       </c>
       <c r="G99" t="n">
+        <v>15.51333333333335</v>
+      </c>
+      <c r="H99" t="n">
         <v>15.42833333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,24 +4413,27 @@
         <v>4855.3271</v>
       </c>
       <c r="G100" t="n">
+        <v>15.51333333333335</v>
+      </c>
+      <c r="H100" t="n">
         <v>15.42666666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4129,24 +4457,27 @@
         <v>1114</v>
       </c>
       <c r="G101" t="n">
+        <v>15.48666666666668</v>
+      </c>
+      <c r="H101" t="n">
         <v>15.42000000000001</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4170,24 +4501,27 @@
         <v>361.7828</v>
       </c>
       <c r="G102" t="n">
+        <v>15.47333333333335</v>
+      </c>
+      <c r="H102" t="n">
         <v>15.415</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,24 +4545,27 @@
         <v>1703.6182</v>
       </c>
       <c r="G103" t="n">
+        <v>15.46666666666668</v>
+      </c>
+      <c r="H103" t="n">
         <v>15.41166666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,24 +4589,27 @@
         <v>2636</v>
       </c>
       <c r="G104" t="n">
+        <v>15.46000000000002</v>
+      </c>
+      <c r="H104" t="n">
         <v>15.40833333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4293,24 +4633,27 @@
         <v>23952.4724</v>
       </c>
       <c r="G105" t="n">
+        <v>15.45333333333335</v>
+      </c>
+      <c r="H105" t="n">
         <v>15.40333333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,24 +4677,29 @@
         <v>60282.5015</v>
       </c>
       <c r="G106" t="n">
+        <v>15.45333333333335</v>
+      </c>
+      <c r="H106" t="n">
         <v>15.40166666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L106" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,24 +4723,27 @@
         <v>23892.5912</v>
       </c>
       <c r="G107" t="n">
+        <v>15.45333333333335</v>
+      </c>
+      <c r="H107" t="n">
         <v>15.40166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4416,24 +4767,27 @@
         <v>14998</v>
       </c>
       <c r="G108" t="n">
+        <v>15.46000000000002</v>
+      </c>
+      <c r="H108" t="n">
         <v>15.40333333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4457,24 +4811,27 @@
         <v>7500</v>
       </c>
       <c r="G109" t="n">
+        <v>15.46666666666668</v>
+      </c>
+      <c r="H109" t="n">
         <v>15.40333333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4498,24 +4855,27 @@
         <v>1685.7867</v>
       </c>
       <c r="G110" t="n">
-        <v>15.4</v>
+        <v>15.44666666666668</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4539,24 +4899,27 @@
         <v>31.5554</v>
       </c>
       <c r="G111" t="n">
+        <v>15.45333333333335</v>
+      </c>
+      <c r="H111" t="n">
         <v>15.40166666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,24 +4943,27 @@
         <v>536.1634</v>
       </c>
       <c r="G112" t="n">
+        <v>15.44666666666668</v>
+      </c>
+      <c r="H112" t="n">
         <v>15.39833333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4621,24 +4987,27 @@
         <v>923.4294</v>
       </c>
       <c r="G113" t="n">
+        <v>15.44666666666668</v>
+      </c>
+      <c r="H113" t="n">
         <v>15.39833333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4662,24 +5031,27 @@
         <v>13.4102</v>
       </c>
       <c r="G114" t="n">
-        <v>15.4</v>
+        <v>15.45333333333335</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,24 +5075,27 @@
         <v>27560.59</v>
       </c>
       <c r="G115" t="n">
+        <v>15.44000000000002</v>
+      </c>
+      <c r="H115" t="n">
         <v>15.39833333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4744,24 +5119,27 @@
         <v>12.1483</v>
       </c>
       <c r="G116" t="n">
-        <v>15.4</v>
+        <v>15.46000000000002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4785,24 +5163,27 @@
         <v>168</v>
       </c>
       <c r="G117" t="n">
-        <v>15.4</v>
+        <v>15.46666666666668</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,24 +5207,27 @@
         <v>153.2142</v>
       </c>
       <c r="G118" t="n">
+        <v>15.46666666666668</v>
+      </c>
+      <c r="H118" t="n">
         <v>15.40333333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4867,24 +5251,27 @@
         <v>1727.8674</v>
       </c>
       <c r="G119" t="n">
+        <v>15.46000000000002</v>
+      </c>
+      <c r="H119" t="n">
         <v>15.40666666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4908,24 +5295,27 @@
         <v>113</v>
       </c>
       <c r="G120" t="n">
+        <v>15.46000000000002</v>
+      </c>
+      <c r="H120" t="n">
         <v>15.41</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4949,24 +5339,27 @@
         <v>23.935</v>
       </c>
       <c r="G121" t="n">
+        <v>15.45333333333335</v>
+      </c>
+      <c r="H121" t="n">
         <v>15.41333333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4990,24 +5383,27 @@
         <v>7481.25</v>
       </c>
       <c r="G122" t="n">
+        <v>15.44666666666668</v>
+      </c>
+      <c r="H122" t="n">
         <v>15.41833333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5031,24 +5427,27 @@
         <v>1000</v>
       </c>
       <c r="G123" t="n">
+        <v>15.44000000000002</v>
+      </c>
+      <c r="H123" t="n">
         <v>15.42499999999999</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5072,24 +5471,27 @@
         <v>1000</v>
       </c>
       <c r="G124" t="n">
+        <v>15.44000000000002</v>
+      </c>
+      <c r="H124" t="n">
         <v>15.43333333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5113,24 +5515,27 @@
         <v>9757.628199999999</v>
       </c>
       <c r="G125" t="n">
+        <v>15.44666666666668</v>
+      </c>
+      <c r="H125" t="n">
         <v>15.43833333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,24 +5559,27 @@
         <v>10.8589</v>
       </c>
       <c r="G126" t="n">
+        <v>15.44666666666668</v>
+      </c>
+      <c r="H126" t="n">
         <v>15.44666666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5195,24 +5603,27 @@
         <v>19600</v>
       </c>
       <c r="G127" t="n">
+        <v>15.44666666666668</v>
+      </c>
+      <c r="H127" t="n">
         <v>15.44999999999999</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5236,24 +5647,27 @@
         <v>2551.8296</v>
       </c>
       <c r="G128" t="n">
+        <v>15.44000000000002</v>
+      </c>
+      <c r="H128" t="n">
         <v>15.45499999999999</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5277,24 +5691,27 @@
         <v>10000</v>
       </c>
       <c r="G129" t="n">
+        <v>15.42666666666669</v>
+      </c>
+      <c r="H129" t="n">
         <v>15.45666666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5318,24 +5735,27 @@
         <v>118877.5405</v>
       </c>
       <c r="G130" t="n">
+        <v>15.43333333333335</v>
+      </c>
+      <c r="H130" t="n">
         <v>15.45833333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5359,24 +5779,27 @@
         <v>4660.8387</v>
       </c>
       <c r="G131" t="n">
+        <v>15.43333333333335</v>
+      </c>
+      <c r="H131" t="n">
         <v>15.45999999999999</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5400,24 +5823,27 @@
         <v>2118.4398</v>
       </c>
       <c r="G132" t="n">
+        <v>15.43333333333335</v>
+      </c>
+      <c r="H132" t="n">
         <v>15.45999999999999</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5441,24 +5867,27 @@
         <v>65471.5341</v>
       </c>
       <c r="G133" t="n">
+        <v>15.43333333333335</v>
+      </c>
+      <c r="H133" t="n">
         <v>15.45833333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5482,24 +5911,27 @@
         <v>39370.4211</v>
       </c>
       <c r="G134" t="n">
+        <v>15.43333333333335</v>
+      </c>
+      <c r="H134" t="n">
         <v>15.45666666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,24 +5955,27 @@
         <v>186.6688</v>
       </c>
       <c r="G135" t="n">
+        <v>15.44000000000002</v>
+      </c>
+      <c r="H135" t="n">
         <v>15.45666666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5564,24 +5999,27 @@
         <v>11757.7177</v>
       </c>
       <c r="G136" t="n">
+        <v>15.44666666666668</v>
+      </c>
+      <c r="H136" t="n">
         <v>15.45833333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5605,24 +6043,27 @@
         <v>59206.2574</v>
       </c>
       <c r="G137" t="n">
+        <v>15.46000000000002</v>
+      </c>
+      <c r="H137" t="n">
         <v>15.46166666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,24 +6087,27 @@
         <v>2434.308</v>
       </c>
       <c r="G138" t="n">
+        <v>15.46000000000002</v>
+      </c>
+      <c r="H138" t="n">
         <v>15.46166666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5687,24 +6131,27 @@
         <v>7500</v>
       </c>
       <c r="G139" t="n">
+        <v>15.48000000000002</v>
+      </c>
+      <c r="H139" t="n">
         <v>15.47333333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5728,24 +6175,27 @@
         <v>1941.2084</v>
       </c>
       <c r="G140" t="n">
+        <v>15.49333333333335</v>
+      </c>
+      <c r="H140" t="n">
         <v>15.47499999999999</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5769,24 +6219,27 @@
         <v>13.8281</v>
       </c>
       <c r="G141" t="n">
+        <v>15.51333333333335</v>
+      </c>
+      <c r="H141" t="n">
         <v>15.48166666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5810,24 +6263,27 @@
         <v>65508.0179</v>
       </c>
       <c r="G142" t="n">
+        <v>15.52000000000002</v>
+      </c>
+      <c r="H142" t="n">
         <v>15.48166666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5851,24 +6307,27 @@
         <v>3610</v>
       </c>
       <c r="G143" t="n">
+        <v>15.53333333333335</v>
+      </c>
+      <c r="H143" t="n">
         <v>15.48333333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,24 +6351,27 @@
         <v>13948.7182</v>
       </c>
       <c r="G144" t="n">
+        <v>15.54000000000002</v>
+      </c>
+      <c r="H144" t="n">
         <v>15.48333333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5933,24 +6395,27 @@
         <v>7552.9568</v>
       </c>
       <c r="G145" t="n">
+        <v>15.55333333333335</v>
+      </c>
+      <c r="H145" t="n">
         <v>15.48499999999999</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5974,24 +6439,27 @@
         <v>950.8141000000001</v>
       </c>
       <c r="G146" t="n">
+        <v>15.56000000000001</v>
+      </c>
+      <c r="H146" t="n">
         <v>15.48499999999999</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6015,24 +6483,27 @@
         <v>855.7307</v>
       </c>
       <c r="G147" t="n">
+        <v>15.57333333333335</v>
+      </c>
+      <c r="H147" t="n">
         <v>15.48666666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6056,24 +6527,27 @@
         <v>9544.2526</v>
       </c>
       <c r="G148" t="n">
+        <v>15.58666666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>15.48833333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6097,24 +6571,27 @@
         <v>24705.1077</v>
       </c>
       <c r="G149" t="n">
+        <v>15.60666666666668</v>
+      </c>
+      <c r="H149" t="n">
         <v>15.48999999999999</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6138,24 +6615,27 @@
         <v>20400</v>
       </c>
       <c r="G150" t="n">
+        <v>15.62000000000001</v>
+      </c>
+      <c r="H150" t="n">
         <v>15.49333333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6179,24 +6659,27 @@
         <v>49800</v>
       </c>
       <c r="G151" t="n">
+        <v>15.64000000000001</v>
+      </c>
+      <c r="H151" t="n">
         <v>15.49833333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6220,24 +6703,27 @@
         <v>20000</v>
       </c>
       <c r="G152" t="n">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="H152" t="n">
         <v>15.50666666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6261,24 +6747,27 @@
         <v>1750.5795</v>
       </c>
       <c r="G153" t="n">
+        <v>15.68666666666668</v>
+      </c>
+      <c r="H153" t="n">
         <v>15.51166666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6302,24 +6791,27 @@
         <v>6831.5481</v>
       </c>
       <c r="G154" t="n">
+        <v>15.69333333333335</v>
+      </c>
+      <c r="H154" t="n">
         <v>15.51999999999999</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6343,24 +6835,27 @@
         <v>28200</v>
       </c>
       <c r="G155" t="n">
+        <v>15.73333333333335</v>
+      </c>
+      <c r="H155" t="n">
         <v>15.52999999999999</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6384,24 +6879,27 @@
         <v>93284.349</v>
       </c>
       <c r="G156" t="n">
+        <v>15.76666666666668</v>
+      </c>
+      <c r="H156" t="n">
         <v>15.54499999999999</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6425,24 +6923,27 @@
         <v>22855.9756</v>
       </c>
       <c r="G157" t="n">
+        <v>15.82666666666668</v>
+      </c>
+      <c r="H157" t="n">
         <v>15.55999999999999</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,25 +6967,28 @@
         <v>180260.7595</v>
       </c>
       <c r="G158" t="n">
+        <v>15.88000000000001</v>
+      </c>
+      <c r="H158" t="n">
         <v>15.57499999999999</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1.081092715231788</v>
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -6507,18 +7011,27 @@
         <v>10</v>
       </c>
       <c r="G159" t="n">
+        <v>15.94000000000002</v>
+      </c>
+      <c r="H159" t="n">
         <v>15.58999999999999</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6542,19 +7055,28 @@
         <v>261691.6446</v>
       </c>
       <c r="G160" t="n">
+        <v>16.00000000000001</v>
+      </c>
+      <c r="H160" t="n">
         <v>15.60666666666666</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
+      <c r="L160" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>1.08771523178808</v>
       </c>
     </row>
     <row r="161">
@@ -6577,18 +7099,21 @@
         <v>160622.8486</v>
       </c>
       <c r="G161" t="n">
+        <v>16.04666666666668</v>
+      </c>
+      <c r="H161" t="n">
         <v>15.62499999999999</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6612,18 +7137,21 @@
         <v>10</v>
       </c>
       <c r="G162" t="n">
+        <v>16.11333333333335</v>
+      </c>
+      <c r="H162" t="n">
         <v>15.64666666666666</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6647,18 +7175,21 @@
         <v>13771</v>
       </c>
       <c r="G163" t="n">
+        <v>16.16666666666668</v>
+      </c>
+      <c r="H163" t="n">
         <v>15.66333333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6682,18 +7213,21 @@
         <v>65211.0116</v>
       </c>
       <c r="G164" t="n">
+        <v>16.20666666666668</v>
+      </c>
+      <c r="H164" t="n">
         <v>15.67666666666666</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6717,18 +7251,21 @@
         <v>37600</v>
       </c>
       <c r="G165" t="n">
+        <v>16.23333333333335</v>
+      </c>
+      <c r="H165" t="n">
         <v>15.68833333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6752,18 +7289,21 @@
         <v>23000</v>
       </c>
       <c r="G166" t="n">
+        <v>16.24666666666668</v>
+      </c>
+      <c r="H166" t="n">
         <v>15.69666666666666</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6787,18 +7327,21 @@
         <v>13771</v>
       </c>
       <c r="G167" t="n">
+        <v>16.24666666666668</v>
+      </c>
+      <c r="H167" t="n">
         <v>15.70499999999999</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6822,18 +7365,21 @@
         <v>4360.9552</v>
       </c>
       <c r="G168" t="n">
+        <v>16.26000000000002</v>
+      </c>
+      <c r="H168" t="n">
         <v>15.71166666666666</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6857,18 +7403,21 @@
         <v>15000</v>
       </c>
       <c r="G169" t="n">
+        <v>16.26000000000002</v>
+      </c>
+      <c r="H169" t="n">
         <v>15.71833333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6892,18 +7441,21 @@
         <v>18570.0319</v>
       </c>
       <c r="G170" t="n">
+        <v>16.24000000000002</v>
+      </c>
+      <c r="H170" t="n">
         <v>15.72833333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6927,18 +7479,21 @@
         <v>25000</v>
       </c>
       <c r="G171" t="n">
+        <v>16.21333333333335</v>
+      </c>
+      <c r="H171" t="n">
         <v>15.73499999999999</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6962,18 +7517,21 @@
         <v>48504.9459</v>
       </c>
       <c r="G172" t="n">
+        <v>16.20000000000002</v>
+      </c>
+      <c r="H172" t="n">
         <v>15.74833333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6997,18 +7555,21 @@
         <v>6972.0683</v>
       </c>
       <c r="G173" t="n">
+        <v>16.18000000000002</v>
+      </c>
+      <c r="H173" t="n">
         <v>15.75833333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7032,18 +7593,21 @@
         <v>6288.675</v>
       </c>
       <c r="G174" t="n">
+        <v>16.16666666666668</v>
+      </c>
+      <c r="H174" t="n">
         <v>15.76833333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7067,18 +7631,21 @@
         <v>19492.246</v>
       </c>
       <c r="G175" t="n">
+        <v>16.13333333333335</v>
+      </c>
+      <c r="H175" t="n">
         <v>15.78</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7102,18 +7669,21 @@
         <v>4811.6979</v>
       </c>
       <c r="G176" t="n">
+        <v>16.10666666666668</v>
+      </c>
+      <c r="H176" t="n">
         <v>15.78666666666666</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7137,18 +7707,21 @@
         <v>2274.8049</v>
       </c>
       <c r="G177" t="n">
+        <v>16.06000000000001</v>
+      </c>
+      <c r="H177" t="n">
         <v>15.79499999999999</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7172,18 +7745,21 @@
         <v>706.9748</v>
       </c>
       <c r="G178" t="n">
+        <v>16.02666666666668</v>
+      </c>
+      <c r="H178" t="n">
         <v>15.80333333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7207,18 +7783,21 @@
         <v>94030.9307</v>
       </c>
       <c r="G179" t="n">
+        <v>16.01333333333335</v>
+      </c>
+      <c r="H179" t="n">
         <v>15.815</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7242,18 +7821,21 @@
         <v>756</v>
       </c>
       <c r="G180" t="n">
+        <v>16.00666666666668</v>
+      </c>
+      <c r="H180" t="n">
         <v>15.825</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7277,18 +7859,21 @@
         <v>826.5204</v>
       </c>
       <c r="G181" t="n">
+        <v>16.00666666666668</v>
+      </c>
+      <c r="H181" t="n">
         <v>15.835</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7312,18 +7897,21 @@
         <v>29260.7844</v>
       </c>
       <c r="G182" t="n">
+        <v>16.01333333333335</v>
+      </c>
+      <c r="H182" t="n">
         <v>15.84666666666666</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7347,18 +7935,21 @@
         <v>5000</v>
       </c>
       <c r="G183" t="n">
+        <v>16.02000000000002</v>
+      </c>
+      <c r="H183" t="n">
         <v>15.85666666666666</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7382,18 +7973,21 @@
         <v>1822.6104</v>
       </c>
       <c r="G184" t="n">
+        <v>16.02000000000002</v>
+      </c>
+      <c r="H184" t="n">
         <v>15.86333333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7417,18 +8011,21 @@
         <v>23239.6929</v>
       </c>
       <c r="G185" t="n">
+        <v>16.03333333333335</v>
+      </c>
+      <c r="H185" t="n">
         <v>15.875</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7452,18 +8049,21 @@
         <v>45171.4796</v>
       </c>
       <c r="G186" t="n">
+        <v>16.03333333333336</v>
+      </c>
+      <c r="H186" t="n">
         <v>15.88166666666666</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7487,18 +8087,21 @@
         <v>371</v>
       </c>
       <c r="G187" t="n">
+        <v>16.02666666666669</v>
+      </c>
+      <c r="H187" t="n">
         <v>15.89333333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7522,18 +8125,21 @@
         <v>1862.0434</v>
       </c>
       <c r="G188" t="n">
+        <v>16.02666666666669</v>
+      </c>
+      <c r="H188" t="n">
         <v>15.905</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7557,18 +8163,21 @@
         <v>46818.48981226994</v>
       </c>
       <c r="G189" t="n">
+        <v>16.03333333333336</v>
+      </c>
+      <c r="H189" t="n">
         <v>15.92</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7592,18 +8201,21 @@
         <v>184.049</v>
       </c>
       <c r="G190" t="n">
+        <v>16.05333333333336</v>
+      </c>
+      <c r="H190" t="n">
         <v>15.935</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7627,18 +8239,21 @@
         <v>2338.2057</v>
       </c>
       <c r="G191" t="n">
+        <v>16.06666666666669</v>
+      </c>
+      <c r="H191" t="n">
         <v>15.945</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7662,18 +8277,21 @@
         <v>951.9813</v>
       </c>
       <c r="G192" t="n">
+        <v>16.07333333333336</v>
+      </c>
+      <c r="H192" t="n">
         <v>15.955</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7697,18 +8315,21 @@
         <v>8051.5776</v>
       </c>
       <c r="G193" t="n">
+        <v>16.08666666666669</v>
+      </c>
+      <c r="H193" t="n">
         <v>15.96666666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7732,18 +8353,21 @@
         <v>38649.866</v>
       </c>
       <c r="G194" t="n">
+        <v>16.08666666666669</v>
+      </c>
+      <c r="H194" t="n">
         <v>15.97833333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7767,18 +8391,21 @@
         <v>107631.0431753086</v>
       </c>
       <c r="G195" t="n">
+        <v>16.08666666666669</v>
+      </c>
+      <c r="H195" t="n">
         <v>15.98666666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7802,18 +8429,21 @@
         <v>2196.0426</v>
       </c>
       <c r="G196" t="n">
+        <v>16.09333333333336</v>
+      </c>
+      <c r="H196" t="n">
         <v>15.99666666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7837,18 +8467,21 @@
         <v>1295</v>
       </c>
       <c r="G197" t="n">
+        <v>16.09333333333337</v>
+      </c>
+      <c r="H197" t="n">
         <v>16.005</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7872,18 +8505,401 @@
         <v>27500</v>
       </c>
       <c r="G198" t="n">
+        <v>16.08666666666669</v>
+      </c>
+      <c r="H198" t="n">
         <v>16.01333333333334</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C199" t="n">
+        <v>16</v>
+      </c>
+      <c r="D199" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E199" t="n">
+        <v>16</v>
+      </c>
+      <c r="F199" t="n">
+        <v>14974.6927</v>
+      </c>
+      <c r="G199" t="n">
+        <v>16.08666666666669</v>
+      </c>
+      <c r="H199" t="n">
+        <v>16.015</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>16</v>
+      </c>
+      <c r="D200" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E200" t="n">
+        <v>16</v>
+      </c>
+      <c r="F200" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G200" t="n">
+        <v>16.08000000000003</v>
+      </c>
+      <c r="H200" t="n">
+        <v>16.02166666666667</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E201" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G201" t="n">
+        <v>16.09333333333336</v>
+      </c>
+      <c r="H201" t="n">
+        <v>16.02666666666667</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C202" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D202" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E202" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F202" t="n">
+        <v>4538.6278</v>
+      </c>
+      <c r="G202" t="n">
+        <v>16.10000000000003</v>
+      </c>
+      <c r="H202" t="n">
+        <v>16.03833333333334</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C203" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D203" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E203" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2170</v>
+      </c>
+      <c r="G203" t="n">
+        <v>16.1066666666667</v>
+      </c>
+      <c r="H203" t="n">
+        <v>16.04833333333334</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C204" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E204" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F204" t="n">
+        <v>54915</v>
+      </c>
+      <c r="G204" t="n">
+        <v>16.09333333333336</v>
+      </c>
+      <c r="H204" t="n">
+        <v>16.05833333333334</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E205" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F205" t="n">
+        <v>47455.4628</v>
+      </c>
+      <c r="G205" t="n">
+        <v>16.08000000000003</v>
+      </c>
+      <c r="H205" t="n">
+        <v>16.06666666666667</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C206" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D206" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E206" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F206" t="n">
+        <v>7372</v>
+      </c>
+      <c r="G206" t="n">
+        <v>16.10000000000003</v>
+      </c>
+      <c r="H206" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C207" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D207" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E207" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F207" t="n">
+        <v>153535.7889</v>
+      </c>
+      <c r="G207" t="n">
+        <v>16.1266666666667</v>
+      </c>
+      <c r="H207" t="n">
+        <v>16.09333333333334</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C208" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D208" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E208" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F208" t="n">
+        <v>43781.699</v>
+      </c>
+      <c r="G208" t="n">
+        <v>16.14666666666669</v>
+      </c>
+      <c r="H208" t="n">
+        <v>16.10666666666667</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest LBA.xlsx
+++ b/BackTest/2019-10-26 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N195"/>
+  <dimension ref="A1:N266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D2" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E2" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F2" t="n">
-        <v>361.9551</v>
+        <v>2500</v>
       </c>
       <c r="G2" t="n">
-        <v>15.64</v>
+        <v>-517029.878101807</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D3" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>70308.5833</v>
+        <v>12845</v>
       </c>
       <c r="G3" t="n">
-        <v>15.62</v>
+        <v>-517029.878101807</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="C4" t="n">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
       <c r="D4" t="n">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
       <c r="E4" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F4" t="n">
-        <v>2966.3114</v>
+        <v>10400</v>
       </c>
       <c r="G4" t="n">
-        <v>15.6</v>
+        <v>-506629.878101807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="C5" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="E5" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F5" t="n">
-        <v>2701.049</v>
+        <v>1777.1261</v>
       </c>
       <c r="G5" t="n">
-        <v>15.56</v>
+        <v>-508407.004201807</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="C6" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="D6" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="E6" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F6" t="n">
-        <v>40000</v>
+        <v>11574.1649</v>
       </c>
       <c r="G6" t="n">
-        <v>15.54</v>
+        <v>-508407.004201807</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6</v>
+        <v>16.3</v>
       </c>
       <c r="C7" t="n">
-        <v>15.6</v>
+        <v>16.4</v>
       </c>
       <c r="D7" t="n">
-        <v>15.6</v>
+        <v>16.4</v>
       </c>
       <c r="E7" t="n">
-        <v>15.6</v>
+        <v>16.3</v>
       </c>
       <c r="F7" t="n">
-        <v>45271.1622</v>
+        <v>7500</v>
       </c>
       <c r="G7" t="n">
-        <v>15.54</v>
+        <v>-500907.004201807</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.6</v>
+        <v>16.4</v>
       </c>
       <c r="C8" t="n">
-        <v>15.6</v>
+        <v>16.4</v>
       </c>
       <c r="D8" t="n">
-        <v>15.6</v>
+        <v>16.4</v>
       </c>
       <c r="E8" t="n">
-        <v>15.6</v>
+        <v>16.4</v>
       </c>
       <c r="F8" t="n">
-        <v>2010.6947</v>
+        <v>27443.2317</v>
       </c>
       <c r="G8" t="n">
-        <v>15.54</v>
+        <v>-500907.004201807</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.6</v>
+        <v>16.3</v>
       </c>
       <c r="C9" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="D9" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="E9" t="n">
-        <v>15.6</v>
+        <v>16.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1324.1345</v>
+        <v>15969.6179</v>
       </c>
       <c r="G9" t="n">
-        <v>15.58</v>
+        <v>-516876.622101807</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C10" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D10" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E10" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="F10" t="n">
-        <v>1836.4038</v>
+        <v>2373.3088</v>
       </c>
       <c r="G10" t="n">
-        <v>15.6</v>
+        <v>-519249.930901807</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>371</v>
+        <v>2260.5362</v>
       </c>
       <c r="G11" t="n">
-        <v>15.62</v>
+        <v>-521510.4671018069</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C12" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D12" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E12" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F12" t="n">
-        <v>27800</v>
+        <v>19452.3097</v>
       </c>
       <c r="G12" t="n">
-        <v>15.62</v>
+        <v>-540962.776801807</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C13" t="n">
         <v>15.7</v>
       </c>
-      <c r="C13" t="n">
-        <v>15.8</v>
-      </c>
       <c r="D13" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E13" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F13" t="n">
-        <v>3346.7341</v>
+        <v>101937.2702</v>
       </c>
       <c r="G13" t="n">
-        <v>15.66</v>
+        <v>-642900.047001807</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>15.9</v>
       </c>
       <c r="F14" t="n">
-        <v>7161.1611</v>
+        <v>1980.4374</v>
       </c>
       <c r="G14" t="n">
-        <v>15.7</v>
+        <v>-640919.609601807</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C15" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D15" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E15" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F15" t="n">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="G15" t="n">
-        <v>15.72</v>
+        <v>-660919.609601807</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -954,10 +954,10 @@
         <v>15.7</v>
       </c>
       <c r="F16" t="n">
-        <v>7162.588</v>
+        <v>8543.8681</v>
       </c>
       <c r="G16" t="n">
-        <v>15.74000000000001</v>
+        <v>-669463.4777018069</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>15.7</v>
       </c>
       <c r="F17" t="n">
-        <v>13875.7727</v>
+        <v>28005.1732</v>
       </c>
       <c r="G17" t="n">
-        <v>15.76000000000001</v>
+        <v>-669463.4777018069</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C18" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D18" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E18" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F18" t="n">
-        <v>1846.3811</v>
+        <v>4633.845</v>
       </c>
       <c r="G18" t="n">
-        <v>15.74000000000001</v>
+        <v>-674097.3227018069</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C19" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D19" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E19" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F19" t="n">
-        <v>554</v>
+        <v>53195.7203</v>
       </c>
       <c r="G19" t="n">
-        <v>15.70000000000001</v>
+        <v>-674097.3227018069</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C20" t="n">
         <v>15.7</v>
@@ -1095,13 +1095,13 @@
         <v>15.7</v>
       </c>
       <c r="E20" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F20" t="n">
-        <v>15228.6701</v>
+        <v>36749.6153</v>
       </c>
       <c r="G20" t="n">
-        <v>15.70000000000001</v>
+        <v>-637347.707401807</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C21" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D21" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E21" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F21" t="n">
-        <v>684.5732</v>
+        <v>40000</v>
       </c>
       <c r="G21" t="n">
-        <v>15.70000000000001</v>
+        <v>-597347.707401807</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C22" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D22" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E22" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F22" t="n">
-        <v>82394.7475</v>
+        <v>8783.6996</v>
       </c>
       <c r="G22" t="n">
-        <v>15.70000000000001</v>
+        <v>-597347.707401807</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C23" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D23" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E23" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F23" t="n">
-        <v>1727.5186</v>
+        <v>9380.571400000001</v>
       </c>
       <c r="G23" t="n">
-        <v>15.68000000000001</v>
+        <v>-597347.707401807</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C24" t="n">
         <v>15.6</v>
       </c>
       <c r="D24" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E24" t="n">
         <v>15.6</v>
       </c>
       <c r="F24" t="n">
-        <v>15450.539</v>
+        <v>28126.6498</v>
       </c>
       <c r="G24" t="n">
-        <v>15.66000000000001</v>
+        <v>-625474.357201807</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1269,19 +1269,19 @@
         <v>15.5</v>
       </c>
       <c r="C25" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D25" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E25" t="n">
         <v>15.5</v>
       </c>
       <c r="F25" t="n">
-        <v>450158.4721</v>
+        <v>11649.7964</v>
       </c>
       <c r="G25" t="n">
-        <v>15.64</v>
+        <v>-637124.153601807</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C26" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D26" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E26" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F26" t="n">
-        <v>24096.2085</v>
+        <v>5498</v>
       </c>
       <c r="G26" t="n">
-        <v>15.62</v>
+        <v>-631626.153601807</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C27" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D27" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E27" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F27" t="n">
-        <v>75412.91190000001</v>
+        <v>9659</v>
       </c>
       <c r="G27" t="n">
-        <v>15.6</v>
+        <v>-621967.153601807</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C28" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D28" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E28" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F28" t="n">
-        <v>29335</v>
+        <v>2500</v>
       </c>
       <c r="G28" t="n">
-        <v>15.6</v>
+        <v>-621967.153601807</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1422,10 +1422,10 @@
         <v>15.6</v>
       </c>
       <c r="F29" t="n">
-        <v>4871</v>
+        <v>2385.4405</v>
       </c>
       <c r="G29" t="n">
-        <v>15.6</v>
+        <v>-624352.594101807</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C30" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D30" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E30" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F30" t="n">
-        <v>19400</v>
+        <v>3439.7593</v>
       </c>
       <c r="G30" t="n">
-        <v>15.6</v>
+        <v>-620912.834801807</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C31" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D31" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F31" t="n">
-        <v>22033.8027</v>
+        <v>23400</v>
       </c>
       <c r="G31" t="n">
-        <v>15.6</v>
+        <v>-597512.834801807</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C32" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D32" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E32" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F32" t="n">
-        <v>1885.7961</v>
+        <v>7500</v>
       </c>
       <c r="G32" t="n">
-        <v>15.62</v>
+        <v>-605012.834801807</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C33" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D33" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E33" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F33" t="n">
-        <v>4393.8226</v>
+        <v>7980</v>
       </c>
       <c r="G33" t="n">
-        <v>15.62</v>
+        <v>-605012.834801807</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C34" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="D34" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E34" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>32409.5475</v>
+        <v>11545.4287</v>
       </c>
       <c r="G34" t="n">
-        <v>15.6</v>
+        <v>-593467.4061018069</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="C35" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="D35" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E35" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>20902.4951</v>
+        <v>8154.5765</v>
       </c>
       <c r="G35" t="n">
-        <v>15.58</v>
+        <v>-593467.4061018069</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C36" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D36" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E36" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F36" t="n">
-        <v>97696.1376</v>
+        <v>85819.3165</v>
       </c>
       <c r="G36" t="n">
-        <v>15.58</v>
+        <v>-679286.7226018069</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C37" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="D37" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E37" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F37" t="n">
-        <v>13600</v>
+        <v>7223.8953</v>
       </c>
       <c r="G37" t="n">
-        <v>15.54</v>
+        <v>-672062.8273018069</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C38" t="n">
         <v>15.5</v>
       </c>
       <c r="D38" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E38" t="n">
         <v>15.5</v>
       </c>
       <c r="F38" t="n">
-        <v>136338.9918</v>
+        <v>19896.9462</v>
       </c>
       <c r="G38" t="n">
-        <v>15.52</v>
+        <v>-691959.7735018069</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C39" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D39" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E39" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F39" t="n">
-        <v>40000</v>
+        <v>1783.0149</v>
       </c>
       <c r="G39" t="n">
-        <v>15.54</v>
+        <v>-690176.7586018069</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C40" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="D40" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E40" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F40" t="n">
-        <v>228005</v>
+        <v>33600</v>
       </c>
       <c r="G40" t="n">
-        <v>15.54</v>
+        <v>-656576.7586018069</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C41" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D41" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E41" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F41" t="n">
-        <v>98507.48235483871</v>
+        <v>1824.2259</v>
       </c>
       <c r="G41" t="n">
-        <v>15.52</v>
+        <v>-658400.9845018069</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C42" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D42" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E42" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F42" t="n">
-        <v>31811.8554</v>
+        <v>40000</v>
       </c>
       <c r="G42" t="n">
-        <v>15.50000000000001</v>
+        <v>-618400.9845018069</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="C43" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D43" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="E43" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F43" t="n">
-        <v>2354.0332</v>
+        <v>40000</v>
       </c>
       <c r="G43" t="n">
-        <v>15.48000000000001</v>
+        <v>-618400.9845018069</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C44" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D44" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E44" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F44" t="n">
-        <v>188</v>
+        <v>20000</v>
       </c>
       <c r="G44" t="n">
-        <v>15.44000000000001</v>
+        <v>-638400.9845018069</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C45" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="D45" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E45" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="F45" t="n">
-        <v>6137.3096</v>
+        <v>2191.9067</v>
       </c>
       <c r="G45" t="n">
-        <v>15.38000000000001</v>
+        <v>-638400.9845018069</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C46" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="D46" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E46" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="F46" t="n">
-        <v>2782.6878</v>
+        <v>18556</v>
       </c>
       <c r="G46" t="n">
-        <v>15.30000000000001</v>
+        <v>-656956.9845018069</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="C47" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="D47" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="E47" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="F47" t="n">
-        <v>15336.1399</v>
+        <v>8800</v>
       </c>
       <c r="G47" t="n">
-        <v>15.26000000000001</v>
+        <v>-656956.9845018069</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C48" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="D48" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E48" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="F48" t="n">
-        <v>60570.2368</v>
+        <v>458178.5897</v>
       </c>
       <c r="G48" t="n">
-        <v>15.22000000000001</v>
+        <v>-198778.3948018069</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15.1</v>
+        <v>15.9</v>
       </c>
       <c r="C49" t="n">
-        <v>15.1</v>
+        <v>15.9</v>
       </c>
       <c r="D49" t="n">
-        <v>15.1</v>
+        <v>15.9</v>
       </c>
       <c r="E49" t="n">
-        <v>15.1</v>
+        <v>15.9</v>
       </c>
       <c r="F49" t="n">
-        <v>13937.5227</v>
+        <v>2500</v>
       </c>
       <c r="G49" t="n">
-        <v>15.16000000000001</v>
+        <v>-196278.3948018069</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="C50" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="D50" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="E50" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="F50" t="n">
-        <v>10970.5955</v>
+        <v>1700.9184</v>
       </c>
       <c r="G50" t="n">
-        <v>15.14</v>
+        <v>-197979.3132018069</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,38 +2202,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
+        <v>15.7</v>
       </c>
       <c r="C51" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="D51" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="E51" t="n">
-        <v>15</v>
+        <v>15.7</v>
       </c>
       <c r="F51" t="n">
-        <v>7297.66</v>
+        <v>2527.9045</v>
       </c>
       <c r="G51" t="n">
-        <v>15.14</v>
+        <v>-197979.3132018069</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2244,38 +2238,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="C52" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="D52" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="E52" t="n">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="F52" t="n">
-        <v>13500</v>
+        <v>14865.7727</v>
       </c>
       <c r="G52" t="n">
-        <v>15.12</v>
+        <v>-212845.0859018069</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2286,38 +2274,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15.1</v>
+        <v>15.9</v>
       </c>
       <c r="C53" t="n">
-        <v>15.1</v>
+        <v>15.9</v>
       </c>
       <c r="D53" t="n">
-        <v>15.1</v>
+        <v>15.9</v>
       </c>
       <c r="E53" t="n">
-        <v>15.1</v>
+        <v>15.9</v>
       </c>
       <c r="F53" t="n">
-        <v>6019</v>
+        <v>1955.9045</v>
       </c>
       <c r="G53" t="n">
-        <v>15.1</v>
+        <v>-210889.1814018069</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2328,38 +2310,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="C54" t="n">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="D54" t="n">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="E54" t="n">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="F54" t="n">
-        <v>9498.406199999999</v>
+        <v>670</v>
       </c>
       <c r="G54" t="n">
-        <v>15.12</v>
+        <v>-210219.1814018069</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2370,38 +2346,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="C55" t="n">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="D55" t="n">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="F55" t="n">
-        <v>110</v>
+        <v>7275</v>
       </c>
       <c r="G55" t="n">
-        <v>15.12</v>
+        <v>-210219.1814018069</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2412,38 +2382,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="C56" t="n">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="D56" t="n">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="E56" t="n">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="F56" t="n">
-        <v>395.2303</v>
+        <v>400.25</v>
       </c>
       <c r="G56" t="n">
-        <v>15.16</v>
+        <v>-210219.1814018069</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2454,38 +2418,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="C57" t="n">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="D57" t="n">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="E57" t="n">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="F57" t="n">
-        <v>136</v>
+        <v>21347.75</v>
       </c>
       <c r="G57" t="n">
-        <v>15.2</v>
+        <v>-210219.1814018069</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2496,38 +2454,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="C58" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="D58" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="E58" t="n">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="F58" t="n">
-        <v>648.8707000000001</v>
+        <v>2906.6956</v>
       </c>
       <c r="G58" t="n">
-        <v>15.26000000000001</v>
+        <v>-210219.1814018069</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2538,38 +2490,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="C59" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="D59" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="F59" t="n">
-        <v>293.0261</v>
+        <v>6585.4843</v>
       </c>
       <c r="G59" t="n">
-        <v>15.30000000000001</v>
+        <v>-210219.1814018069</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2580,38 +2526,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="C60" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F60" t="n">
-        <v>962.742</v>
+        <v>368.6885</v>
       </c>
       <c r="G60" t="n">
-        <v>15.38000000000001</v>
+        <v>-210219.1814018069</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2622,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="C61" t="n">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="D61" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="E61" t="n">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="F61" t="n">
-        <v>33297.465</v>
+        <v>9581.255499999999</v>
       </c>
       <c r="G61" t="n">
-        <v>15.40000000000001</v>
+        <v>-219800.4369018069</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2647,11 +2587,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2662,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C62" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="D62" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E62" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F62" t="n">
-        <v>39520</v>
+        <v>1339</v>
       </c>
       <c r="G62" t="n">
-        <v>15.44000000000001</v>
+        <v>-219800.4369018069</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2687,11 +2623,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2702,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="C63" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D63" t="n">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="E63" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F63" t="n">
-        <v>962.742</v>
+        <v>42848.481</v>
       </c>
       <c r="G63" t="n">
-        <v>15.44000000000001</v>
+        <v>-262648.9179018069</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2727,11 +2659,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="C64" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D64" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="E64" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F64" t="n">
-        <v>17032</v>
+        <v>18189.9736</v>
       </c>
       <c r="G64" t="n">
-        <v>15.44000000000001</v>
+        <v>-262648.9179018069</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2767,11 +2695,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2782,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="C65" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="D65" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="E65" t="n">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="F65" t="n">
-        <v>34276.0261</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>15.44000000000001</v>
+        <v>-262638.9179018069</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2807,11 +2731,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2822,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15.2</v>
+        <v>15.8</v>
       </c>
       <c r="C66" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="D66" t="n">
-        <v>15.2</v>
+        <v>15.8</v>
       </c>
       <c r="E66" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="F66" t="n">
-        <v>3148.1214</v>
+        <v>4009.1138</v>
       </c>
       <c r="G66" t="n">
-        <v>15.40000000000001</v>
+        <v>-266648.0317018069</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2847,11 +2767,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2862,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C67" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D67" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E67" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F67" t="n">
-        <v>17902.1984</v>
+        <v>1505.9335</v>
       </c>
       <c r="G67" t="n">
-        <v>15.40000000000001</v>
+        <v>-265142.0982018069</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2887,11 +2803,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2902,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C68" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D68" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E68" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F68" t="n">
-        <v>80000</v>
+        <v>100740.1584</v>
       </c>
       <c r="G68" t="n">
-        <v>15.42000000000001</v>
+        <v>-365882.2566018069</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2927,11 +2839,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2942,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C69" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D69" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E69" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F69" t="n">
-        <v>371</v>
+        <v>3322.5696</v>
       </c>
       <c r="G69" t="n">
-        <v>15.44000000000001</v>
+        <v>-365882.2566018069</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2967,11 +2875,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2982,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C70" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D70" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E70" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F70" t="n">
-        <v>371</v>
+        <v>11448.1632</v>
       </c>
       <c r="G70" t="n">
-        <v>15.44000000000001</v>
+        <v>-377330.4198018069</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3007,11 +2911,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3022,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C71" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D71" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E71" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F71" t="n">
-        <v>2497.046</v>
+        <v>1168.363</v>
       </c>
       <c r="G71" t="n">
-        <v>15.50000000000001</v>
+        <v>-376162.0568018069</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3047,11 +2947,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3062,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C72" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D72" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E72" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F72" t="n">
-        <v>22934</v>
+        <v>40000</v>
       </c>
       <c r="G72" t="n">
-        <v>15.50000000000001</v>
+        <v>-416162.0568018069</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3087,11 +2983,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3111,13 +3003,13 @@
         <v>15.6</v>
       </c>
       <c r="E73" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F73" t="n">
-        <v>5803.7591</v>
+        <v>361.9551</v>
       </c>
       <c r="G73" t="n">
-        <v>15.52</v>
+        <v>-416162.0568018069</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3127,11 +3019,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3145,7 +3033,7 @@
         <v>15.5</v>
       </c>
       <c r="C74" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D74" t="n">
         <v>15.6</v>
@@ -3154,10 +3042,10 @@
         <v>15.5</v>
       </c>
       <c r="F74" t="n">
-        <v>3906.4462</v>
+        <v>70308.5833</v>
       </c>
       <c r="G74" t="n">
-        <v>15.52</v>
+        <v>-416162.0568018069</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3167,11 +3055,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3182,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C75" t="n">
         <v>15.5</v>
       </c>
       <c r="D75" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E75" t="n">
         <v>15.5</v>
       </c>
       <c r="F75" t="n">
-        <v>391.4358</v>
+        <v>2966.3114</v>
       </c>
       <c r="G75" t="n">
-        <v>15.52</v>
+        <v>-419128.3682018069</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3207,11 +3091,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3222,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C76" t="n">
         <v>15.5</v>
       </c>
       <c r="D76" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E76" t="n">
         <v>15.5</v>
       </c>
       <c r="F76" t="n">
-        <v>9072.391</v>
+        <v>2701.049</v>
       </c>
       <c r="G76" t="n">
-        <v>15.52</v>
+        <v>-419128.3682018069</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3247,11 +3127,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3274,10 +3150,10 @@
         <v>15.5</v>
       </c>
       <c r="F77" t="n">
-        <v>2442.9499</v>
+        <v>40000</v>
       </c>
       <c r="G77" t="n">
-        <v>15.52</v>
+        <v>-419128.3682018069</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3287,11 +3163,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3302,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C78" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D78" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E78" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F78" t="n">
-        <v>61792.2223</v>
+        <v>45271.1622</v>
       </c>
       <c r="G78" t="n">
-        <v>15.50000000000001</v>
+        <v>-373857.2060018069</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3327,11 +3199,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3342,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C79" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D79" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E79" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F79" t="n">
-        <v>371</v>
+        <v>2010.6947</v>
       </c>
       <c r="G79" t="n">
-        <v>15.50000000000001</v>
+        <v>-373857.2060018069</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3367,11 +3235,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3382,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C80" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D80" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E80" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F80" t="n">
-        <v>40000</v>
+        <v>1324.1345</v>
       </c>
       <c r="G80" t="n">
-        <v>15.50000000000001</v>
+        <v>-372533.0715018069</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3407,11 +3271,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3425,19 +3285,19 @@
         <v>15.6</v>
       </c>
       <c r="C81" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D81" t="n">
         <v>15.6</v>
       </c>
       <c r="E81" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F81" t="n">
-        <v>5769.4775</v>
+        <v>1836.4038</v>
       </c>
       <c r="G81" t="n">
-        <v>15.50000000000001</v>
+        <v>-374369.4753018069</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3447,11 +3307,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3462,7 +3318,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C82" t="n">
         <v>15.6</v>
@@ -3471,13 +3327,13 @@
         <v>15.6</v>
       </c>
       <c r="E82" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F82" t="n">
-        <v>40317.2564</v>
+        <v>371</v>
       </c>
       <c r="G82" t="n">
-        <v>15.52</v>
+        <v>-374369.4753018069</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3487,11 +3343,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3502,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C83" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D83" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E83" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F83" t="n">
-        <v>97500</v>
+        <v>27800</v>
       </c>
       <c r="G83" t="n">
-        <v>15.52</v>
+        <v>-374369.4753018069</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3527,11 +3379,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3542,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C84" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D84" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E84" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F84" t="n">
-        <v>5999.7746</v>
+        <v>3346.7341</v>
       </c>
       <c r="G84" t="n">
-        <v>15.52</v>
+        <v>-371022.7412018069</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3567,11 +3415,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3582,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="C85" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="D85" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="E85" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F85" t="n">
-        <v>38250</v>
+        <v>7161.1611</v>
       </c>
       <c r="G85" t="n">
-        <v>15.52</v>
+        <v>-363861.5801018069</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3607,11 +3451,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3622,38 +3462,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C86" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D86" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E86" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F86" t="n">
-        <v>3035.4508</v>
+        <v>2500</v>
       </c>
       <c r="G86" t="n">
-        <v>15.52</v>
+        <v>-366361.5801018069</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3664,38 +3498,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C87" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D87" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E87" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F87" t="n">
-        <v>4855.3271</v>
+        <v>7162.588</v>
       </c>
       <c r="G87" t="n">
-        <v>15.50000000000001</v>
+        <v>-366361.5801018069</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3706,38 +3534,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="C88" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="D88" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="E88" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="F88" t="n">
-        <v>1114</v>
+        <v>13875.7727</v>
       </c>
       <c r="G88" t="n">
-        <v>15.44000000000001</v>
+        <v>-366361.5801018069</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3748,38 +3570,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
       <c r="C89" t="n">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
       <c r="D89" t="n">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
       <c r="E89" t="n">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
       <c r="F89" t="n">
-        <v>361.7828</v>
+        <v>1846.3811</v>
       </c>
       <c r="G89" t="n">
-        <v>15.40000000000001</v>
+        <v>-366361.5801018069</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3790,38 +3606,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="C90" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D90" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="E90" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F90" t="n">
-        <v>1703.6182</v>
+        <v>554</v>
       </c>
       <c r="G90" t="n">
-        <v>15.38000000000001</v>
+        <v>-366361.5801018069</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3832,38 +3642,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="C91" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D91" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="E91" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F91" t="n">
-        <v>2636</v>
+        <v>15228.6701</v>
       </c>
       <c r="G91" t="n">
-        <v>15.36000000000001</v>
+        <v>-366361.5801018069</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3874,38 +3678,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="C92" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D92" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="E92" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F92" t="n">
-        <v>23952.4724</v>
+        <v>684.5732</v>
       </c>
       <c r="G92" t="n">
-        <v>15.34000000000001</v>
+        <v>-366361.5801018069</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3916,38 +3714,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C93" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D93" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E93" t="n">
         <v>15.5</v>
       </c>
       <c r="F93" t="n">
-        <v>60282.5015</v>
+        <v>82394.7475</v>
       </c>
       <c r="G93" t="n">
-        <v>15.40000000000001</v>
+        <v>-366361.5801018069</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3958,38 +3750,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C94" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D94" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E94" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F94" t="n">
-        <v>23892.5912</v>
+        <v>1727.5186</v>
       </c>
       <c r="G94" t="n">
-        <v>15.44000000000001</v>
+        <v>-368089.0987018069</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4000,7 +3786,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C95" t="n">
         <v>15.6</v>
@@ -4009,13 +3795,13 @@
         <v>15.6</v>
       </c>
       <c r="E95" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F95" t="n">
-        <v>14998</v>
+        <v>15450.539</v>
       </c>
       <c r="G95" t="n">
-        <v>15.48000000000001</v>
+        <v>-368089.0987018069</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4025,11 +3811,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4040,7 +3822,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C96" t="n">
         <v>15.6</v>
@@ -4049,13 +3831,13 @@
         <v>15.6</v>
       </c>
       <c r="E96" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F96" t="n">
-        <v>7500</v>
+        <v>450158.4721</v>
       </c>
       <c r="G96" t="n">
-        <v>15.52</v>
+        <v>-368089.0987018069</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4065,11 +3847,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4080,38 +3858,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="C97" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D97" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E97" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="F97" t="n">
-        <v>1685.7867</v>
+        <v>24096.2085</v>
       </c>
       <c r="G97" t="n">
-        <v>15.5</v>
+        <v>-368089.0987018069</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4134,26 +3906,20 @@
         <v>15.5</v>
       </c>
       <c r="F98" t="n">
-        <v>31.5554</v>
+        <v>75412.91190000001</v>
       </c>
       <c r="G98" t="n">
-        <v>15.52</v>
+        <v>-368089.0987018069</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4167,35 +3933,29 @@
         <v>15.6</v>
       </c>
       <c r="C99" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D99" t="n">
         <v>15.6</v>
       </c>
       <c r="E99" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F99" t="n">
-        <v>536.1634</v>
+        <v>29335</v>
       </c>
       <c r="G99" t="n">
-        <v>15.5</v>
+        <v>-368089.0987018069</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4209,35 +3969,29 @@
         <v>15.6</v>
       </c>
       <c r="C100" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D100" t="n">
         <v>15.6</v>
       </c>
       <c r="E100" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F100" t="n">
-        <v>923.4294</v>
+        <v>4871</v>
       </c>
       <c r="G100" t="n">
-        <v>15.48</v>
+        <v>-368089.0987018069</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4260,26 +4014,20 @@
         <v>15.6</v>
       </c>
       <c r="F101" t="n">
-        <v>13.4102</v>
+        <v>19400</v>
       </c>
       <c r="G101" t="n">
-        <v>15.48</v>
+        <v>-368089.0987018069</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4290,38 +4038,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C102" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D102" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E102" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="F102" t="n">
-        <v>27560.59</v>
+        <v>22033.8027</v>
       </c>
       <c r="G102" t="n">
-        <v>15.48</v>
+        <v>-368089.0987018069</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4332,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C103" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D103" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E103" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F103" t="n">
-        <v>12.1483</v>
+        <v>1885.7961</v>
       </c>
       <c r="G103" t="n">
-        <v>15.46</v>
+        <v>-366203.3026018069</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4357,11 +4099,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4372,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C104" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D104" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E104" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F104" t="n">
-        <v>168</v>
+        <v>4393.8226</v>
       </c>
       <c r="G104" t="n">
-        <v>15.46</v>
+        <v>-370597.1252018069</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4397,11 +4135,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4412,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C105" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D105" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E105" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F105" t="n">
-        <v>153.2142</v>
+        <v>32409.5475</v>
       </c>
       <c r="G105" t="n">
-        <v>15.44000000000001</v>
+        <v>-403006.6727018069</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4437,11 +4171,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4452,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C106" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="D106" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E106" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F106" t="n">
-        <v>1727.8674</v>
+        <v>20902.4951</v>
       </c>
       <c r="G106" t="n">
-        <v>15.38000000000001</v>
+        <v>-403006.6727018069</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4477,11 +4207,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4492,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C107" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D107" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E107" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F107" t="n">
-        <v>113</v>
+        <v>97696.1376</v>
       </c>
       <c r="G107" t="n">
-        <v>15.40000000000001</v>
+        <v>-305310.5351018069</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4517,11 +4243,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4532,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C108" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D108" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E108" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F108" t="n">
-        <v>23.935</v>
+        <v>13600</v>
       </c>
       <c r="G108" t="n">
-        <v>15.38000000000001</v>
+        <v>-318910.5351018069</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4557,11 +4279,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4572,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C109" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D109" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E109" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F109" t="n">
-        <v>7481.25</v>
+        <v>136338.9918</v>
       </c>
       <c r="G109" t="n">
-        <v>15.38000000000001</v>
+        <v>-318910.5351018069</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4597,11 +4315,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4612,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C110" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D110" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E110" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F110" t="n">
-        <v>1000</v>
+        <v>40000</v>
       </c>
       <c r="G110" t="n">
-        <v>15.40000000000001</v>
+        <v>-278910.5351018069</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4637,11 +4351,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4655,19 +4365,19 @@
         <v>15.6</v>
       </c>
       <c r="C111" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D111" t="n">
         <v>15.6</v>
       </c>
       <c r="E111" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F111" t="n">
-        <v>1000</v>
+        <v>228005</v>
       </c>
       <c r="G111" t="n">
-        <v>15.46000000000001</v>
+        <v>-506915.5351018069</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4677,11 +4387,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4692,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C112" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D112" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E112" t="n">
         <v>15.4</v>
       </c>
       <c r="F112" t="n">
-        <v>9757.628199999999</v>
+        <v>98507.48235483871</v>
       </c>
       <c r="G112" t="n">
-        <v>15.46000000000001</v>
+        <v>-506915.5351018069</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4717,11 +4423,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4732,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C113" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D113" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E113" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F113" t="n">
-        <v>10.8589</v>
+        <v>31811.8554</v>
       </c>
       <c r="G113" t="n">
-        <v>15.50000000000001</v>
+        <v>-538727.390501807</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4757,11 +4459,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4784,10 +4482,10 @@
         <v>15.4</v>
       </c>
       <c r="F114" t="n">
-        <v>19600</v>
+        <v>2354.0332</v>
       </c>
       <c r="G114" t="n">
-        <v>15.50000000000001</v>
+        <v>-538727.390501807</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4797,11 +4495,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4824,10 +4518,10 @@
         <v>15.4</v>
       </c>
       <c r="F115" t="n">
-        <v>2551.8296</v>
+        <v>188</v>
       </c>
       <c r="G115" t="n">
-        <v>15.48000000000001</v>
+        <v>-538727.390501807</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4837,11 +4531,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4855,19 +4545,19 @@
         <v>15.4</v>
       </c>
       <c r="C116" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D116" t="n">
         <v>15.4</v>
       </c>
       <c r="E116" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="F116" t="n">
-        <v>10000</v>
+        <v>6137.3096</v>
       </c>
       <c r="G116" t="n">
-        <v>15.44000000000001</v>
+        <v>-544864.700101807</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4877,11 +4567,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4892,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="C117" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D117" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E117" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="F117" t="n">
-        <v>118877.5405</v>
+        <v>2782.6878</v>
       </c>
       <c r="G117" t="n">
-        <v>15.44000000000001</v>
+        <v>-547647.387901807</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4917,11 +4603,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4932,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="C118" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="D118" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="E118" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="F118" t="n">
-        <v>4660.8387</v>
+        <v>15336.1399</v>
       </c>
       <c r="G118" t="n">
-        <v>15.42000000000001</v>
+        <v>-532311.248001807</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4957,11 +4639,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4972,38 +4650,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="C119" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D119" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E119" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="F119" t="n">
-        <v>2118.4398</v>
+        <v>60570.2368</v>
       </c>
       <c r="G119" t="n">
-        <v>15.42000000000001</v>
+        <v>-532311.248001807</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5014,38 +4686,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="C120" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D120" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="E120" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="F120" t="n">
-        <v>65471.5341</v>
+        <v>13937.5227</v>
       </c>
       <c r="G120" t="n">
-        <v>15.42000000000001</v>
+        <v>-546248.770701807</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5056,38 +4722,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="C121" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D121" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="E121" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="F121" t="n">
-        <v>39370.4211</v>
+        <v>10970.5955</v>
       </c>
       <c r="G121" t="n">
-        <v>15.40000000000001</v>
+        <v>-546248.770701807</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5098,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="C122" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="D122" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="E122" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="F122" t="n">
-        <v>186.6688</v>
+        <v>7297.66</v>
       </c>
       <c r="G122" t="n">
-        <v>15.42000000000001</v>
+        <v>-546248.770701807</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -5122,12 +4782,12 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -5140,22 +4800,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="C123" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="D123" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="E123" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="F123" t="n">
-        <v>11757.7177</v>
+        <v>13500</v>
       </c>
       <c r="G123" t="n">
-        <v>15.42000000000001</v>
+        <v>-546248.770701807</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -5164,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
@@ -5182,22 +4842,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="C124" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="D124" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="E124" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="F124" t="n">
-        <v>59206.2574</v>
+        <v>6019</v>
       </c>
       <c r="G124" t="n">
-        <v>15.46</v>
+        <v>-546248.770701807</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -5206,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
@@ -5224,22 +4884,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="C125" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="D125" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="E125" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="F125" t="n">
-        <v>2434.308</v>
+        <v>9498.406199999999</v>
       </c>
       <c r="G125" t="n">
-        <v>15.48</v>
+        <v>-536750.364501807</v>
       </c>
       <c r="H125" t="n">
         <v>1</v>
@@ -5248,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
@@ -5266,22 +4926,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>15.7</v>
+        <v>15.1</v>
       </c>
       <c r="C126" t="n">
-        <v>15.9</v>
+        <v>15.1</v>
       </c>
       <c r="D126" t="n">
-        <v>15.9</v>
+        <v>15.1</v>
       </c>
       <c r="E126" t="n">
-        <v>15.7</v>
+        <v>15.1</v>
       </c>
       <c r="F126" t="n">
-        <v>7500</v>
+        <v>110</v>
       </c>
       <c r="G126" t="n">
-        <v>15.6</v>
+        <v>-536860.364501807</v>
       </c>
       <c r="H126" t="n">
         <v>1</v>
@@ -5290,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
@@ -5308,30 +4968,32 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="C127" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="D127" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="E127" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="F127" t="n">
-        <v>1941.2084</v>
+        <v>395.2303</v>
       </c>
       <c r="G127" t="n">
-        <v>15.62</v>
+        <v>-536465.134201807</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
@@ -5348,30 +5010,32 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="C128" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="D128" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="E128" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="F128" t="n">
-        <v>13.8281</v>
+        <v>136</v>
       </c>
       <c r="G128" t="n">
-        <v>15.70000000000001</v>
+        <v>-536465.134201807</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>15.3</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -5388,30 +5052,32 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="C129" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D129" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E129" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F129" t="n">
-        <v>65508.0179</v>
+        <v>648.8707000000001</v>
       </c>
       <c r="G129" t="n">
-        <v>15.68000000000001</v>
+        <v>-535816.263501807</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>15.3</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
@@ -5428,30 +5094,32 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C130" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D130" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E130" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F130" t="n">
-        <v>3610</v>
+        <v>293.0261</v>
       </c>
       <c r="G130" t="n">
-        <v>15.70000000000001</v>
+        <v>-535816.263501807</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>15.4</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -5480,18 +5148,20 @@
         <v>15.5</v>
       </c>
       <c r="F131" t="n">
-        <v>13948.7182</v>
+        <v>962.742</v>
       </c>
       <c r="G131" t="n">
-        <v>15.62</v>
+        <v>-534853.521501807</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>15.4</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -5508,30 +5178,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C132" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D132" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E132" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F132" t="n">
-        <v>7552.9568</v>
+        <v>33297.465</v>
       </c>
       <c r="G132" t="n">
-        <v>15.62</v>
+        <v>-568150.986501807</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>15.5</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -5551,19 +5223,19 @@
         <v>15.6</v>
       </c>
       <c r="C133" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D133" t="n">
         <v>15.6</v>
       </c>
       <c r="E133" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F133" t="n">
-        <v>950.8141000000001</v>
+        <v>39520</v>
       </c>
       <c r="G133" t="n">
-        <v>15.56</v>
+        <v>-528630.986501807</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5588,22 +5260,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C134" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D134" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E134" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F134" t="n">
-        <v>855.7307</v>
+        <v>962.742</v>
       </c>
       <c r="G134" t="n">
-        <v>15.58</v>
+        <v>-529593.728501807</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5628,22 +5300,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C135" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D135" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E135" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F135" t="n">
-        <v>9544.2526</v>
+        <v>17032</v>
       </c>
       <c r="G135" t="n">
-        <v>15.58</v>
+        <v>-529593.728501807</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5668,22 +5340,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C136" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D136" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E136" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="F136" t="n">
-        <v>24705.1077</v>
+        <v>34276.0261</v>
       </c>
       <c r="G136" t="n">
-        <v>15.6</v>
+        <v>-495317.7024018069</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5708,22 +5380,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="C137" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="D137" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="E137" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="F137" t="n">
-        <v>20400</v>
+        <v>3148.1214</v>
       </c>
       <c r="G137" t="n">
-        <v>15.62</v>
+        <v>-498465.823801807</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5748,32 +5420,30 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C138" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="D138" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="E138" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F138" t="n">
-        <v>49800</v>
+        <v>17902.1984</v>
       </c>
       <c r="G138" t="n">
-        <v>15.66</v>
+        <v>-480563.625401807</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>15.7</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5790,32 +5460,30 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C139" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D139" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="E139" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F139" t="n">
-        <v>20000</v>
+        <v>80000</v>
       </c>
       <c r="G139" t="n">
-        <v>15.74</v>
+        <v>-480563.625401807</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -5832,22 +5500,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C140" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="D140" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="E140" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F140" t="n">
-        <v>1750.5795</v>
+        <v>371</v>
       </c>
       <c r="G140" t="n">
-        <v>15.78</v>
+        <v>-480563.625401807</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5872,32 +5540,30 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C141" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D141" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="E141" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F141" t="n">
-        <v>6831.5481</v>
+        <v>371</v>
       </c>
       <c r="G141" t="n">
-        <v>15.86</v>
+        <v>-480563.625401807</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>15.8</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5914,22 +5580,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C142" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="D142" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="E142" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="F142" t="n">
-        <v>28200</v>
+        <v>2497.046</v>
       </c>
       <c r="G142" t="n">
-        <v>15.96</v>
+        <v>-480563.625401807</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5954,22 +5620,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="C143" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="D143" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="E143" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="F143" t="n">
-        <v>93284.349</v>
+        <v>22934</v>
       </c>
       <c r="G143" t="n">
-        <v>16.08000000000001</v>
+        <v>-480563.625401807</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5994,22 +5660,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>16.4</v>
+        <v>15.6</v>
       </c>
       <c r="C144" t="n">
-        <v>16.4</v>
+        <v>15.6</v>
       </c>
       <c r="D144" t="n">
-        <v>16.4</v>
+        <v>15.6</v>
       </c>
       <c r="E144" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="F144" t="n">
-        <v>22855.9756</v>
+        <v>5803.7591</v>
       </c>
       <c r="G144" t="n">
-        <v>16.16</v>
+        <v>-474759.8663018069</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6034,22 +5700,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="C145" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="D145" t="n">
-        <v>16.4</v>
+        <v>15.6</v>
       </c>
       <c r="E145" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="F145" t="n">
-        <v>180260.7595</v>
+        <v>3906.4462</v>
       </c>
       <c r="G145" t="n">
-        <v>16.28</v>
+        <v>-478666.3125018069</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6074,22 +5740,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>16.4</v>
+        <v>15.6</v>
       </c>
       <c r="C146" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="D146" t="n">
-        <v>16.4</v>
+        <v>15.6</v>
       </c>
       <c r="E146" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="F146" t="n">
-        <v>10</v>
+        <v>391.4358</v>
       </c>
       <c r="G146" t="n">
-        <v>16.36</v>
+        <v>-478666.3125018069</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6114,22 +5780,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>16.5</v>
+        <v>15.6</v>
       </c>
       <c r="C147" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="D147" t="n">
-        <v>16.5</v>
+        <v>15.6</v>
       </c>
       <c r="E147" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="F147" t="n">
-        <v>261691.6446</v>
+        <v>9072.391</v>
       </c>
       <c r="G147" t="n">
-        <v>16.42</v>
+        <v>-478666.3125018069</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6154,22 +5820,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="C148" t="n">
-        <v>16.3</v>
+        <v>15.5</v>
       </c>
       <c r="D148" t="n">
-        <v>16.6</v>
+        <v>15.5</v>
       </c>
       <c r="E148" t="n">
-        <v>16.3</v>
+        <v>15.5</v>
       </c>
       <c r="F148" t="n">
-        <v>160622.8486</v>
+        <v>2442.9499</v>
       </c>
       <c r="G148" t="n">
-        <v>16.4</v>
+        <v>-478666.3125018069</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6194,22 +5860,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>16.6</v>
+        <v>15.5</v>
       </c>
       <c r="C149" t="n">
-        <v>16.6</v>
+        <v>15.5</v>
       </c>
       <c r="D149" t="n">
-        <v>16.6</v>
+        <v>15.5</v>
       </c>
       <c r="E149" t="n">
-        <v>16.6</v>
+        <v>15.5</v>
       </c>
       <c r="F149" t="n">
-        <v>10</v>
+        <v>61792.2223</v>
       </c>
       <c r="G149" t="n">
-        <v>16.44</v>
+        <v>-478666.3125018069</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6234,22 +5900,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="C150" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="D150" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="E150" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="F150" t="n">
-        <v>13771</v>
+        <v>371</v>
       </c>
       <c r="G150" t="n">
-        <v>16.44</v>
+        <v>-478666.3125018069</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6274,22 +5940,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>16.3</v>
+        <v>15.5</v>
       </c>
       <c r="C151" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="D151" t="n">
-        <v>16.3</v>
+        <v>15.5</v>
       </c>
       <c r="E151" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="F151" t="n">
-        <v>65211.0116</v>
+        <v>40000</v>
       </c>
       <c r="G151" t="n">
-        <v>16.4</v>
+        <v>-478666.3125018069</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6314,22 +5980,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>16.3</v>
+        <v>15.6</v>
       </c>
       <c r="C152" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D152" t="n">
-        <v>16.3</v>
+        <v>15.6</v>
       </c>
       <c r="E152" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="F152" t="n">
-        <v>37600</v>
+        <v>5769.4775</v>
       </c>
       <c r="G152" t="n">
-        <v>16.32</v>
+        <v>-478666.3125018069</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6354,22 +6020,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C153" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D153" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E153" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F153" t="n">
-        <v>23000</v>
+        <v>40317.2564</v>
       </c>
       <c r="G153" t="n">
-        <v>16.26</v>
+        <v>-438349.0561018069</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6394,22 +6060,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C154" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D154" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="E154" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F154" t="n">
-        <v>13771</v>
+        <v>97500</v>
       </c>
       <c r="G154" t="n">
-        <v>16.14</v>
+        <v>-535849.0561018069</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6434,22 +6100,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C155" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D155" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E155" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F155" t="n">
-        <v>4360.9552</v>
+        <v>5999.7746</v>
       </c>
       <c r="G155" t="n">
-        <v>16.06</v>
+        <v>-535849.0561018069</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6474,22 +6140,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C156" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D156" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E156" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F156" t="n">
-        <v>15000</v>
+        <v>38250</v>
       </c>
       <c r="G156" t="n">
-        <v>16.02</v>
+        <v>-535849.0561018069</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6514,22 +6180,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="C157" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D157" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="E157" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F157" t="n">
-        <v>18570.0319</v>
+        <v>3035.4508</v>
       </c>
       <c r="G157" t="n">
-        <v>15.98</v>
+        <v>-535849.0561018069</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6554,22 +6220,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C158" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D158" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="E158" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F158" t="n">
-        <v>25000</v>
+        <v>4855.3271</v>
       </c>
       <c r="G158" t="n">
-        <v>15.98</v>
+        <v>-535849.0561018069</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6594,22 +6260,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="C159" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="D159" t="n">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="E159" t="n">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="F159" t="n">
-        <v>48504.9459</v>
+        <v>1114</v>
       </c>
       <c r="G159" t="n">
-        <v>16.02</v>
+        <v>-536963.0561018069</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6634,22 +6300,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="C160" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="D160" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="E160" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="F160" t="n">
-        <v>6972.0683</v>
+        <v>361.7828</v>
       </c>
       <c r="G160" t="n">
-        <v>16.04</v>
+        <v>-536601.2733018069</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6674,22 +6340,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C161" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="D161" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="E161" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="F161" t="n">
-        <v>6288.675</v>
+        <v>1703.6182</v>
       </c>
       <c r="G161" t="n">
-        <v>16.08</v>
+        <v>-534897.6551018069</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6714,22 +6380,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C162" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="D162" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="E162" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="F162" t="n">
-        <v>19492.246</v>
+        <v>2636</v>
       </c>
       <c r="G162" t="n">
-        <v>16.1</v>
+        <v>-534897.6551018069</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6754,30 +6420,32 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="C163" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="D163" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="E163" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="F163" t="n">
-        <v>4811.6979</v>
+        <v>23952.4724</v>
       </c>
       <c r="G163" t="n">
-        <v>16.08</v>
+        <v>-534897.6551018069</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>15.4</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6794,30 +6462,32 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C164" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D164" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E164" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F164" t="n">
-        <v>2274.8049</v>
+        <v>60282.5015</v>
       </c>
       <c r="G164" t="n">
-        <v>16.02</v>
+        <v>-474615.1536018068</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>15.4</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6834,22 +6504,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C165" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D165" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E165" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F165" t="n">
-        <v>706.9748</v>
+        <v>23892.5912</v>
       </c>
       <c r="G165" t="n">
-        <v>15.98</v>
+        <v>-474615.1536018068</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6874,30 +6544,32 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C166" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D166" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E166" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F166" t="n">
-        <v>94030.9307</v>
+        <v>14998</v>
       </c>
       <c r="G166" t="n">
-        <v>15.94</v>
+        <v>-459617.1536018068</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>15.5</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6914,22 +6586,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C167" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D167" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E167" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F167" t="n">
-        <v>756</v>
+        <v>7500</v>
       </c>
       <c r="G167" t="n">
-        <v>15.94</v>
+        <v>-459617.1536018068</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6954,22 +6626,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="C168" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="D168" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="E168" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="F168" t="n">
-        <v>826.5204</v>
+        <v>1685.7867</v>
       </c>
       <c r="G168" t="n">
-        <v>15.96</v>
+        <v>-461302.9403018068</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6994,30 +6666,32 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C169" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D169" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E169" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="F169" t="n">
-        <v>29260.7844</v>
+        <v>31.5554</v>
       </c>
       <c r="G169" t="n">
-        <v>16</v>
+        <v>-461271.3849018068</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>15.3</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -7034,22 +6708,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C170" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="D170" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E170" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="F170" t="n">
-        <v>5000</v>
+        <v>536.1634</v>
       </c>
       <c r="G170" t="n">
-        <v>16.04</v>
+        <v>-461807.5483018068</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7074,30 +6748,32 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C171" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D171" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E171" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="F171" t="n">
-        <v>1822.6104</v>
+        <v>923.4294</v>
       </c>
       <c r="G171" t="n">
-        <v>16.04</v>
+        <v>-460884.1189018068</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>15.4</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
@@ -7114,30 +6790,32 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C172" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D172" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E172" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="F172" t="n">
-        <v>23239.6929</v>
+        <v>13.4102</v>
       </c>
       <c r="G172" t="n">
-        <v>16.06</v>
+        <v>-460870.7087018068</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>15.5</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -7154,30 +6832,32 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C173" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="D173" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E173" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="F173" t="n">
-        <v>45171.4796</v>
+        <v>27560.59</v>
       </c>
       <c r="G173" t="n">
-        <v>16.06</v>
+        <v>-488431.2987018069</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>15.6</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -7194,30 +6874,32 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C174" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D174" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E174" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="F174" t="n">
-        <v>371</v>
+        <v>12.1483</v>
       </c>
       <c r="G174" t="n">
-        <v>16.06</v>
+        <v>-488419.1504018069</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>15.3</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
@@ -7234,30 +6916,32 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C175" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="D175" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="E175" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="F175" t="n">
-        <v>1862.0434</v>
+        <v>168</v>
       </c>
       <c r="G175" t="n">
-        <v>16.06</v>
+        <v>-488587.1504018069</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>15.5</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
@@ -7274,30 +6958,32 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="C176" t="n">
-        <v>16.3</v>
+        <v>15.4</v>
       </c>
       <c r="D176" t="n">
-        <v>16.3</v>
+        <v>15.4</v>
       </c>
       <c r="E176" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="F176" t="n">
-        <v>46818.48981226994</v>
+        <v>153.2142</v>
       </c>
       <c r="G176" t="n">
-        <v>16.12</v>
+        <v>-488587.1504018069</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>15.4</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
@@ -7314,30 +7000,32 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>16.3</v>
+        <v>15.3</v>
       </c>
       <c r="C177" t="n">
-        <v>16.3</v>
+        <v>15.3</v>
       </c>
       <c r="D177" t="n">
-        <v>16.3</v>
+        <v>15.3</v>
       </c>
       <c r="E177" t="n">
-        <v>16.3</v>
+        <v>15.3</v>
       </c>
       <c r="F177" t="n">
-        <v>184.049</v>
+        <v>1727.8674</v>
       </c>
       <c r="G177" t="n">
-        <v>16.16</v>
+        <v>-490315.0178018069</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>15.4</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -7354,30 +7042,32 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C178" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="D178" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="E178" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="F178" t="n">
-        <v>2338.2057</v>
+        <v>113</v>
       </c>
       <c r="G178" t="n">
-        <v>16.18</v>
+        <v>-490202.0178018069</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>15.3</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
@@ -7394,37 +7084,39 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="C179" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="D179" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="E179" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="F179" t="n">
-        <v>951.9813</v>
+        <v>23.935</v>
       </c>
       <c r="G179" t="n">
-        <v>16.16</v>
+        <v>-490202.0178018069</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
       <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
@@ -7432,22 +7124,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C180" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="D180" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="E180" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="F180" t="n">
-        <v>8051.5776</v>
+        <v>7481.25</v>
       </c>
       <c r="G180" t="n">
-        <v>16.16</v>
+        <v>-490202.0178018069</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7457,7 +7149,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7468,22 +7164,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C181" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D181" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="E181" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F181" t="n">
-        <v>38649.866</v>
+        <v>1000</v>
       </c>
       <c r="G181" t="n">
-        <v>16.1</v>
+        <v>-489202.0178018069</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7493,7 +7189,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7504,22 +7204,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C182" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D182" t="n">
-        <v>16.2</v>
+        <v>15.6</v>
       </c>
       <c r="E182" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F182" t="n">
-        <v>107631.0431753086</v>
+        <v>1000</v>
       </c>
       <c r="G182" t="n">
-        <v>16.04</v>
+        <v>-488202.0178018069</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7529,7 +7229,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7540,22 +7244,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C183" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="D183" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E183" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="F183" t="n">
-        <v>2196.0426</v>
+        <v>9757.628199999999</v>
       </c>
       <c r="G183" t="n">
-        <v>16.04</v>
+        <v>-497959.6460018068</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7565,7 +7269,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7576,22 +7284,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C184" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D184" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E184" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="F184" t="n">
-        <v>1295</v>
+        <v>10.8589</v>
       </c>
       <c r="G184" t="n">
-        <v>16.06</v>
+        <v>-497948.7871018068</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7601,7 +7309,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7612,32 +7324,36 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C185" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="D185" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="E185" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="F185" t="n">
-        <v>27500</v>
+        <v>19600</v>
       </c>
       <c r="G185" t="n">
-        <v>16.04</v>
+        <v>-517548.7871018068</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7648,32 +7364,36 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C186" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="D186" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="E186" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="F186" t="n">
-        <v>14974.6927</v>
+        <v>2551.8296</v>
       </c>
       <c r="G186" t="n">
-        <v>16.04</v>
+        <v>-517548.7871018068</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7684,32 +7404,36 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C187" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="D187" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="E187" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="F187" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G187" t="n">
-        <v>16.04</v>
+        <v>-517548.7871018068</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7720,32 +7444,36 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="C188" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="D188" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="E188" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="F188" t="n">
-        <v>50000</v>
+        <v>118877.5405</v>
       </c>
       <c r="G188" t="n">
-        <v>16.06</v>
+        <v>-517548.7871018068</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7756,32 +7484,36 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="C189" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="D189" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="E189" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="F189" t="n">
-        <v>4538.6278</v>
+        <v>4660.8387</v>
       </c>
       <c r="G189" t="n">
-        <v>16.07999999999999</v>
+        <v>-512887.9484018068</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7792,32 +7524,36 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="C190" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="D190" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="E190" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="F190" t="n">
-        <v>2170</v>
+        <v>2118.4398</v>
       </c>
       <c r="G190" t="n">
-        <v>16.12</v>
+        <v>-515006.3882018068</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7828,32 +7564,36 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="C191" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="D191" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="E191" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="F191" t="n">
-        <v>54915</v>
+        <v>65471.5341</v>
       </c>
       <c r="G191" t="n">
-        <v>16.14</v>
+        <v>-515006.3882018068</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7864,32 +7604,36 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C192" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="D192" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="E192" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="F192" t="n">
-        <v>47455.4628</v>
+        <v>39370.4211</v>
       </c>
       <c r="G192" t="n">
-        <v>16.16</v>
+        <v>-554376.8093018068</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7900,32 +7644,36 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="C193" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="D193" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="E193" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="F193" t="n">
-        <v>7372</v>
+        <v>186.6688</v>
       </c>
       <c r="G193" t="n">
-        <v>16.2</v>
+        <v>-554190.1405018069</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7936,32 +7684,36 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="C194" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="D194" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="E194" t="n">
-        <v>16.4</v>
+        <v>15.5</v>
       </c>
       <c r="F194" t="n">
-        <v>153535.7889</v>
+        <v>11757.7177</v>
       </c>
       <c r="G194" t="n">
-        <v>16.23999999999999</v>
+        <v>-554190.1405018069</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7972,36 +7724,2694 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>16.4</v>
+        <v>15.6</v>
       </c>
       <c r="C195" t="n">
-        <v>16.4</v>
+        <v>15.6</v>
       </c>
       <c r="D195" t="n">
-        <v>16.4</v>
+        <v>15.6</v>
       </c>
       <c r="E195" t="n">
-        <v>16.4</v>
+        <v>15.6</v>
       </c>
       <c r="F195" t="n">
-        <v>43781.699</v>
+        <v>59206.2574</v>
       </c>
       <c r="G195" t="n">
-        <v>16.27999999999999</v>
+        <v>-494983.8831018069</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
       <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C196" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D196" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E196" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2434.308</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-497418.1911018069</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C197" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D197" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E197" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F197" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-489918.1911018069</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C198" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E198" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1941.2084</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-491859.3995018069</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C199" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E199" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F199" t="n">
+        <v>13.8281</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-491845.5714018069</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C200" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D200" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E200" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F200" t="n">
+        <v>65508.0179</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-557353.5893018069</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C201" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D201" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E201" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3610</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-553743.5893018069</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C202" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E202" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>13948.7182</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-567692.3075018069</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C203" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D203" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E203" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F203" t="n">
+        <v>7552.9568</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-560139.3507018068</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C204" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D204" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E204" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F204" t="n">
+        <v>950.8141000000001</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-560139.3507018068</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C205" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D205" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E205" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F205" t="n">
+        <v>855.7307</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-560139.3507018068</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C206" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D206" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E206" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F206" t="n">
+        <v>9544.2526</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-560139.3507018068</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C207" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E207" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F207" t="n">
+        <v>24705.1077</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-560139.3507018068</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C208" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D208" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E208" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F208" t="n">
+        <v>20400</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-539739.3507018068</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C209" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D209" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E209" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F209" t="n">
+        <v>49800</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-489939.3507018068</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C210" t="n">
+        <v>16</v>
+      </c>
+      <c r="D210" t="n">
+        <v>16</v>
+      </c>
+      <c r="E210" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F210" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-469939.3507018068</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C211" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D211" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E211" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1750.5795</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-471689.9302018068</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>16</v>
+      </c>
+      <c r="C212" t="n">
+        <v>16</v>
+      </c>
+      <c r="D212" t="n">
+        <v>16</v>
+      </c>
+      <c r="E212" t="n">
+        <v>16</v>
+      </c>
+      <c r="F212" t="n">
+        <v>6831.5481</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-464858.3821018068</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D213" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E213" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F213" t="n">
+        <v>28200</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-436658.3821018068</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C214" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D214" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E214" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F214" t="n">
+        <v>93284.349</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-343374.0331018068</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C215" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D215" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E215" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F215" t="n">
+        <v>22855.9756</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-343374.0331018068</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C216" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D216" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E216" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F216" t="n">
+        <v>180260.7595</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-343374.0331018068</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C217" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D217" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E217" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F217" t="n">
+        <v>10</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-343374.0331018068</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C218" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D218" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E218" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F218" t="n">
+        <v>261691.6446</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-81682.38850180682</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C219" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D219" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E219" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F219" t="n">
+        <v>160622.8486</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-242305.2371018068</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C220" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D220" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E220" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F220" t="n">
+        <v>10</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-242295.2371018068</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C221" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D221" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E221" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F221" t="n">
+        <v>13771</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-256066.2371018068</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C222" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E222" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>65211.0116</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-321277.2487018068</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C223" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E223" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>37600</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-358877.2487018068</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>16</v>
+      </c>
+      <c r="C224" t="n">
+        <v>16</v>
+      </c>
+      <c r="D224" t="n">
+        <v>16</v>
+      </c>
+      <c r="E224" t="n">
+        <v>16</v>
+      </c>
+      <c r="F224" t="n">
+        <v>23000</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-381877.2487018068</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>16</v>
+      </c>
+      <c r="C225" t="n">
+        <v>16</v>
+      </c>
+      <c r="D225" t="n">
+        <v>16</v>
+      </c>
+      <c r="E225" t="n">
+        <v>16</v>
+      </c>
+      <c r="F225" t="n">
+        <v>13771</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-381877.2487018068</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>16</v>
+      </c>
+      <c r="C226" t="n">
+        <v>16</v>
+      </c>
+      <c r="D226" t="n">
+        <v>16</v>
+      </c>
+      <c r="E226" t="n">
+        <v>16</v>
+      </c>
+      <c r="F226" t="n">
+        <v>4360.9552</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-381877.2487018068</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>16</v>
+      </c>
+      <c r="C227" t="n">
+        <v>16</v>
+      </c>
+      <c r="D227" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E227" t="n">
+        <v>16</v>
+      </c>
+      <c r="F227" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-381877.2487018068</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C228" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D228" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E228" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F228" t="n">
+        <v>18570.0319</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-400447.2806018068</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>16</v>
+      </c>
+      <c r="C229" t="n">
+        <v>16</v>
+      </c>
+      <c r="D229" t="n">
+        <v>16</v>
+      </c>
+      <c r="E229" t="n">
+        <v>16</v>
+      </c>
+      <c r="F229" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-375447.2806018068</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D230" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E230" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F230" t="n">
+        <v>48504.9459</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-326942.3347018068</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C231" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D231" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>6972.0683</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-333914.4030018068</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C232" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D232" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E232" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F232" t="n">
+        <v>6288.675</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-327625.7280018068</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C233" t="n">
+        <v>16</v>
+      </c>
+      <c r="D233" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E233" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F233" t="n">
+        <v>19492.246</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-347117.9740018068</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C234" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D234" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E234" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F234" t="n">
+        <v>4811.6979</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-351929.6719018068</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C235" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D235" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E235" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2274.8049</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-351929.6719018068</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C236" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D236" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E236" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F236" t="n">
+        <v>706.9748</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-351929.6719018068</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C237" t="n">
+        <v>16</v>
+      </c>
+      <c r="D237" t="n">
+        <v>16</v>
+      </c>
+      <c r="E237" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F237" t="n">
+        <v>94030.9307</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-257898.7412018068</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>16</v>
+      </c>
+      <c r="C238" t="n">
+        <v>16</v>
+      </c>
+      <c r="D238" t="n">
+        <v>16</v>
+      </c>
+      <c r="E238" t="n">
+        <v>16</v>
+      </c>
+      <c r="F238" t="n">
+        <v>756</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-257898.7412018068</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>16</v>
+      </c>
+      <c r="C239" t="n">
+        <v>16</v>
+      </c>
+      <c r="D239" t="n">
+        <v>16</v>
+      </c>
+      <c r="E239" t="n">
+        <v>16</v>
+      </c>
+      <c r="F239" t="n">
+        <v>826.5204</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-257898.7412018068</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C240" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D240" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E240" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F240" t="n">
+        <v>29260.7844</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-228637.9568018068</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E241" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-228637.9568018068</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>16</v>
+      </c>
+      <c r="C242" t="n">
+        <v>16</v>
+      </c>
+      <c r="D242" t="n">
+        <v>16</v>
+      </c>
+      <c r="E242" t="n">
+        <v>16</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1822.6104</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-230460.5672018068</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E243" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>23239.6929</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-207220.8743018068</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>16</v>
+      </c>
+      <c r="D244" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E244" t="n">
+        <v>16</v>
+      </c>
+      <c r="F244" t="n">
+        <v>45171.4796</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-252392.3539018068</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E245" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>371</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-252021.3539018068</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E246" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1862.0434</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-252021.3539018068</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C247" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D247" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E247" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F247" t="n">
+        <v>46818.48981226994</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-205202.8640895369</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C248" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D248" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E248" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F248" t="n">
+        <v>184.049</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-205202.8640895369</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C249" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D249" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E249" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2338.2057</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-207541.0697895369</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>16</v>
+      </c>
+      <c r="C250" t="n">
+        <v>16</v>
+      </c>
+      <c r="D250" t="n">
+        <v>16</v>
+      </c>
+      <c r="E250" t="n">
+        <v>16</v>
+      </c>
+      <c r="F250" t="n">
+        <v>951.9813</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-208493.0510895369</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C251" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D251" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E251" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F251" t="n">
+        <v>8051.5776</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-200441.4734895369</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>16</v>
+      </c>
+      <c r="C252" t="n">
+        <v>16</v>
+      </c>
+      <c r="D252" t="n">
+        <v>16</v>
+      </c>
+      <c r="E252" t="n">
+        <v>16</v>
+      </c>
+      <c r="F252" t="n">
+        <v>38649.866</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-239091.3394895369</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C253" t="n">
+        <v>16</v>
+      </c>
+      <c r="D253" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E253" t="n">
+        <v>16</v>
+      </c>
+      <c r="F253" t="n">
+        <v>107631.0431753086</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-239091.3394895369</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C254" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D254" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E254" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2196.0426</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-236895.2968895369</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C255" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D255" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E255" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1295</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-236895.2968895369</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C256" t="n">
+        <v>16</v>
+      </c>
+      <c r="D256" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E256" t="n">
+        <v>16</v>
+      </c>
+      <c r="F256" t="n">
+        <v>27500</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-264395.2968895369</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C257" t="n">
+        <v>16</v>
+      </c>
+      <c r="D257" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E257" t="n">
+        <v>16</v>
+      </c>
+      <c r="F257" t="n">
+        <v>14974.6927</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-264395.2968895369</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>16</v>
+      </c>
+      <c r="D258" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E258" t="n">
+        <v>16</v>
+      </c>
+      <c r="F258" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-264395.2968895369</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C259" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D259" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E259" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F259" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-214395.2968895369</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C260" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D260" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E260" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F260" t="n">
+        <v>4538.6278</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-214395.2968895369</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C261" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D261" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E261" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2170</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-214395.2968895369</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C262" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E262" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F262" t="n">
+        <v>54915</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-269310.2968895369</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C263" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D263" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E263" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F263" t="n">
+        <v>47455.4628</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-269310.2968895369</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C264" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D264" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E264" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F264" t="n">
+        <v>7372</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-261938.2968895369</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C265" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D265" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E265" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F265" t="n">
+        <v>153535.7889</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-261938.2968895369</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C266" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D266" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E266" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F266" t="n">
+        <v>43781.699</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-261938.2968895369</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest LBA.xlsx
+++ b/BackTest/2019-10-26 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N266"/>
+  <dimension ref="A1:M266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-500907.004201807</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-500907.004201807</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-516876.622101807</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-519249.930901807</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-521510.4671018069</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,24 +4411,15 @@
         <v>-546248.770701807</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4818,24 +4444,15 @@
         <v>-546248.770701807</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4860,24 +4477,15 @@
         <v>-546248.770701807</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4902,24 +4510,21 @@
         <v>-536750.364501807</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
         <v>15.1</v>
       </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4944,24 +4549,19 @@
         <v>-536860.364501807</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4986,24 +4586,21 @@
         <v>-536465.134201807</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
         <v>15.1</v>
       </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5028,24 +4625,21 @@
         <v>-536465.134201807</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
         <v>15.3</v>
       </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5070,24 +4664,21 @@
         <v>-535816.263501807</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
         <v>15.3</v>
       </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5112,24 +4703,21 @@
         <v>-535816.263501807</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
         <v>15.4</v>
       </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5154,24 +4742,19 @@
         <v>-534853.521501807</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5196,24 +4779,19 @@
         <v>-568150.986501807</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5240,20 +4818,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5280,20 +4855,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5320,20 +4892,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5360,20 +4929,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5400,20 +4966,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5440,20 +5003,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5480,20 +5040,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5520,20 +5077,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5560,20 +5114,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5600,20 +5151,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5640,20 +5188,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5680,20 +5225,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5720,20 +5262,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5760,20 +5299,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5800,20 +5336,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5840,20 +5373,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5880,20 +5410,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5920,20 +5447,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5960,20 +5484,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6000,20 +5521,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6040,20 +5558,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6080,20 +5595,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6120,20 +5632,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6160,20 +5669,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6200,20 +5706,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6240,20 +5743,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6280,20 +5780,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6320,20 +5817,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6360,20 +5854,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6400,20 +5891,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6438,24 +5926,19 @@
         <v>-534897.6551018069</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6480,24 +5963,19 @@
         <v>-474615.1536018068</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6524,20 +6002,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6562,24 +6037,19 @@
         <v>-459617.1536018068</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6606,20 +6076,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6646,20 +6113,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6684,24 +6148,19 @@
         <v>-461271.3849018068</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6728,20 +6187,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6766,24 +6222,21 @@
         <v>-460884.1189018068</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
         <v>15.4</v>
       </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6808,24 +6261,19 @@
         <v>-460870.7087018068</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6850,24 +6298,19 @@
         <v>-488431.2987018069</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6892,24 +6335,19 @@
         <v>-488419.1504018069</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6934,24 +6372,19 @@
         <v>-488587.1504018069</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6976,24 +6409,19 @@
         <v>-488587.1504018069</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7018,24 +6446,19 @@
         <v>-490315.0178018069</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7060,24 +6483,19 @@
         <v>-490202.0178018069</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7104,20 +6522,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7144,20 +6559,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7184,20 +6596,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7224,20 +6633,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7264,20 +6670,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7304,20 +6707,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7344,20 +6744,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7384,20 +6781,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7424,20 +6818,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7464,20 +6855,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7504,20 +6892,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7544,20 +6929,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7584,20 +6966,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7624,20 +7003,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7664,20 +7040,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7704,20 +7077,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7744,20 +7114,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7784,20 +7151,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7824,20 +7188,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7864,20 +7225,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7904,20 +7262,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7944,20 +7299,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7984,20 +7336,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8024,20 +7373,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8064,20 +7410,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8104,20 +7447,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8144,20 +7484,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8184,20 +7521,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8224,20 +7558,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8264,20 +7595,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8304,20 +7632,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8344,20 +7669,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8384,20 +7706,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8424,20 +7743,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8464,20 +7780,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8504,20 +7817,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8544,20 +7854,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8584,20 +7891,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8624,20 +7928,17 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8662,22 +7963,19 @@
         <v>-81682.38850180682</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8702,22 +8000,19 @@
         <v>-242305.2371018068</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8742,20 +8037,19 @@
         <v>-242295.2371018068</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
       </c>
       <c r="M220" t="inlineStr"/>
-      <c r="N220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8780,18 +8074,19 @@
         <v>-256066.2371018068</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8816,18 +8111,19 @@
         <v>-321277.2487018068</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8854,16 +8150,17 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8890,16 +8187,17 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8926,16 +8224,17 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8962,16 +8261,17 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8998,16 +8298,17 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9034,16 +8335,17 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9070,16 +8372,17 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9106,16 +8409,17 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9142,16 +8446,17 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9178,16 +8483,17 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9214,16 +8520,17 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9250,16 +8557,17 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9286,16 +8594,17 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9320,18 +8629,19 @@
         <v>-351929.6719018068</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9356,18 +8666,19 @@
         <v>-257898.7412018068</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9394,16 +8705,17 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9428,18 +8740,19 @@
         <v>-257898.7412018068</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9464,18 +8777,19 @@
         <v>-228637.9568018068</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9502,16 +8816,17 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9538,16 +8853,17 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9574,16 +8890,17 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9610,16 +8927,17 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9646,16 +8964,17 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9682,16 +9001,17 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9718,16 +9038,17 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9752,18 +9073,19 @@
         <v>-205202.8640895369</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9790,16 +9112,17 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>1</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9826,16 +9149,17 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>1</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9862,16 +9186,17 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>1</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9898,16 +9223,17 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>1</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9934,16 +9260,17 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>1</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9970,16 +9297,17 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>1</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10006,16 +9334,17 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10042,16 +9371,17 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>1</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10078,16 +9408,17 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10114,16 +9445,17 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10150,16 +9482,17 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10186,16 +9519,17 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>1</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10222,16 +9556,17 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>1</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10258,16 +9593,17 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>1</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10294,16 +9630,17 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>1</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10330,16 +9667,17 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>1</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10366,16 +9704,17 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>1</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10400,20 +9739,19 @@
         <v>-261938.2968895369</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest LBA.xlsx
+++ b/BackTest/2019-10-26 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-517029.878101807</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-517029.878101807</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-506629.878101807</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-508407.004201807</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-508407.004201807</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-500907.004201807</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-500907.004201807</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-516876.622101807</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-519249.930901807</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-521510.4671018069</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-540962.776801807</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-642900.047001807</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -4378,10 +4378,14 @@
         <v>-546248.770701807</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
@@ -4411,11 +4415,19 @@
         <v>-546248.770701807</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4456,19 @@
         <v>-546248.770701807</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4497,19 @@
         <v>-546248.770701807</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,15 +4538,17 @@
         <v>-536750.364501807</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>15.1</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -4549,10 +4579,14 @@
         <v>-536860.364501807</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4586,12 +4620,14 @@
         <v>-536465.134201807</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>15.1</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4625,12 +4661,14 @@
         <v>-536465.134201807</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>15.3</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4664,12 +4702,14 @@
         <v>-535816.263501807</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>15.3</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4703,12 +4743,14 @@
         <v>-535816.263501807</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>15.4</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4742,10 +4784,14 @@
         <v>-534853.521501807</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J131" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4779,10 +4825,14 @@
         <v>-568150.986501807</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J132" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4819,7 +4869,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4856,7 +4908,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4893,7 +4947,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4930,7 +4986,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4967,7 +5025,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5004,7 +5064,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5041,7 +5103,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5078,7 +5142,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5115,7 +5181,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5152,7 +5220,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5189,7 +5259,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5226,7 +5298,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5263,7 +5337,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5300,7 +5376,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5337,7 +5415,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5374,7 +5454,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5411,7 +5493,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5448,7 +5532,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5485,7 +5571,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5522,7 +5610,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5559,7 +5649,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5596,7 +5688,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5633,7 +5727,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5670,7 +5766,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5707,7 +5805,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5744,7 +5844,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5781,7 +5883,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5818,7 +5922,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5855,7 +5961,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5892,7 +6000,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5929,7 +6039,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5966,7 +6078,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6003,7 +6117,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6040,7 +6156,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6077,7 +6195,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6114,7 +6234,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6151,7 +6273,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6188,7 +6312,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6222,12 +6348,12 @@
         <v>-460884.1189018068</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6264,7 +6390,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6301,7 +6429,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6338,7 +6468,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6375,7 +6507,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6412,7 +6546,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6449,7 +6585,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6486,7 +6624,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6523,7 +6663,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6560,7 +6702,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6597,7 +6741,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6634,7 +6780,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6671,7 +6819,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6708,7 +6858,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6745,7 +6897,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6782,7 +6936,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6819,7 +6975,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6856,7 +7014,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6893,7 +7053,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6930,7 +7092,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6967,7 +7131,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7004,7 +7170,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7041,7 +7209,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7078,7 +7248,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7115,7 +7287,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7152,7 +7326,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7189,7 +7365,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7226,7 +7404,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7263,7 +7443,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7300,7 +7482,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7337,7 +7521,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7374,7 +7560,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7411,7 +7599,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7448,7 +7638,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7485,7 +7677,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7522,7 +7716,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7559,7 +7755,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7596,7 +7794,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7633,7 +7833,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7670,7 +7872,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7707,7 +7911,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7744,7 +7950,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7781,7 +7989,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7818,7 +8028,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7855,7 +8067,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7892,7 +8106,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7929,7 +8145,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7963,10 +8181,12 @@
         <v>-81682.38850180682</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8000,10 +8220,12 @@
         <v>-242305.2371018068</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8037,10 +8259,12 @@
         <v>-242295.2371018068</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8074,10 +8298,12 @@
         <v>-256066.2371018068</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8111,10 +8337,12 @@
         <v>-321277.2487018068</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8151,7 +8379,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8188,7 +8418,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8225,7 +8457,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8262,7 +8496,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8299,7 +8535,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8336,7 +8574,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8373,7 +8613,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8410,7 +8652,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8447,7 +8691,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8484,7 +8730,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8521,7 +8769,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8558,7 +8808,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8595,7 +8847,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8629,10 +8883,12 @@
         <v>-351929.6719018068</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8666,10 +8922,12 @@
         <v>-257898.7412018068</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8706,7 +8964,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8740,10 +9000,12 @@
         <v>-257898.7412018068</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8777,10 +9039,12 @@
         <v>-228637.9568018068</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8817,7 +9081,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8854,7 +9120,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8891,7 +9159,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8928,7 +9198,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8965,7 +9237,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9002,7 +9276,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9039,7 +9315,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9073,10 +9351,12 @@
         <v>-205202.8640895369</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9113,7 +9393,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9150,7 +9432,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9187,7 +9471,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9224,7 +9510,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9261,7 +9549,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9298,7 +9588,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9335,7 +9627,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9372,7 +9666,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9409,7 +9705,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9446,7 +9744,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9483,7 +9783,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9520,7 +9822,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9557,7 +9861,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9594,7 +9900,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9631,7 +9939,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9668,7 +9978,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9705,7 +10017,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9739,19 +10053,23 @@
         <v>-261938.2968895369</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>15.1</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L266" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
       <c r="M266" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest LBA.xlsx
+++ b/BackTest/2019-10-26 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-517029.878101807</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-517029.878101807</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-506629.878101807</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-508407.004201807</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-508407.004201807</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-500907.004201807</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-500907.004201807</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-516876.622101807</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-519249.930901807</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-540962.776801807</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-642900.047001807</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -4378,14 +4378,10 @@
         <v>-546248.770701807</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
@@ -4420,9 +4416,7 @@
       <c r="I122" t="n">
         <v>15.1</v>
       </c>
-      <c r="J122" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -4461,9 +4455,7 @@
       <c r="I123" t="n">
         <v>15.1</v>
       </c>
-      <c r="J123" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4502,9 +4494,7 @@
       <c r="I124" t="n">
         <v>15.1</v>
       </c>
-      <c r="J124" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4543,9 +4533,7 @@
       <c r="I125" t="n">
         <v>15.1</v>
       </c>
-      <c r="J125" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4584,9 +4572,7 @@
       <c r="I126" t="n">
         <v>15.2</v>
       </c>
-      <c r="J126" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4625,9 +4611,7 @@
       <c r="I127" t="n">
         <v>15.1</v>
       </c>
-      <c r="J127" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4666,9 +4650,7 @@
       <c r="I128" t="n">
         <v>15.3</v>
       </c>
-      <c r="J128" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4707,9 +4689,7 @@
       <c r="I129" t="n">
         <v>15.3</v>
       </c>
-      <c r="J129" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4748,9 +4728,7 @@
       <c r="I130" t="n">
         <v>15.4</v>
       </c>
-      <c r="J130" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,14 +4762,10 @@
         <v>-534853.521501807</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J131" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4825,14 +4799,10 @@
         <v>-568150.986501807</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J132" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4869,9 +4839,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4908,9 +4876,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4947,9 +4913,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4986,9 +4950,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5025,9 +4987,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5064,9 +5024,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5103,9 +5061,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5142,9 +5098,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5181,9 +5135,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5220,9 +5172,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5259,9 +5209,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5298,9 +5246,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5337,9 +5283,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5376,9 +5320,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5415,9 +5357,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5454,9 +5394,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5493,9 +5431,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5532,9 +5468,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5568,12 +5502,12 @@
         <v>-478666.3125018069</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5610,9 +5544,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5646,12 +5578,12 @@
         <v>-438349.0561018069</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5688,9 +5620,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5727,9 +5657,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5766,9 +5694,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5805,9 +5731,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5844,9 +5768,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5883,9 +5805,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5919,12 +5839,12 @@
         <v>-536601.2733018069</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5958,12 +5878,12 @@
         <v>-534897.6551018069</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5997,12 +5917,12 @@
         <v>-534897.6551018069</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6036,12 +5956,12 @@
         <v>-534897.6551018069</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6075,12 +5995,12 @@
         <v>-474615.1536018068</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6117,9 +6037,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6156,9 +6074,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6195,9 +6111,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6234,9 +6148,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6273,9 +6185,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6312,9 +6222,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6351,9 +6259,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6390,9 +6296,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6429,9 +6333,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6468,9 +6370,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6507,9 +6407,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6546,9 +6444,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6585,9 +6481,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6624,9 +6518,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6660,12 +6552,12 @@
         <v>-490202.0178018069</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6699,12 +6591,12 @@
         <v>-490202.0178018069</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6738,12 +6630,12 @@
         <v>-489202.0178018069</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6777,12 +6669,12 @@
         <v>-488202.0178018069</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6819,9 +6711,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6858,9 +6748,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6897,9 +6785,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6936,9 +6822,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6975,9 +6859,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7014,9 +6896,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7053,9 +6933,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7089,12 +6967,12 @@
         <v>-515006.3882018068</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7128,12 +7006,12 @@
         <v>-515006.3882018068</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7167,12 +7045,12 @@
         <v>-554376.8093018068</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7206,12 +7084,12 @@
         <v>-554190.1405018069</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7245,12 +7123,12 @@
         <v>-554190.1405018069</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>15.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7287,9 +7165,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7326,9 +7202,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7365,9 +7239,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7404,9 +7276,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7443,9 +7313,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7482,9 +7350,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7521,9 +7387,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7560,9 +7424,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7599,9 +7461,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7638,9 +7498,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7677,9 +7535,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7716,9 +7572,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7755,9 +7609,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7794,9 +7646,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7833,9 +7683,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7872,9 +7720,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7911,9 +7757,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7950,9 +7794,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7989,9 +7831,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8028,9 +7868,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8067,9 +7905,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8106,9 +7942,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8145,9 +7979,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8184,9 +8016,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8223,9 +8053,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8262,9 +8090,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8301,9 +8127,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8340,9 +8164,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8379,9 +8201,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8418,9 +8238,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8457,9 +8275,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8496,9 +8312,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8535,9 +8349,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8574,9 +8386,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8613,9 +8423,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8652,9 +8460,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8691,9 +8497,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8730,9 +8534,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8769,9 +8571,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8808,9 +8608,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8847,9 +8645,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8886,9 +8682,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8925,9 +8719,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8964,9 +8756,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9003,9 +8793,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9039,20 +8827,16 @@
         <v>-228637.9568018068</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
@@ -9078,17 +8862,11 @@
         <v>-228637.9568018068</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9117,17 +8895,11 @@
         <v>-230460.5672018068</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9156,17 +8928,11 @@
         <v>-207220.8743018068</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9195,17 +8961,11 @@
         <v>-252392.3539018068</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9234,17 +8994,11 @@
         <v>-252021.3539018068</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9273,17 +9027,11 @@
         <v>-252021.3539018068</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9315,14 +9063,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9354,14 +9096,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9393,14 +9129,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9432,14 +9162,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9471,14 +9195,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9510,14 +9228,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9549,14 +9261,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9588,14 +9294,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9627,14 +9327,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9666,14 +9360,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9705,14 +9393,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9744,14 +9426,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9783,14 +9459,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9822,14 +9492,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9861,14 +9525,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9900,14 +9558,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9939,14 +9591,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9978,14 +9624,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10017,14 +9657,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10056,20 +9690,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
       <c r="M266" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest LBA.xlsx
+++ b/BackTest/2019-10-26 BackTest LBA.xlsx
@@ -5502,11 +5502,9 @@
         <v>-478666.3125018069</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5578,11 +5576,9 @@
         <v>-438349.0561018069</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6034,9 +6030,11 @@
         <v>-474615.1536018068</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6071,9 +6069,11 @@
         <v>-459617.1536018068</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6108,9 +6108,11 @@
         <v>-459617.1536018068</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6145,9 +6147,11 @@
         <v>-461302.9403018068</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6182,9 +6186,11 @@
         <v>-461271.3849018068</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>15.3</v>
+      </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6219,9 +6225,11 @@
         <v>-461807.5483018068</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6256,9 +6264,11 @@
         <v>-460884.1189018068</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6293,9 +6303,11 @@
         <v>-460870.7087018068</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6330,9 +6342,11 @@
         <v>-488431.2987018069</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6367,9 +6381,11 @@
         <v>-488419.1504018069</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>15.3</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6404,9 +6420,11 @@
         <v>-488587.1504018069</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6441,9 +6459,11 @@
         <v>-488587.1504018069</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6478,9 +6498,11 @@
         <v>-490315.0178018069</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6515,9 +6537,11 @@
         <v>-490202.0178018069</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>15.3</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6630,11 +6654,9 @@
         <v>-489202.0178018069</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6669,11 +6691,9 @@
         <v>-488202.0178018069</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -6967,11 +6987,9 @@
         <v>-515006.3882018068</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7006,11 +7024,9 @@
         <v>-515006.3882018068</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7045,11 +7061,9 @@
         <v>-554376.8093018068</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7084,11 +7098,9 @@
         <v>-554190.1405018069</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7123,11 +7135,9 @@
         <v>-554190.1405018069</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -8013,18 +8023,16 @@
         <v>-81682.38850180682</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
@@ -8050,15 +8058,11 @@
         <v>-242305.2371018068</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8087,15 +8091,11 @@
         <v>-242295.2371018068</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8124,15 +8124,11 @@
         <v>-256066.2371018068</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8161,15 +8157,11 @@
         <v>-321277.2487018068</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8198,15 +8190,11 @@
         <v>-358877.2487018068</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8227,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8276,11 +8260,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8313,11 +8293,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8350,11 +8326,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8387,11 +8359,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8424,11 +8392,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8461,11 +8425,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8498,11 +8458,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8535,11 +8491,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8572,11 +8524,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8609,11 +8557,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8646,11 +8590,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8683,11 +8623,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8720,11 +8656,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8757,11 +8689,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8794,11 +8722,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8827,16 +8751,14 @@
         <v>-228637.9568018068</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
       <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
@@ -8961,7 +8883,7 @@
         <v>-252392.3539018068</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9027,7 +8949,7 @@
         <v>-252021.3539018068</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9093,7 +9015,7 @@
         <v>-205202.8640895369</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9126,7 +9048,7 @@
         <v>-207541.0697895369</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9159,7 +9081,7 @@
         <v>-208493.0510895369</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9192,7 +9114,7 @@
         <v>-200441.4734895369</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9225,7 +9147,7 @@
         <v>-239091.3394895369</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9258,7 +9180,7 @@
         <v>-239091.3394895369</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9522,7 +9444,7 @@
         <v>-214395.2968895369</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9555,7 +9477,7 @@
         <v>-269310.2968895369</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9588,7 +9510,7 @@
         <v>-269310.2968895369</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9621,7 +9543,7 @@
         <v>-261938.2968895369</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9654,7 +9576,7 @@
         <v>-261938.2968895369</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9687,7 +9609,7 @@
         <v>-261938.2968895369</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>

--- a/BackTest/2019-10-26 BackTest LBA.xlsx
+++ b/BackTest/2019-10-26 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M266"/>
+  <dimension ref="A1:L266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2500</v>
       </c>
       <c r="G2" t="n">
-        <v>-517029.878101807</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>12845</v>
       </c>
       <c r="G3" t="n">
-        <v>-517029.878101807</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>10400</v>
       </c>
       <c r="G4" t="n">
-        <v>-506629.878101807</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1777.1261</v>
       </c>
       <c r="G5" t="n">
-        <v>-508407.004201807</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>11574.1649</v>
       </c>
       <c r="G6" t="n">
-        <v>-508407.004201807</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>7500</v>
       </c>
       <c r="G7" t="n">
-        <v>-500907.004201807</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>27443.2317</v>
       </c>
       <c r="G8" t="n">
-        <v>-500907.004201807</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>15969.6179</v>
       </c>
       <c r="G9" t="n">
-        <v>-516876.622101807</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2373.3088</v>
       </c>
       <c r="G10" t="n">
-        <v>-519249.930901807</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2260.5362</v>
       </c>
       <c r="G11" t="n">
-        <v>-521510.4671018069</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>19452.3097</v>
       </c>
       <c r="G12" t="n">
-        <v>-540962.776801807</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>101937.2702</v>
       </c>
       <c r="G13" t="n">
-        <v>-642900.047001807</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1980.4374</v>
       </c>
       <c r="G14" t="n">
-        <v>-640919.609601807</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>20000</v>
       </c>
       <c r="G15" t="n">
-        <v>-660919.609601807</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>8543.8681</v>
       </c>
       <c r="G16" t="n">
-        <v>-669463.4777018069</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>28005.1732</v>
       </c>
       <c r="G17" t="n">
-        <v>-669463.4777018069</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>4633.845</v>
       </c>
       <c r="G18" t="n">
-        <v>-674097.3227018069</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>53195.7203</v>
       </c>
       <c r="G19" t="n">
-        <v>-674097.3227018069</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>36749.6153</v>
       </c>
       <c r="G20" t="n">
-        <v>-637347.707401807</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>40000</v>
       </c>
       <c r="G21" t="n">
-        <v>-597347.707401807</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>8783.6996</v>
       </c>
       <c r="G22" t="n">
-        <v>-597347.707401807</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>9380.571400000001</v>
       </c>
       <c r="G23" t="n">
-        <v>-597347.707401807</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>28126.6498</v>
       </c>
       <c r="G24" t="n">
-        <v>-625474.357201807</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>11649.7964</v>
       </c>
       <c r="G25" t="n">
-        <v>-637124.153601807</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>5498</v>
       </c>
       <c r="G26" t="n">
-        <v>-631626.153601807</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>9659</v>
       </c>
       <c r="G27" t="n">
-        <v>-621967.153601807</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2500</v>
       </c>
       <c r="G28" t="n">
-        <v>-621967.153601807</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2385.4405</v>
       </c>
       <c r="G29" t="n">
-        <v>-624352.594101807</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>3439.7593</v>
       </c>
       <c r="G30" t="n">
-        <v>-620912.834801807</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>23400</v>
       </c>
       <c r="G31" t="n">
-        <v>-597512.834801807</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>7500</v>
       </c>
       <c r="G32" t="n">
-        <v>-605012.834801807</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>7980</v>
       </c>
       <c r="G33" t="n">
-        <v>-605012.834801807</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>11545.4287</v>
       </c>
       <c r="G34" t="n">
-        <v>-593467.4061018069</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>8154.5765</v>
       </c>
       <c r="G35" t="n">
-        <v>-593467.4061018069</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>85819.3165</v>
       </c>
       <c r="G36" t="n">
-        <v>-679286.7226018069</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>7223.8953</v>
       </c>
       <c r="G37" t="n">
-        <v>-672062.8273018069</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>19896.9462</v>
       </c>
       <c r="G38" t="n">
-        <v>-691959.7735018069</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1783.0149</v>
       </c>
       <c r="G39" t="n">
-        <v>-690176.7586018069</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>33600</v>
       </c>
       <c r="G40" t="n">
-        <v>-656576.7586018069</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1824.2259</v>
       </c>
       <c r="G41" t="n">
-        <v>-658400.9845018069</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>40000</v>
       </c>
       <c r="G42" t="n">
-        <v>-618400.9845018069</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>40000</v>
       </c>
       <c r="G43" t="n">
-        <v>-618400.9845018069</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>20000</v>
       </c>
       <c r="G44" t="n">
-        <v>-638400.9845018069</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>2191.9067</v>
       </c>
       <c r="G45" t="n">
-        <v>-638400.9845018069</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>18556</v>
       </c>
       <c r="G46" t="n">
-        <v>-656956.9845018069</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>8800</v>
       </c>
       <c r="G47" t="n">
-        <v>-656956.9845018069</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>458178.5897</v>
       </c>
       <c r="G48" t="n">
-        <v>-198778.3948018069</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>2500</v>
       </c>
       <c r="G49" t="n">
-        <v>-196278.3948018069</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1700.9184</v>
       </c>
       <c r="G50" t="n">
-        <v>-197979.3132018069</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>2527.9045</v>
       </c>
       <c r="G51" t="n">
-        <v>-197979.3132018069</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>14865.7727</v>
       </c>
       <c r="G52" t="n">
-        <v>-212845.0859018069</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1955.9045</v>
       </c>
       <c r="G53" t="n">
-        <v>-210889.1814018069</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>670</v>
       </c>
       <c r="G54" t="n">
-        <v>-210219.1814018069</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>7275</v>
       </c>
       <c r="G55" t="n">
-        <v>-210219.1814018069</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>400.25</v>
       </c>
       <c r="G56" t="n">
-        <v>-210219.1814018069</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>21347.75</v>
       </c>
       <c r="G57" t="n">
-        <v>-210219.1814018069</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>2906.6956</v>
       </c>
       <c r="G58" t="n">
-        <v>-210219.1814018069</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>6585.4843</v>
       </c>
       <c r="G59" t="n">
-        <v>-210219.1814018069</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>368.6885</v>
       </c>
       <c r="G60" t="n">
-        <v>-210219.1814018069</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>9581.255499999999</v>
       </c>
       <c r="G61" t="n">
-        <v>-219800.4369018069</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1339</v>
       </c>
       <c r="G62" t="n">
-        <v>-219800.4369018069</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>42848.481</v>
       </c>
       <c r="G63" t="n">
-        <v>-262648.9179018069</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>18189.9736</v>
       </c>
       <c r="G64" t="n">
-        <v>-262648.9179018069</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>-262638.9179018069</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>4009.1138</v>
       </c>
       <c r="G66" t="n">
-        <v>-266648.0317018069</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1505.9335</v>
       </c>
       <c r="G67" t="n">
-        <v>-265142.0982018069</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>100740.1584</v>
       </c>
       <c r="G68" t="n">
-        <v>-365882.2566018069</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>3322.5696</v>
       </c>
       <c r="G69" t="n">
-        <v>-365882.2566018069</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>11448.1632</v>
       </c>
       <c r="G70" t="n">
-        <v>-377330.4198018069</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1168.363</v>
       </c>
       <c r="G71" t="n">
-        <v>-376162.0568018069</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>40000</v>
       </c>
       <c r="G72" t="n">
-        <v>-416162.0568018069</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>361.9551</v>
       </c>
       <c r="G73" t="n">
-        <v>-416162.0568018069</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>70308.5833</v>
       </c>
       <c r="G74" t="n">
-        <v>-416162.0568018069</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>2966.3114</v>
       </c>
       <c r="G75" t="n">
-        <v>-419128.3682018069</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>2701.049</v>
       </c>
       <c r="G76" t="n">
-        <v>-419128.3682018069</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>40000</v>
       </c>
       <c r="G77" t="n">
-        <v>-419128.3682018069</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>45271.1622</v>
       </c>
       <c r="G78" t="n">
-        <v>-373857.2060018069</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>2010.6947</v>
       </c>
       <c r="G79" t="n">
-        <v>-373857.2060018069</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>1324.1345</v>
       </c>
       <c r="G80" t="n">
-        <v>-372533.0715018069</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1836.4038</v>
       </c>
       <c r="G81" t="n">
-        <v>-374369.4753018069</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>371</v>
       </c>
       <c r="G82" t="n">
-        <v>-374369.4753018069</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>27800</v>
       </c>
       <c r="G83" t="n">
-        <v>-374369.4753018069</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>3346.7341</v>
       </c>
       <c r="G84" t="n">
-        <v>-371022.7412018069</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>7161.1611</v>
       </c>
       <c r="G85" t="n">
-        <v>-363861.5801018069</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>2500</v>
       </c>
       <c r="G86" t="n">
-        <v>-366361.5801018069</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>7162.588</v>
       </c>
       <c r="G87" t="n">
-        <v>-366361.5801018069</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>13875.7727</v>
       </c>
       <c r="G88" t="n">
-        <v>-366361.5801018069</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1846.3811</v>
       </c>
       <c r="G89" t="n">
-        <v>-366361.5801018069</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>554</v>
       </c>
       <c r="G90" t="n">
-        <v>-366361.5801018069</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>15228.6701</v>
       </c>
       <c r="G91" t="n">
-        <v>-366361.5801018069</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>684.5732</v>
       </c>
       <c r="G92" t="n">
-        <v>-366361.5801018069</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>82394.7475</v>
       </c>
       <c r="G93" t="n">
-        <v>-366361.5801018069</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1727.5186</v>
       </c>
       <c r="G94" t="n">
-        <v>-368089.0987018069</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>15450.539</v>
       </c>
       <c r="G95" t="n">
-        <v>-368089.0987018069</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>450158.4721</v>
       </c>
       <c r="G96" t="n">
-        <v>-368089.0987018069</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>24096.2085</v>
       </c>
       <c r="G97" t="n">
-        <v>-368089.0987018069</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>75412.91190000001</v>
       </c>
       <c r="G98" t="n">
-        <v>-368089.0987018069</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>29335</v>
       </c>
       <c r="G99" t="n">
-        <v>-368089.0987018069</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>4871</v>
       </c>
       <c r="G100" t="n">
-        <v>-368089.0987018069</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>19400</v>
       </c>
       <c r="G101" t="n">
-        <v>-368089.0987018069</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>22033.8027</v>
       </c>
       <c r="G102" t="n">
-        <v>-368089.0987018069</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>1885.7961</v>
       </c>
       <c r="G103" t="n">
-        <v>-366203.3026018069</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>4393.8226</v>
       </c>
       <c r="G104" t="n">
-        <v>-370597.1252018069</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>32409.5475</v>
       </c>
       <c r="G105" t="n">
-        <v>-403006.6727018069</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>20902.4951</v>
       </c>
       <c r="G106" t="n">
-        <v>-403006.6727018069</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>97696.1376</v>
       </c>
       <c r="G107" t="n">
-        <v>-305310.5351018069</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>13600</v>
       </c>
       <c r="G108" t="n">
-        <v>-318910.5351018069</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>136338.9918</v>
       </c>
       <c r="G109" t="n">
-        <v>-318910.5351018069</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>40000</v>
       </c>
       <c r="G110" t="n">
-        <v>-278910.5351018069</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>228005</v>
       </c>
       <c r="G111" t="n">
-        <v>-506915.5351018069</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>98507.48235483871</v>
       </c>
       <c r="G112" t="n">
-        <v>-506915.5351018069</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>31811.8554</v>
       </c>
       <c r="G113" t="n">
-        <v>-538727.390501807</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>2354.0332</v>
       </c>
       <c r="G114" t="n">
-        <v>-538727.390501807</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>188</v>
       </c>
       <c r="G115" t="n">
-        <v>-538727.390501807</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>6137.3096</v>
       </c>
       <c r="G116" t="n">
-        <v>-544864.700101807</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>2782.6878</v>
       </c>
       <c r="G117" t="n">
-        <v>-547647.387901807</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>15336.1399</v>
       </c>
       <c r="G118" t="n">
-        <v>-532311.248001807</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>60570.2368</v>
       </c>
       <c r="G119" t="n">
-        <v>-532311.248001807</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>13937.5227</v>
       </c>
       <c r="G120" t="n">
-        <v>-546248.770701807</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>10970.5955</v>
       </c>
       <c r="G121" t="n">
-        <v>-546248.770701807</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,24 +4043,15 @@
         <v>7297.66</v>
       </c>
       <c r="G122" t="n">
-        <v>-546248.770701807</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4447,24 +4073,15 @@
         <v>13500</v>
       </c>
       <c r="G123" t="n">
-        <v>-546248.770701807</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4486,24 +4103,15 @@
         <v>6019</v>
       </c>
       <c r="G124" t="n">
-        <v>-546248.770701807</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4525,24 +4133,15 @@
         <v>9498.406199999999</v>
       </c>
       <c r="G125" t="n">
-        <v>-536750.364501807</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4564,24 +4163,15 @@
         <v>110</v>
       </c>
       <c r="G126" t="n">
-        <v>-536860.364501807</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4603,24 +4193,19 @@
         <v>395.2303</v>
       </c>
       <c r="G127" t="n">
-        <v>-536465.134201807</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>15.1</v>
       </c>
       <c r="I127" t="n">
         <v>15.1</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4642,24 +4227,23 @@
         <v>136</v>
       </c>
       <c r="G128" t="n">
-        <v>-536465.134201807</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>15.3</v>
       </c>
       <c r="I128" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4681,24 +4265,23 @@
         <v>648.8707000000001</v>
       </c>
       <c r="G129" t="n">
-        <v>-535816.263501807</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>15.3</v>
       </c>
       <c r="I129" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4720,24 +4303,19 @@
         <v>293.0261</v>
       </c>
       <c r="G130" t="n">
-        <v>-535816.263501807</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>15.4</v>
       </c>
       <c r="I130" t="n">
         <v>15.4</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4759,22 +4337,21 @@
         <v>962.742</v>
       </c>
       <c r="G131" t="n">
-        <v>-534853.521501807</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4796,22 +4373,21 @@
         <v>33297.465</v>
       </c>
       <c r="G132" t="n">
-        <v>-568150.986501807</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4833,22 +4409,21 @@
         <v>39520</v>
       </c>
       <c r="G133" t="n">
-        <v>-528630.986501807</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4870,22 +4445,21 @@
         <v>962.742</v>
       </c>
       <c r="G134" t="n">
-        <v>-529593.728501807</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4907,22 +4481,21 @@
         <v>17032</v>
       </c>
       <c r="G135" t="n">
-        <v>-529593.728501807</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4944,22 +4517,21 @@
         <v>34276.0261</v>
       </c>
       <c r="G136" t="n">
-        <v>-495317.7024018069</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4981,22 +4553,21 @@
         <v>3148.1214</v>
       </c>
       <c r="G137" t="n">
-        <v>-498465.823801807</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5018,22 +4589,21 @@
         <v>17902.1984</v>
       </c>
       <c r="G138" t="n">
-        <v>-480563.625401807</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5055,22 +4625,21 @@
         <v>80000</v>
       </c>
       <c r="G139" t="n">
-        <v>-480563.625401807</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5092,22 +4661,21 @@
         <v>371</v>
       </c>
       <c r="G140" t="n">
-        <v>-480563.625401807</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5129,22 +4697,21 @@
         <v>371</v>
       </c>
       <c r="G141" t="n">
-        <v>-480563.625401807</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5166,22 +4733,21 @@
         <v>2497.046</v>
       </c>
       <c r="G142" t="n">
-        <v>-480563.625401807</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5203,22 +4769,21 @@
         <v>22934</v>
       </c>
       <c r="G143" t="n">
-        <v>-480563.625401807</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5240,22 +4805,21 @@
         <v>5803.7591</v>
       </c>
       <c r="G144" t="n">
-        <v>-474759.8663018069</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5277,22 +4841,21 @@
         <v>3906.4462</v>
       </c>
       <c r="G145" t="n">
-        <v>-478666.3125018069</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5314,22 +4877,21 @@
         <v>391.4358</v>
       </c>
       <c r="G146" t="n">
-        <v>-478666.3125018069</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5351,22 +4913,21 @@
         <v>9072.391</v>
       </c>
       <c r="G147" t="n">
-        <v>-478666.3125018069</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5388,22 +4949,21 @@
         <v>2442.9499</v>
       </c>
       <c r="G148" t="n">
-        <v>-478666.3125018069</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5425,22 +4985,21 @@
         <v>61792.2223</v>
       </c>
       <c r="G149" t="n">
-        <v>-478666.3125018069</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5462,22 +5021,21 @@
         <v>371</v>
       </c>
       <c r="G150" t="n">
-        <v>-478666.3125018069</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5499,22 +5057,21 @@
         <v>40000</v>
       </c>
       <c r="G151" t="n">
-        <v>-478666.3125018069</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5536,22 +5093,21 @@
         <v>5769.4775</v>
       </c>
       <c r="G152" t="n">
-        <v>-478666.3125018069</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5573,22 +5129,21 @@
         <v>40317.2564</v>
       </c>
       <c r="G153" t="n">
-        <v>-438349.0561018069</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5610,22 +5165,21 @@
         <v>97500</v>
       </c>
       <c r="G154" t="n">
-        <v>-535849.0561018069</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5647,22 +5201,21 @@
         <v>5999.7746</v>
       </c>
       <c r="G155" t="n">
-        <v>-535849.0561018069</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5684,22 +5237,21 @@
         <v>38250</v>
       </c>
       <c r="G156" t="n">
-        <v>-535849.0561018069</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5721,22 +5273,21 @@
         <v>3035.4508</v>
       </c>
       <c r="G157" t="n">
-        <v>-535849.0561018069</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5758,22 +5309,21 @@
         <v>4855.3271</v>
       </c>
       <c r="G158" t="n">
-        <v>-535849.0561018069</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5795,22 +5345,21 @@
         <v>1114</v>
       </c>
       <c r="G159" t="n">
-        <v>-536963.0561018069</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5832,24 +5381,21 @@
         <v>361.7828</v>
       </c>
       <c r="G160" t="n">
-        <v>-536601.2733018069</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
+        <v>15.4</v>
+      </c>
+      <c r="J160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5871,24 +5417,21 @@
         <v>1703.6182</v>
       </c>
       <c r="G161" t="n">
-        <v>-534897.6551018069</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
+        <v>15.4</v>
+      </c>
+      <c r="J161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5910,24 +5453,21 @@
         <v>2636</v>
       </c>
       <c r="G162" t="n">
-        <v>-534897.6551018069</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
         <v>15.4</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5949,24 +5489,21 @@
         <v>23952.4724</v>
       </c>
       <c r="G163" t="n">
-        <v>-534897.6551018069</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
         <v>15.4</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
+      <c r="J163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5988,24 +5525,21 @@
         <v>60282.5015</v>
       </c>
       <c r="G164" t="n">
-        <v>-474615.1536018068</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
         <v>15.4</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6027,24 +5561,21 @@
         <v>23892.5912</v>
       </c>
       <c r="G165" t="n">
-        <v>-474615.1536018068</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
+        <v>15.4</v>
+      </c>
+      <c r="J165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6066,24 +5597,21 @@
         <v>14998</v>
       </c>
       <c r="G166" t="n">
-        <v>-459617.1536018068</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
+        <v>15.4</v>
+      </c>
+      <c r="J166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6105,24 +5633,21 @@
         <v>7500</v>
       </c>
       <c r="G167" t="n">
-        <v>-459617.1536018068</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
+        <v>15.4</v>
+      </c>
+      <c r="J167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6144,24 +5669,21 @@
         <v>1685.7867</v>
       </c>
       <c r="G168" t="n">
-        <v>-461302.9403018068</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
+        <v>15.4</v>
+      </c>
+      <c r="J168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6183,24 +5705,21 @@
         <v>31.5554</v>
       </c>
       <c r="G169" t="n">
-        <v>-461271.3849018068</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
+        <v>15.4</v>
+      </c>
+      <c r="J169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6222,24 +5741,21 @@
         <v>536.1634</v>
       </c>
       <c r="G170" t="n">
-        <v>-461807.5483018068</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
+        <v>15.4</v>
+      </c>
+      <c r="J170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6261,24 +5777,21 @@
         <v>923.4294</v>
       </c>
       <c r="G171" t="n">
-        <v>-460884.1189018068</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
         <v>15.4</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
+      <c r="J171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6300,24 +5813,21 @@
         <v>13.4102</v>
       </c>
       <c r="G172" t="n">
-        <v>-460870.7087018068</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
+        <v>15.4</v>
+      </c>
+      <c r="J172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6339,24 +5849,21 @@
         <v>27560.59</v>
       </c>
       <c r="G173" t="n">
-        <v>-488431.2987018069</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
+        <v>15.4</v>
+      </c>
+      <c r="J173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6378,24 +5885,21 @@
         <v>12.1483</v>
       </c>
       <c r="G174" t="n">
-        <v>-488419.1504018069</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
+        <v>15.4</v>
+      </c>
+      <c r="J174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6417,24 +5921,21 @@
         <v>168</v>
       </c>
       <c r="G175" t="n">
-        <v>-488587.1504018069</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
+        <v>15.4</v>
+      </c>
+      <c r="J175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6456,24 +5957,21 @@
         <v>153.2142</v>
       </c>
       <c r="G176" t="n">
-        <v>-488587.1504018069</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
         <v>15.4</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
+      <c r="J176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6495,24 +5993,21 @@
         <v>1727.8674</v>
       </c>
       <c r="G177" t="n">
-        <v>-490315.0178018069</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
         <v>15.4</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
+      <c r="J177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6534,24 +6029,21 @@
         <v>113</v>
       </c>
       <c r="G178" t="n">
-        <v>-490202.0178018069</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
+        <v>15.4</v>
+      </c>
+      <c r="J178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6573,24 +6065,21 @@
         <v>23.935</v>
       </c>
       <c r="G179" t="n">
-        <v>-490202.0178018069</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
         <v>15.4</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
+      <c r="J179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6612,24 +6101,21 @@
         <v>7481.25</v>
       </c>
       <c r="G180" t="n">
-        <v>-490202.0178018069</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
         <v>15.4</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
+      <c r="J180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6651,22 +6137,21 @@
         <v>1000</v>
       </c>
       <c r="G181" t="n">
-        <v>-489202.0178018069</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6688,22 +6173,21 @@
         <v>1000</v>
       </c>
       <c r="G182" t="n">
-        <v>-488202.0178018069</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6725,22 +6209,21 @@
         <v>9757.628199999999</v>
       </c>
       <c r="G183" t="n">
-        <v>-497959.6460018068</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6762,22 +6245,21 @@
         <v>10.8589</v>
       </c>
       <c r="G184" t="n">
-        <v>-497948.7871018068</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6799,22 +6281,21 @@
         <v>19600</v>
       </c>
       <c r="G185" t="n">
-        <v>-517548.7871018068</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6836,22 +6317,21 @@
         <v>2551.8296</v>
       </c>
       <c r="G186" t="n">
-        <v>-517548.7871018068</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6873,22 +6353,21 @@
         <v>10000</v>
       </c>
       <c r="G187" t="n">
-        <v>-517548.7871018068</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6910,22 +6389,21 @@
         <v>118877.5405</v>
       </c>
       <c r="G188" t="n">
-        <v>-517548.7871018068</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6947,22 +6425,21 @@
         <v>4660.8387</v>
       </c>
       <c r="G189" t="n">
-        <v>-512887.9484018068</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6984,22 +6461,21 @@
         <v>2118.4398</v>
       </c>
       <c r="G190" t="n">
-        <v>-515006.3882018068</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7021,22 +6497,21 @@
         <v>65471.5341</v>
       </c>
       <c r="G191" t="n">
-        <v>-515006.3882018068</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7058,22 +6533,21 @@
         <v>39370.4211</v>
       </c>
       <c r="G192" t="n">
-        <v>-554376.8093018068</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7095,22 +6569,21 @@
         <v>186.6688</v>
       </c>
       <c r="G193" t="n">
-        <v>-554190.1405018069</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7132,22 +6605,21 @@
         <v>11757.7177</v>
       </c>
       <c r="G194" t="n">
-        <v>-554190.1405018069</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7169,22 +6641,21 @@
         <v>59206.2574</v>
       </c>
       <c r="G195" t="n">
-        <v>-494983.8831018069</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7206,22 +6677,21 @@
         <v>2434.308</v>
       </c>
       <c r="G196" t="n">
-        <v>-497418.1911018069</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7243,22 +6713,21 @@
         <v>7500</v>
       </c>
       <c r="G197" t="n">
-        <v>-489918.1911018069</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7280,22 +6749,21 @@
         <v>1941.2084</v>
       </c>
       <c r="G198" t="n">
-        <v>-491859.3995018069</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7317,22 +6785,21 @@
         <v>13.8281</v>
       </c>
       <c r="G199" t="n">
-        <v>-491845.5714018069</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7354,22 +6821,21 @@
         <v>65508.0179</v>
       </c>
       <c r="G200" t="n">
-        <v>-557353.5893018069</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7391,22 +6857,21 @@
         <v>3610</v>
       </c>
       <c r="G201" t="n">
-        <v>-553743.5893018069</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7428,22 +6893,21 @@
         <v>13948.7182</v>
       </c>
       <c r="G202" t="n">
-        <v>-567692.3075018069</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7465,22 +6929,21 @@
         <v>7552.9568</v>
       </c>
       <c r="G203" t="n">
-        <v>-560139.3507018068</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7502,22 +6965,21 @@
         <v>950.8141000000001</v>
       </c>
       <c r="G204" t="n">
-        <v>-560139.3507018068</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7539,22 +7001,21 @@
         <v>855.7307</v>
       </c>
       <c r="G205" t="n">
-        <v>-560139.3507018068</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7576,22 +7037,21 @@
         <v>9544.2526</v>
       </c>
       <c r="G206" t="n">
-        <v>-560139.3507018068</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7613,22 +7073,21 @@
         <v>24705.1077</v>
       </c>
       <c r="G207" t="n">
-        <v>-560139.3507018068</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7650,22 +7109,21 @@
         <v>20400</v>
       </c>
       <c r="G208" t="n">
-        <v>-539739.3507018068</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7687,22 +7145,21 @@
         <v>49800</v>
       </c>
       <c r="G209" t="n">
-        <v>-489939.3507018068</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7724,22 +7181,21 @@
         <v>20000</v>
       </c>
       <c r="G210" t="n">
-        <v>-469939.3507018068</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7761,22 +7217,21 @@
         <v>1750.5795</v>
       </c>
       <c r="G211" t="n">
-        <v>-471689.9302018068</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7798,22 +7253,21 @@
         <v>6831.5481</v>
       </c>
       <c r="G212" t="n">
-        <v>-464858.3821018068</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7835,22 +7289,21 @@
         <v>28200</v>
       </c>
       <c r="G213" t="n">
-        <v>-436658.3821018068</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7872,22 +7325,21 @@
         <v>93284.349</v>
       </c>
       <c r="G214" t="n">
-        <v>-343374.0331018068</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7909,22 +7361,21 @@
         <v>22855.9756</v>
       </c>
       <c r="G215" t="n">
-        <v>-343374.0331018068</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7946,22 +7397,21 @@
         <v>180260.7595</v>
       </c>
       <c r="G216" t="n">
-        <v>-343374.0331018068</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7983,22 +7433,21 @@
         <v>10</v>
       </c>
       <c r="G217" t="n">
-        <v>-343374.0331018068</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8020,20 +7469,21 @@
         <v>261691.6446</v>
       </c>
       <c r="G218" t="n">
-        <v>-81682.38850180682</v>
-      </c>
-      <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
       </c>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8055,18 +7505,23 @@
         <v>160622.8486</v>
       </c>
       <c r="G219" t="n">
-        <v>-242305.2371018068</v>
-      </c>
-      <c r="H219" t="n">
         <v>2</v>
       </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1.053441558441559</v>
+      </c>
       <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>1.093333333333333</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8088,18 +7543,15 @@
         <v>10</v>
       </c>
       <c r="G220" t="n">
-        <v>-242295.2371018068</v>
-      </c>
-      <c r="H220" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8121,18 +7573,15 @@
         <v>13771</v>
       </c>
       <c r="G221" t="n">
-        <v>-256066.2371018068</v>
-      </c>
-      <c r="H221" t="n">
         <v>2</v>
       </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8154,18 +7603,15 @@
         <v>65211.0116</v>
       </c>
       <c r="G222" t="n">
-        <v>-321277.2487018068</v>
-      </c>
-      <c r="H222" t="n">
         <v>2</v>
       </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8187,18 +7633,15 @@
         <v>37600</v>
       </c>
       <c r="G223" t="n">
-        <v>-358877.2487018068</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8220,18 +7663,15 @@
         <v>23000</v>
       </c>
       <c r="G224" t="n">
-        <v>-381877.2487018068</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8253,18 +7693,15 @@
         <v>13771</v>
       </c>
       <c r="G225" t="n">
-        <v>-381877.2487018068</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8286,18 +7723,15 @@
         <v>4360.9552</v>
       </c>
       <c r="G226" t="n">
-        <v>-381877.2487018068</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8319,18 +7753,15 @@
         <v>15000</v>
       </c>
       <c r="G227" t="n">
-        <v>-381877.2487018068</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8352,18 +7783,15 @@
         <v>18570.0319</v>
       </c>
       <c r="G228" t="n">
-        <v>-400447.2806018068</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8385,18 +7813,15 @@
         <v>25000</v>
       </c>
       <c r="G229" t="n">
-        <v>-375447.2806018068</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8418,18 +7843,15 @@
         <v>48504.9459</v>
       </c>
       <c r="G230" t="n">
-        <v>-326942.3347018068</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8451,18 +7873,15 @@
         <v>6972.0683</v>
       </c>
       <c r="G231" t="n">
-        <v>-333914.4030018068</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8484,18 +7903,15 @@
         <v>6288.675</v>
       </c>
       <c r="G232" t="n">
-        <v>-327625.7280018068</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8517,18 +7933,15 @@
         <v>19492.246</v>
       </c>
       <c r="G233" t="n">
-        <v>-347117.9740018068</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8550,18 +7963,15 @@
         <v>4811.6979</v>
       </c>
       <c r="G234" t="n">
-        <v>-351929.6719018068</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8583,18 +7993,15 @@
         <v>2274.8049</v>
       </c>
       <c r="G235" t="n">
-        <v>-351929.6719018068</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8616,18 +8023,15 @@
         <v>706.9748</v>
       </c>
       <c r="G236" t="n">
-        <v>-351929.6719018068</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8649,18 +8053,15 @@
         <v>94030.9307</v>
       </c>
       <c r="G237" t="n">
-        <v>-257898.7412018068</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8682,18 +8083,15 @@
         <v>756</v>
       </c>
       <c r="G238" t="n">
-        <v>-257898.7412018068</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8715,18 +8113,15 @@
         <v>826.5204</v>
       </c>
       <c r="G239" t="n">
-        <v>-257898.7412018068</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8748,18 +8143,15 @@
         <v>29260.7844</v>
       </c>
       <c r="G240" t="n">
-        <v>-228637.9568018068</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8781,18 +8173,15 @@
         <v>5000</v>
       </c>
       <c r="G241" t="n">
-        <v>-228637.9568018068</v>
-      </c>
-      <c r="H241" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8814,18 +8203,15 @@
         <v>1822.6104</v>
       </c>
       <c r="G242" t="n">
-        <v>-230460.5672018068</v>
-      </c>
-      <c r="H242" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8847,18 +8233,15 @@
         <v>23239.6929</v>
       </c>
       <c r="G243" t="n">
-        <v>-207220.8743018068</v>
-      </c>
-      <c r="H243" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8880,18 +8263,15 @@
         <v>45171.4796</v>
       </c>
       <c r="G244" t="n">
-        <v>-252392.3539018068</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8913,18 +8293,15 @@
         <v>371</v>
       </c>
       <c r="G245" t="n">
-        <v>-252021.3539018068</v>
-      </c>
-      <c r="H245" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8946,18 +8323,15 @@
         <v>1862.0434</v>
       </c>
       <c r="G246" t="n">
-        <v>-252021.3539018068</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8979,18 +8353,15 @@
         <v>46818.48981226994</v>
       </c>
       <c r="G247" t="n">
-        <v>-205202.8640895369</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9012,18 +8383,15 @@
         <v>184.049</v>
       </c>
       <c r="G248" t="n">
-        <v>-205202.8640895369</v>
-      </c>
-      <c r="H248" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9045,18 +8413,15 @@
         <v>2338.2057</v>
       </c>
       <c r="G249" t="n">
-        <v>-207541.0697895369</v>
-      </c>
-      <c r="H249" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9078,18 +8443,15 @@
         <v>951.9813</v>
       </c>
       <c r="G250" t="n">
-        <v>-208493.0510895369</v>
-      </c>
-      <c r="H250" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9111,18 +8473,15 @@
         <v>8051.5776</v>
       </c>
       <c r="G251" t="n">
-        <v>-200441.4734895369</v>
-      </c>
-      <c r="H251" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9144,18 +8503,15 @@
         <v>38649.866</v>
       </c>
       <c r="G252" t="n">
-        <v>-239091.3394895369</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9177,18 +8533,15 @@
         <v>107631.0431753086</v>
       </c>
       <c r="G253" t="n">
-        <v>-239091.3394895369</v>
-      </c>
-      <c r="H253" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9210,18 +8563,15 @@
         <v>2196.0426</v>
       </c>
       <c r="G254" t="n">
-        <v>-236895.2968895369</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9243,18 +8593,15 @@
         <v>1295</v>
       </c>
       <c r="G255" t="n">
-        <v>-236895.2968895369</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9276,18 +8623,15 @@
         <v>27500</v>
       </c>
       <c r="G256" t="n">
-        <v>-264395.2968895369</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9309,18 +8653,15 @@
         <v>14974.6927</v>
       </c>
       <c r="G257" t="n">
-        <v>-264395.2968895369</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9342,18 +8683,15 @@
         <v>5000</v>
       </c>
       <c r="G258" t="n">
-        <v>-264395.2968895369</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9375,18 +8713,15 @@
         <v>50000</v>
       </c>
       <c r="G259" t="n">
-        <v>-214395.2968895369</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9408,18 +8743,15 @@
         <v>4538.6278</v>
       </c>
       <c r="G260" t="n">
-        <v>-214395.2968895369</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9441,18 +8773,15 @@
         <v>2170</v>
       </c>
       <c r="G261" t="n">
-        <v>-214395.2968895369</v>
-      </c>
-      <c r="H261" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9474,18 +8803,15 @@
         <v>54915</v>
       </c>
       <c r="G262" t="n">
-        <v>-269310.2968895369</v>
-      </c>
-      <c r="H262" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9507,18 +8833,15 @@
         <v>47455.4628</v>
       </c>
       <c r="G263" t="n">
-        <v>-269310.2968895369</v>
-      </c>
-      <c r="H263" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9540,18 +8863,15 @@
         <v>7372</v>
       </c>
       <c r="G264" t="n">
-        <v>-261938.2968895369</v>
-      </c>
-      <c r="H264" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9573,18 +8893,15 @@
         <v>153535.7889</v>
       </c>
       <c r="G265" t="n">
-        <v>-261938.2968895369</v>
-      </c>
-      <c r="H265" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9606,18 +8923,15 @@
         <v>43781.699</v>
       </c>
       <c r="G266" t="n">
-        <v>-261938.2968895369</v>
-      </c>
-      <c r="H266" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
